--- a/Game Plan.xlsx
+++ b/Game Plan.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
-  <si>
-    <t>Character is a scientist who discovered that the world is actually flat. He knew this would anger a great many people so he decided to keep this finding to himself, aside from telling his own mother, of course. When he woke up however, he discovers that the information got out.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+  <si>
+    <t>Character is a scientist who discovered that the world is actually flat. He knew this would anger a great many people so he decided to keep this finding to himself, aside from telling his own mother, of course. When he woke up however, he discovers that the information got out. You must find and destroy the paper before the angry mobs do or an even worse chaos will ensue.</t>
   </si>
   <si>
     <t>Levels</t>
@@ -26,7 +26,7 @@
     <t>Mission</t>
   </si>
   <si>
-    <t xml:space="preserve">Cut Scenes / Hint Bubbles </t>
+    <t>Cut Scenes / Hint Bubbles / Dialog</t>
   </si>
   <si>
     <r>
@@ -105,7 +105,26 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t xml:space="preserve">— Character gets a call from his/her mother saying she published his scientific findings against his wishes — character says </t>
+      <t xml:space="preserve">— “Last night we received a tip from a source who wishes to remain anonymous stating that **Characters name** has scientific proof that the world is actually flat.” - </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>news dialog</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> + +— Character gets a call from his/her mother saying she published his scientific findings against his wishes — character says </t>
     </r>
     <r>
       <rPr>
@@ -134,7 +153,7 @@
         <rFont val="Helvetica Neue"/>
       </rPr>
       <t> -— (After first visit to lab) When returning to house he/she gets a call from his/her mother saying the publisher won’t withdrawal the article and that the character will have to go there and force their hand</t>
+— “I gave the publisher a call. They said they won’t withdrawal the article. The address for the publishers office is… Oh the angry mob on your roof cut your power lines and your phone got soaked going through the sewer so now you can’t use GoogleMaps? I’ll print you off a map then. Head here after you get the research paper from the lab so that you can pick it up.”</t>
     </r>
   </si>
   <si>
@@ -248,16 +267,18 @@
     <t>Moms Place</t>
   </si>
   <si>
-    <t>— Old lady’s house.. cats everywhere.. idk</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">— Character will need to convince his mother to relinquish rights for the publication of his findings from the publisher
+    <t>— Old lady’s house. Cats everywhere.. + +</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">— Mom does not remember where the she left the publishers number, but she has a story to tell you about her night that might give you a hint
 </t>
     </r>
     <r>
@@ -275,19 +296,12 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t xml:space="preserve">— Must talk sense into mother (picking from a list of pre-made responses) to convince her to call publisher while avoiding making her angry and getting smacked </t>
+      <t>— Must listen to old lady mom’s story and deduce which cats snatched the piece of paper with the publishers number on it to advance  +</t>
     </r>
     <r>
       <rPr>
         <b val="1"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>(Health bar level)</t>
-    </r>
-    <r>
-      <rPr>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -297,6 +311,14 @@
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>— Character will need to make it to the lab in order to destroy evidence of his scientific findings</t>
+    </r>
+    <r>
+      <rPr>
         <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
@@ -305,13 +327,15 @@
       <t>  </t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>— Character will need to make it to the lab in order to destroy evidence of his scientific findings</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">— Mob has moved on to the lab in order to find and disprove the paper. However, the ones who somehow found their way to the roof didn’t plan a way to get down. They are stuck there. - </t>
     </r>
     <r>
       <rPr>
@@ -320,50 +344,10 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t> -</t>
-    </r>
-  </si>
-  <si>
-    <t>— “Take this wooden cane in case you run into any trouble” — mom</t>
-  </si>
-  <si>
-    <t>Lab</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>— Angry mob outside blocking the way is too large to fight off. - -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>— Lands on the roof with helicopter and there are several people inside the lab looting it, trying to find the research</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>— Must return to house and fight off the mob with moms cane get to the helicopter to enter the lab through the roof - -— Character needs to find and destroy the evidence and then head back to “moms place” to get a map to find the publisher</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
+      <t>dialog</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -371,6 +355,123 @@
       <t xml:space="preserve">  
 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">— “The lady on the news says the angry mob moved to your lab. Good thing you always lock up. You’re going to have to make it to your lab and pick up that paper before they get it if you really think it would be dangerous for someone to have proof. Take this wooden cane in case you run into any trouble” — </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>mom</t>
+    </r>
+  </si>
+  <si>
+    <t>Lab</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>— The way to the lab is blocked by an angry mob + +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>— Lands on the roof with helicopter and there are several people inside the lab looting it, trying to find the research in order to disprove it</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>— Must return to house and fight off the roof mob with moms cane and get to the helicopter to enter the lab through the roof + +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>— Character needs to find where people are getting in and block the way before he can open his safe and destroy the evidence. Then the character must head back to “moms place” to get a map to find the publisher.</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> +
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">— Angry mob outside blocking the way is too large to fight off - </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>dialog + +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">— There are people inside. You must have left one of the windows open or something. Let’s find where they’re getting in and block it before we get overwhelmed. - </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>dialog</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
   </si>
   <si>
@@ -1690,7 +1791,7 @@
     <col min="5" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="71.1" customHeight="1">
+    <row r="1" ht="78" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
@@ -1712,7 +1813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="158.7" customHeight="1">
+    <row r="3" ht="282.2" customHeight="1">
       <c r="A3" t="s" s="4">
         <v>5</v>
       </c>
@@ -1762,7 +1863,7 @@
       </c>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" ht="188.15" customHeight="1">
+    <row r="7" ht="176.1" customHeight="1">
       <c r="A7" t="s" s="7">
         <v>18</v>
       </c>
@@ -1776,7 +1877,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" ht="140.1" customHeight="1">
+    <row r="8" ht="164.1" customHeight="1">
       <c r="A8" t="s" s="7">
         <v>22</v>
       </c>
@@ -1786,11 +1887,13 @@
       <c r="C8" t="s" s="9">
         <v>24</v>
       </c>
-      <c r="D8" s="10"/>
+      <c r="D8" t="s" s="9">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" t="s" s="7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="10"/>

--- a/Game Plan.xlsx
+++ b/Game Plan.xlsx
@@ -6,27 +6,63 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - Character is a scient" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1 - Intro_  + +          Yo" sheetId="1" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
-    <t>Character is a scientist who discovered that the world is actually flat. He knew this would anger a great many people so he decided to keep this finding to himself, aside from telling his own mother, of course. When he woke up however, he discovers that the information got out. You must find and destroy the paper before the angry mobs do or an even worse chaos will ensue.</t>
+    <t>Intro:  + +          You are a scientist who has discovered actual evidence that the world is in fact flat. You knew this would enrage a great many people so you had decided to tell no-one about this finding, aside from your own mother of course.  + +          However, this morning you woke up to discover that the news got out. Nobody can find that evidence. Find and destroy it before the angry mob gets it or you, else an even worse chaos ensues.  + + +                                **Prompt player to enter their name to be stored and used in news and other dialogs**</t>
   </si>
   <si>
-    <t>Levels</t>
+    <t>Maps</t>
   </si>
   <si>
-    <t>Setting</t>
+    <t>Levels Setting</t>
   </si>
   <si>
     <t>Mission</t>
   </si>
   <si>
-    <t>Cut Scenes / Hint Bubbles / Dialog</t>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Thought/Hint/Speech-Bubbles </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <i val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> Dialog</t>
+    </r>
   </si>
   <si>
     <r>
@@ -36,7 +72,78 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>Home +      <t xml:space="preserve">Home
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">(Ryn) +
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t> +</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>On second visit    </t>
     </r>
@@ -47,41 +154,254 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>On second visit</t>
+      <t xml:space="preserve">
+</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> — TV playing news about mobs forming outside characters house
- -—  Butler interacts with player by telling him/her that the front page of today’s newspaper shows the characters face +    <r>
+      <rPr>
+        <b val="1"/>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Level 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>(Side View):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Living room / bedroom</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">— TV </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>(dialog 1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> +—  Butler appears, after </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>mission 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> is completed, tells you that there is a secret passage way through the sewer. </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>(onto mission 2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">—Interacting with the roof’s door after the butler tells you about the sewer brings up </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>dialog 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">— Your mom calls before you enter the sewer </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">- dialog 4
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>— Interacting with a table or some object that could have a newspaper on it</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> (using the space or enter button) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">pulls up a dialog saying the front page of today’s newspaper shows the your face.  
- -</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>— Needs to look through all windows before butler comes up to character to explain that there is a secret passage way through the sewer - -</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="19"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -95,153 +415,16 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>— Player will have to fight the angry mob that somehow made their way onto the roof (using moms cane)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">— “Last night we received a tip from a source who wishes to remain anonymous stating that **Characters name** has scientific proof that the world is actually flat.” - </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>news dialog</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve"> - -— Character gets a call from his/her mother saying she published his scientific findings against his wishes — character says </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>“no s***, mom.”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve"> - -— “Roof is blocked by angry mob. You must use the sewer” — Butler
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t> -— “I gave the publisher a call. They said they won’t withdrawal the article. The address for the publishers office is… Oh the angry mob on your roof cut your power lines and your phone got soaked going through the sewer so now you can’t use GoogleMaps? I’ll print you off a map then. Head here after you get the research paper from the lab so that you can pick it up.”</t>
-    </r>
-  </si>
-  <si>
-    <t>Sewer</t>
-  </si>
-  <si>
-    <t>— Starts underneath house and leads to a clothing store  - -— Pitch black except for small area surrounding player</t>
-  </si>
-  <si>
-    <t>— Needs to find a literal key hidden under the sewer water to make it through the sewer while fighting off rats - -— Needs to make way through sewer maze to a torch and pick it up to light the area  - -— Key does not show through water until all torches in the room are lit</t>
-  </si>
-  <si>
-    <t>Clothing Store</t>
-  </si>
-  <si>
-    <t>— Some windows do not have blinds covering them and therefor will cause fans to come crashing through if walked in front of -</t>
-  </si>
-  <si>
-    <t>— Character will need to find disguise while avoiding open windows to be able to get to the exit - -— Exit to the streets through store entrance/exit once disguised</t>
-  </si>
-  <si>
-    <t>The Streetz</t>
-  </si>
-  <si>
-    <t>— Character will need to avoid crowd when possible while making way to his laboratory</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>— Immediately gets sighted upon leaving store and mob at his/her mansion starts heading his way - -— Make it to</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>“mom’s place”</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">before massive mob makes their way from his house </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>(Timed Level)</t>
+      <t xml:space="preserve">2. Rooftop </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">(Aerial View) </t>
     </r>
     <r>
       <rPr>
@@ -253,18 +436,1385 @@
   — </t>
     </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>Lock and key exercise to be determined…</t>
-    </r>
   </si>
   <si>
-    <t>Moms Place</t>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">You need to look through all potential exits (windows, doors, etc.) before butler
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> The game then allows you to move a certain couch, chair or other object one space where you discover the entrance to the sewer. The butler hands you a torch before you enter the sewer.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>(On to level 2)</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="19"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t> +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">— Player will have to fight (using moms cane) the members of the angry mob that somehow made their way onto the roof.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> +— Pushing them off the roof or hitting them enough times enables you to  board a helicopter then cuts scene to the lab (or starts potential helicopter side-scroller round) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">1. “Last night we received a tip from a source who wishes to remain anonymous stating that </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>**Characters name**</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> has scientific proof that the world is actually flat. Mobs of enraged scientists have formed outside</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> **Characters name**’</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">s house.” - </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>news dialog</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> + +2. “Hey son. I don’t know if you’ve heard yet, I called a publisher about that evidence you discovered.” </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>“Ya, no sh**. Thanks for the heads up.”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> “I figured my son deserves to be recognized for his hard work!” </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>“I can’t talk right now mom, I have to go destroy the evidence.”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> — </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">You </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">mom + +3. “Roof is blocked by angry mob of scientist. Not sure if they’re smart for finding a way up here or the opposite for not having planned a way down. Either way, I’m going to have to use the sewer for now.” — </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>hint bubble dialog</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> +4. “I gave the publisher a call. They said they won’t withdrawal the article. The address for the publishers office is… What’s that? The angry mob on your roof cut your power lines and your phone got soaked going through the sewer? I guess you’ll have to make it back here so I can print you off a map. Head here once you fetch the research paper from the lab.” </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>— mom</t>
+    </r>
+  </si>
+  <si>
+    <t>Sewer + +Ariel View
+Jed</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Level 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">(Aerial View):
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Health meter appears * 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">— </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">dialog 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">— Complete darkness aside from small area surrounding player: </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Mission 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">— Water covering hidden key on floor: </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Mission 2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">— Locked door blocking way to stores basement - </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>dialog 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">— Enemy spiders or rats attack in certain areas
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">—Entering sewer - </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>dialog 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">— Angry scientist hiding behind a wall pops out on your way back to your house: </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>mission 4 -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>dialog 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Need to light all torches for level to become lit and lever to appear
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> Pull lever to drain sewer and find a key hidden under the sewer water in order to make it through the sewer into the store. +</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> Stomp on rats/spiders along the way.</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>(On to level 3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> Fight the scientist with the cane from mom to receive a baseball bat </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>(or whatever)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> and then continue to your house</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">1. “There has to be some way to brighten it up in here.” — </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Thought bubble
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> “</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Door’s locked. I wonder if there’s a way to get it opened.” — </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Thought bubble</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">3. **You hear the faint sound of movement.** “Weird. I don’t remember the mice being this loud my first time through.” - </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Thought bubble
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">4. "I heard you came out through here earlier. I thought maybe I would find a path to your house to find that research paper but now I can make you tell me!” - </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Angry Scientist</t>
+    </r>
+  </si>
+  <si>
+    <t>Clothing Store
+Soyoung</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Level 3</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> (Aerial View):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">— Emerges through closet in an office
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">— Office door has a key code lock </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Mission 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">— </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Dialog 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">— Some windows do not have blinds covering them. Mobbists peaking in through open windows every few seconds: </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Mission 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>— Interacting with most shelves brings up</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> dialog 2. — </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">— Only one brings up </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">dialog 3
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">— Interacting with door before rollerblades found </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">- dialog 4
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">—Rollerblades hidden on one of the store floors </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">- dialog 5
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>— Before map and after rollerblades are found</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> - dialog 6
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>—When map is found</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> - dialog 7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> Search the filing cabinets and desk for clues to the passcode for the door. Find a picture that has a date on it and enter that to unlock the door.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> Time your way passed the open windows
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> Push boxes around and search the levels of the store for a disguise and rollerblades and a map.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">1. **Hey, a clothing store! Lucky the sewer’s staircase leads here. Closed mid-day too. Not odd at all.. Time to find a disguise.** </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">— Thought bubble
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">2. **I guess dressing like a girl would be a pretty good disguise. Better look for something else though.** </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>— Thought bubble</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>3. **This will do.**</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">— Thought bubble
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>4. **They’re too close right now. There’s no way I will make it all the way to the lab. Maybe they’ll pass by soon. Better keep looking around for now.**</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">— Thought bubble
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">5. **These might help me outrun them** </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">— Thought bubble
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>6. “I have no idea which way to go. I guess I should pay more attention when my chauffeur drives me around. Better look for a map”.</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">7. “A map… Ooh, looks like mom’s house is right around the corner. Can’t believe I didn’t already know that.” </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">- You
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">The Streetz
+Khanh 
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Level 4</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> (Aerial View): 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>— Mobbists immediately recognize him —</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>dialog 1 &amp; 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>— Debris everywhere from the rioting mobbists</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> Immediately gets sighted upon leaving store and mob at his/her mansion starts heading his way +</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Zoom(on rollerblades) through the street avoiding debris. Hit an obstacle and the mobbists might catch up with you. +</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">1. “There he is!” </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>- mobbists</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">2. “Sh**! Dressing like a girl is looking more appealing right about now.” </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">— You </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">3. They’re </t>
+    </r>
+  </si>
+  <si>
+    <t>Moms Place + +Ariel View
+Ryan</t>
   </si>
   <si>
     <t>— Old lady’s house. Cats everywhere.. @@ -375,7 +1925,9 @@
     </r>
   </si>
   <si>
-    <t>Lab</t>
+    <t>Lab + +Jimmy</t>
   </si>
   <si>
     <r>
@@ -475,7 +2027,12 @@
     </r>
   </si>
   <si>
-    <t>Helicopter level?</t>
+    <t>Helicopter level — (Side-scroller) + +Jed</t>
+  </si>
+  <si>
+    <t>Publishers office</t>
   </si>
 </sst>
 </file>
@@ -485,7 +2042,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -504,6 +2061,26 @@
     </font>
     <font>
       <b val="1"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="1"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <u val="single"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <i val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -662,7 +2239,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -685,10 +2262,10 @@
     <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1784,14 +3361,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.3047" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.0859" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.4766" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.3438" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.6641" style="1" customWidth="1"/>
+    <col min="4" max="4" width="60.8594" style="1" customWidth="1"/>
     <col min="5" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="78" customHeight="1">
+    <row r="1" ht="158.9" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
@@ -1813,7 +3390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="282.2" customHeight="1">
+    <row r="3" ht="308.65" customHeight="1">
       <c r="A3" t="s" s="4">
         <v>5</v>
       </c>
@@ -1827,7 +3404,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="137.7" customHeight="1">
+    <row r="4" ht="260.35" customHeight="1">
       <c r="A4" t="s" s="7">
         <v>9</v>
       </c>
@@ -1837,79 +3414,87 @@
       <c r="C4" t="s" s="9">
         <v>11</v>
       </c>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5" ht="96.35" customHeight="1">
-      <c r="A5" t="s" s="7">
+      <c r="D4" t="s" s="9">
         <v>12</v>
       </c>
-      <c r="B5" t="s" s="8">
+    </row>
+    <row r="5" ht="200.55" customHeight="1">
+      <c r="A5" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="C5" t="s" s="9">
+      <c r="B5" t="s" s="8">
         <v>14</v>
       </c>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" ht="128.2" customHeight="1">
-      <c r="A6" t="s" s="7">
+      <c r="C5" t="s" s="9">
         <v>15</v>
       </c>
-      <c r="B6" t="s" s="8">
+      <c r="D5" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="C6" t="s" s="9">
+    </row>
+    <row r="6" ht="123.9" customHeight="1">
+      <c r="A6" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="B6" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s" s="9">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s" s="9">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" ht="176.1" customHeight="1">
       <c r="A7" t="s" s="7">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s" s="8">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s" s="9">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s" s="9">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" ht="164.1" customHeight="1">
       <c r="A8" t="s" s="7">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s" s="8">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s" s="9">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="9" ht="20.05" customHeight="1">
+    <row r="9" ht="56.05" customHeight="1">
       <c r="A9" t="s" s="7">
-        <v>26</v>
+        <v>29</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+      <c r="A10" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" s="12"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Game Plan.xlsx
+++ b/Game Plan.xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Notilaca\Documents\GameProd2\GameProd2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - Intro_    -          Yo" sheetId="1" r:id="rId4"/>
+          Yo" sheetId="1" r:id="rId1"/>
+    <sheet name="Level3" sheetId="3" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="62">
   <si>
     <t>Intro:    @@ -37,7 +45,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -46,8 +54,8 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
-        <i val="1"/>
+        <b/>
+        <i/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -56,7 +64,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -67,7 +75,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -77,7 +85,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -88,7 +96,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -98,7 +106,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -108,7 +116,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -118,7 +126,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -128,7 +136,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -138,7 +146,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -149,7 +157,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -161,8 +169,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -179,7 +187,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -205,7 +213,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -232,7 +240,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -259,7 +267,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -276,7 +284,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -294,7 +302,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -312,7 +320,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -347,7 +355,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -374,7 +382,7 @@
     </r>
     <r>
       <rPr>
-        <i val="1"/>
+        <i/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -419,7 +427,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -440,7 +448,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -458,7 +466,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -476,7 +484,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -485,7 +493,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="19"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -495,7 +503,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -533,7 +541,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -550,7 +558,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -567,7 +575,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -586,7 +594,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -603,7 +611,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -620,7 +628,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -637,7 +645,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -656,7 +664,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -683,7 +691,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -700,8 +708,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -718,7 +726,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -728,7 +736,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -738,7 +746,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -748,7 +756,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -766,7 +774,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -793,7 +801,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -820,7 +828,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -830,7 +838,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -848,7 +856,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -892,7 +900,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -927,7 +935,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -944,7 +952,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -973,7 +981,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -991,7 +999,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1009,7 +1017,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1026,7 +1034,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1062,7 +1070,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1079,7 +1087,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1106,7 +1114,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1116,7 +1124,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1134,7 +1142,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1151,7 +1159,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1186,7 +1194,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1196,7 +1204,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1214,7 +1222,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1229,8 +1237,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1239,7 +1247,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1274,7 +1282,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1300,7 +1308,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1326,7 +1334,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1352,7 +1360,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1369,7 +1377,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1387,7 +1395,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1405,7 +1413,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1423,7 +1431,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1441,7 +1449,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1452,7 +1460,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1470,7 +1478,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1488,7 +1496,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1515,7 +1523,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1533,7 +1541,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1559,7 +1567,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1577,7 +1585,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1595,7 +1603,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1613,7 +1621,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1631,7 +1639,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1648,8 +1656,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1658,7 +1666,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1676,7 +1684,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1702,7 +1710,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1713,7 +1721,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1731,7 +1739,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1759,7 +1767,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1785,7 +1793,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1851,7 +1859,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1869,7 +1877,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1889,7 +1897,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1916,7 +1924,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1970,7 +1978,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1991,7 +1999,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2010,7 +2018,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2034,65 +2042,274 @@
   <si>
     <t>Publishers office</t>
   </si>
+  <si>
+    <t>player goal</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>object position</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. player should take passcode in cabinet room(1F - map2)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>passcode : map2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. player can move to storage room and find map(1F - map4)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>map : map4</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. then, player can up stairs and enemy appear in the store(1,2F)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>rollerblades : map7</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. player should find rollerblades (2F - map7)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>disguise : map3</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. player should find disguise (1F - map3)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. after cloth take, go to exit point(1F - map1)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1F (map1:center, map2:cabinet room, map3:staffroom, map4:storage room)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>window</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>cabinet</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>exit</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;map3</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>hanger</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>counter</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>display</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;map2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;map5</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>enter</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;map4</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;map1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2F (map5:center, map6, map7)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;map5</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>hagner</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;map6</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;map1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;map7</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="1"/>
+      <b/>
+      <i/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
-      <u val="single"/>
+      <b/>
+      <u/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <i val="1"/>
+      <i/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="19"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Helvetica Neue"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2111,8 +2328,50 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -2225,80 +2484,1572 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="66">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="18" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="19" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="21" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="20" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="552450" y="3209925"/>
+          <a:ext cx="571500" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>map2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3543300" y="3238500"/>
+          <a:ext cx="523875" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>map1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9982200" y="3152775"/>
+          <a:ext cx="523875" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>map3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9963150" y="5486400"/>
+          <a:ext cx="523875" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>map4</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3457575" y="10982325"/>
+          <a:ext cx="523875" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>map5</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>476250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13496925" y="10725150"/>
+          <a:ext cx="523875" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>map6</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11220450" y="13849350"/>
+          <a:ext cx="523875" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>map7</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Line Callout 2 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14916150" y="2847975"/>
+          <a:ext cx="2895599" cy="1666875"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 18750"/>
+            <a:gd name="adj4" fmla="val -16667"/>
+            <a:gd name="adj5" fmla="val 38615"/>
+            <a:gd name="adj6" fmla="val -24186"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Line Callout 2 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15906750" y="4848225"/>
+          <a:ext cx="3419475" cy="2124075"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 18750"/>
+            <a:gd name="adj4" fmla="val -16667"/>
+            <a:gd name="adj5" fmla="val 50472"/>
+            <a:gd name="adj6" fmla="val -66556"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Line Callout 2 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1009650" y="6219825"/>
+          <a:ext cx="1895475" cy="1666875"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 18750"/>
+            <a:gd name="adj4" fmla="val -16667"/>
+            <a:gd name="adj5" fmla="val -19483"/>
+            <a:gd name="adj6" fmla="val -8617"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Line Callout 2 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="21600000">
+          <a:off x="4600575" y="7200900"/>
+          <a:ext cx="4314825" cy="2686050"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 18750"/>
+            <a:gd name="adj4" fmla="val -16667"/>
+            <a:gd name="adj5" fmla="val -10263"/>
+            <a:gd name="adj6" fmla="val -10824"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Line Callout 2 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14344651" y="10839450"/>
+          <a:ext cx="2552700" cy="2124075"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 18750"/>
+            <a:gd name="adj4" fmla="val -16667"/>
+            <a:gd name="adj5" fmla="val 33880"/>
+            <a:gd name="adj6" fmla="val -25887"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>172817</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>219076</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Line Callout 2 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="449042" y="14639926"/>
+          <a:ext cx="4037232" cy="2647950"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -2671"/>
+            <a:gd name="adj3" fmla="val 18750"/>
+            <a:gd name="adj4" fmla="val -10061"/>
+            <a:gd name="adj5" fmla="val -1372"/>
+            <a:gd name="adj6" fmla="val -19989"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>65307</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Line Callout 2 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6219825" y="14963774"/>
+          <a:ext cx="3789582" cy="2266951"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -2671"/>
+            <a:gd name="adj3" fmla="val 18750"/>
+            <a:gd name="adj4" fmla="val -10061"/>
+            <a:gd name="adj5" fmla="val -1372"/>
+            <a:gd name="adj6" fmla="val -19989"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266502</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171255</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1171575" y="6286500"/>
+          <a:ext cx="1580952" cy="1561905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>231591</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15992475" y="4924425"/>
+          <a:ext cx="3298641" cy="1990725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>209506</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14373226" y="10868025"/>
+          <a:ext cx="2409780" cy="2066926"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>37632</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>56889</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6238875" y="15039975"/>
+          <a:ext cx="3742857" cy="2085714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>361950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>69325</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14992351" y="2933700"/>
+          <a:ext cx="2755374" cy="1476375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>264111</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="485775" y="14811376"/>
+          <a:ext cx="3921711" cy="2362200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>68283</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4648200" y="7286625"/>
+          <a:ext cx="4259283" cy="2562225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -2497,7 +4248,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2516,7 +4267,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2546,7 +4297,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2572,7 +4323,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2598,7 +4349,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2624,7 +4375,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2650,7 +4401,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2676,7 +4427,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2702,7 +4453,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2728,7 +4479,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2754,7 +4505,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2767,9 +4518,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -2786,7 +4543,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2805,7 +4562,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2831,7 +4588,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2857,7 +4614,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2883,7 +4640,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2909,7 +4666,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2935,7 +4692,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2961,7 +4718,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2987,7 +4744,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3013,7 +4770,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3039,7 +4796,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3052,9 +4809,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -3068,7 +4831,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -3087,7 +4850,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3117,7 +4880,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3143,7 +4906,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3169,7 +4932,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3195,7 +4958,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3221,7 +4984,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3247,7 +5010,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3273,7 +5036,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3299,7 +5062,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3325,7 +5088,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3338,172 +5101,3664 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:D11"/>
+  <dimension ref="A1:IV11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.0859" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.4766" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.3438" style="1" customWidth="1"/>
-    <col min="4" max="4" width="60.8594" style="1" customWidth="1"/>
-    <col min="5" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="60.85546875" style="1" customWidth="1"/>
+    <col min="5" max="256" width="16.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="158.9" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:4" ht="158.85" customHeight="1">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="308.65" customHeight="1">
-      <c r="A3" t="s" s="4">
+    <row r="3" spans="1:4" ht="308.64999999999998" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s" s="5">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s" s="6">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s" s="6">
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="260.35" customHeight="1">
-      <c r="A4" t="s" s="7">
+    <row r="4" spans="1:4" ht="260.45" customHeight="1">
+      <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s" s="8">
+      <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s" s="9">
+      <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s" s="9">
+      <c r="D4" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="200.55" customHeight="1">
-      <c r="A5" t="s" s="7">
+    <row r="5" spans="1:4" ht="200.65" customHeight="1">
+      <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s" s="8">
+      <c r="B5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s" s="9">
+      <c r="C5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s" s="9">
+      <c r="D5" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" ht="123.9" customHeight="1">
-      <c r="A6" t="s" s="7">
+    <row r="6" spans="1:4" ht="123.95" customHeight="1">
+      <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s" s="8">
+      <c r="B6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s" s="9">
+      <c r="C6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s" s="9">
+      <c r="D6" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" ht="176.1" customHeight="1">
-      <c r="A7" t="s" s="7">
+    <row r="7" spans="1:4" ht="176.1" customHeight="1">
+      <c r="A7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s" s="8">
+      <c r="B7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s" s="9">
+      <c r="C7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s" s="9">
+      <c r="D7" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" ht="164.1" customHeight="1">
-      <c r="A8" t="s" s="7">
+    <row r="8" spans="1:4" ht="164.1" customHeight="1">
+      <c r="A8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="s" s="8">
+      <c r="B8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s" s="9">
+      <c r="C8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D8" t="s" s="9">
+      <c r="D8" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" ht="56.05" customHeight="1">
-      <c r="A9" t="s" s="7">
+    <row r="9" spans="1:4" ht="56.1" customHeight="1">
+      <c r="A9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
     </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="7">
+    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
     </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="11"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:BJ59"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="22.5" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="4.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:61" ht="22.5" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:61" ht="22.5" customHeight="1">
+      <c r="B2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="16"/>
+      <c r="V2" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="2:61" ht="22.5" customHeight="1">
+      <c r="B3" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="20"/>
+      <c r="V3" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:61" ht="22.5" customHeight="1">
+      <c r="B4" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="20"/>
+      <c r="V4" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:61" ht="22.5" customHeight="1">
+      <c r="B5" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="20"/>
+      <c r="V5" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="2:61" ht="22.5" customHeight="1">
+      <c r="B6" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="20"/>
+      <c r="V6" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:61" ht="22.5" customHeight="1">
+      <c r="B7" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="20"/>
+    </row>
+    <row r="8" spans="2:61" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B8" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="23"/>
+    </row>
+    <row r="10" spans="2:61" ht="42" customHeight="1" thickBot="1">
+      <c r="B10" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="25"/>
+      <c r="AC10" s="25"/>
+      <c r="AD10" s="25"/>
+      <c r="AE10" s="25"/>
+      <c r="AF10" s="25"/>
+      <c r="AG10" s="25"/>
+      <c r="AH10" s="25"/>
+      <c r="AI10" s="25"/>
+      <c r="AJ10" s="25"/>
+      <c r="AK10" s="25"/>
+      <c r="AL10" s="25"/>
+      <c r="AM10" s="25"/>
+      <c r="AN10" s="25"/>
+      <c r="AO10" s="25"/>
+      <c r="AP10" s="25"/>
+      <c r="AQ10" s="25"/>
+      <c r="AR10" s="25"/>
+      <c r="AS10" s="25"/>
+      <c r="AT10" s="25"/>
+      <c r="AU10" s="25"/>
+      <c r="AV10" s="25"/>
+      <c r="AW10" s="25"/>
+      <c r="AX10" s="25"/>
+      <c r="AY10" s="25"/>
+      <c r="AZ10" s="25"/>
+      <c r="BA10" s="25"/>
+      <c r="BB10" s="25"/>
+      <c r="BC10" s="25"/>
+      <c r="BD10" s="25"/>
+      <c r="BE10" s="25"/>
+      <c r="BF10" s="25"/>
+      <c r="BG10" s="25"/>
+      <c r="BH10" s="25"/>
+      <c r="BI10" s="25"/>
+    </row>
+    <row r="11" spans="2:61" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="27"/>
+      <c r="AC11" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD11" s="27"/>
+      <c r="AE11" s="27"/>
+      <c r="AF11" s="27"/>
+      <c r="AG11" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH11" s="27"/>
+      <c r="AI11" s="27"/>
+      <c r="AJ11" s="29"/>
+      <c r="AK11" s="27">
+        <v>12</v>
+      </c>
+      <c r="AL11" s="27">
+        <v>12</v>
+      </c>
+      <c r="AM11" s="27">
+        <v>12</v>
+      </c>
+      <c r="AN11" s="27">
+        <v>12</v>
+      </c>
+      <c r="AO11" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP11" s="27">
+        <v>12</v>
+      </c>
+      <c r="AQ11" s="27">
+        <v>12</v>
+      </c>
+      <c r="AR11" s="27">
+        <v>12</v>
+      </c>
+      <c r="AS11" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT11" s="27">
+        <v>12</v>
+      </c>
+      <c r="AU11" s="27">
+        <v>12</v>
+      </c>
+      <c r="AV11" s="27">
+        <v>12</v>
+      </c>
+      <c r="AW11" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="AX11" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY11" s="31"/>
+      <c r="AZ11" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="BA11" s="27"/>
+      <c r="BB11" s="27"/>
+      <c r="BC11" s="27"/>
+      <c r="BD11" s="27"/>
+      <c r="BE11" s="27"/>
+      <c r="BF11" s="27"/>
+      <c r="BG11" s="27"/>
+      <c r="BH11" s="27"/>
+      <c r="BI11" s="27"/>
+    </row>
+    <row r="12" spans="2:61" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B12" s="26"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="26"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="V12" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="W12" s="36"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="35"/>
+      <c r="AA12" s="35"/>
+      <c r="AB12" s="35"/>
+      <c r="AC12" s="35"/>
+      <c r="AD12" s="35"/>
+      <c r="AE12" s="35"/>
+      <c r="AF12" s="35"/>
+      <c r="AG12" s="35"/>
+      <c r="AI12" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ12" s="38"/>
+      <c r="AK12" s="38"/>
+      <c r="AL12" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM12" s="31"/>
+      <c r="AN12" s="31"/>
+      <c r="AO12" s="34"/>
+      <c r="AP12" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ12" s="31"/>
+      <c r="AR12" s="31"/>
+      <c r="AS12" s="34"/>
+      <c r="AT12" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU12" s="31"/>
+      <c r="AV12" s="31"/>
+      <c r="AW12" s="34"/>
+      <c r="AX12" s="33"/>
+      <c r="AY12" s="33"/>
+      <c r="AZ12" s="39"/>
+      <c r="BA12" s="27"/>
+      <c r="BB12" s="27"/>
+      <c r="BC12" s="27"/>
+      <c r="BD12" s="27"/>
+      <c r="BE12" s="27"/>
+      <c r="BF12" s="27"/>
+      <c r="BG12" s="27"/>
+      <c r="BH12" s="27"/>
+      <c r="BI12" s="27"/>
+    </row>
+    <row r="13" spans="2:61" ht="22.5" customHeight="1">
+      <c r="B13" s="26"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
+      <c r="W13" s="41"/>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="41"/>
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="41"/>
+      <c r="AB13" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC13" s="33"/>
+      <c r="AD13" s="33"/>
+      <c r="AE13" s="19"/>
+      <c r="AF13" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG13" s="33"/>
+      <c r="AH13" s="33"/>
+      <c r="AI13" s="20"/>
+      <c r="AJ13" s="29"/>
+      <c r="AK13" s="18"/>
+      <c r="AL13" s="19"/>
+      <c r="AM13" s="41"/>
+      <c r="AN13" s="41"/>
+      <c r="AO13" s="19"/>
+      <c r="AP13" s="41"/>
+      <c r="AQ13" s="41"/>
+      <c r="AR13" s="41"/>
+      <c r="AS13" s="19"/>
+      <c r="AT13" s="41"/>
+      <c r="AU13" s="41"/>
+      <c r="AV13" s="41"/>
+      <c r="AW13" s="41"/>
+      <c r="AX13" s="19"/>
+      <c r="AY13" s="19"/>
+      <c r="AZ13" s="20"/>
+      <c r="BA13" s="27"/>
+      <c r="BB13" s="27"/>
+      <c r="BC13" s="27"/>
+      <c r="BD13" s="27"/>
+      <c r="BE13" s="27"/>
+      <c r="BF13" s="27"/>
+      <c r="BG13" s="27"/>
+      <c r="BH13" s="27"/>
+      <c r="BI13" s="27"/>
+    </row>
+    <row r="14" spans="2:61" ht="22.5" customHeight="1">
+      <c r="B14" s="26"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="26"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="T14" s="33"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="41"/>
+      <c r="W14" s="41"/>
+      <c r="X14" s="41"/>
+      <c r="Y14" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z14" s="33"/>
+      <c r="AA14" s="41"/>
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="41"/>
+      <c r="AD14" s="41"/>
+      <c r="AE14" s="41"/>
+      <c r="AF14" s="41"/>
+      <c r="AG14" s="41"/>
+      <c r="AH14" s="41"/>
+      <c r="AI14" s="20"/>
+      <c r="AJ14" s="29"/>
+      <c r="AK14" s="18"/>
+      <c r="AL14" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM14" s="33"/>
+      <c r="AN14" s="33"/>
+      <c r="AO14" s="41"/>
+      <c r="AP14" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ14" s="33"/>
+      <c r="AR14" s="33"/>
+      <c r="AS14" s="41"/>
+      <c r="AT14" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU14" s="33"/>
+      <c r="AV14" s="33"/>
+      <c r="AW14" s="41"/>
+      <c r="AX14" s="41"/>
+      <c r="AY14" s="41"/>
+      <c r="AZ14" s="20"/>
+      <c r="BA14" s="27"/>
+      <c r="BB14" s="27"/>
+      <c r="BC14" s="27"/>
+      <c r="BD14" s="27"/>
+      <c r="BE14" s="27"/>
+      <c r="BF14" s="27"/>
+      <c r="BG14" s="27"/>
+      <c r="BH14" s="27"/>
+      <c r="BI14" s="27"/>
+    </row>
+    <row r="15" spans="2:61" ht="22.5" customHeight="1">
+      <c r="B15" s="26"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="41"/>
+      <c r="V15" s="41"/>
+      <c r="W15" s="41"/>
+      <c r="X15" s="41"/>
+      <c r="Y15" s="33"/>
+      <c r="Z15" s="33"/>
+      <c r="AA15" s="41"/>
+      <c r="AB15" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC15" s="33"/>
+      <c r="AD15" s="33"/>
+      <c r="AE15" s="19"/>
+      <c r="AF15" s="19"/>
+      <c r="AG15" s="19"/>
+      <c r="AH15" s="19"/>
+      <c r="AJ15" s="29"/>
+      <c r="AL15" s="41"/>
+      <c r="AM15" s="41"/>
+      <c r="AN15" s="41"/>
+      <c r="AO15" s="41"/>
+      <c r="AP15" s="41"/>
+      <c r="AQ15" s="41"/>
+      <c r="AR15" s="41"/>
+      <c r="AS15" s="41"/>
+      <c r="AT15" s="41"/>
+      <c r="AU15" s="41"/>
+      <c r="AV15" s="41"/>
+      <c r="AW15" s="41"/>
+      <c r="AX15" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY15" s="33"/>
+      <c r="AZ15" s="20"/>
+      <c r="BA15" s="27"/>
+      <c r="BB15" s="27"/>
+      <c r="BC15" s="27"/>
+      <c r="BD15" s="27"/>
+      <c r="BE15" s="27"/>
+      <c r="BF15" s="27"/>
+      <c r="BG15" s="27"/>
+      <c r="BH15" s="27"/>
+      <c r="BI15" s="27"/>
+    </row>
+    <row r="16" spans="2:61" ht="22.5" customHeight="1">
+      <c r="B16" s="26"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="T16" s="33"/>
+      <c r="U16" s="33"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="41"/>
+      <c r="X16" s="41"/>
+      <c r="Y16" s="41"/>
+      <c r="Z16" s="41"/>
+      <c r="AA16" s="41"/>
+      <c r="AB16" s="41"/>
+      <c r="AC16" s="41"/>
+      <c r="AD16" s="41"/>
+      <c r="AE16" s="41"/>
+      <c r="AF16" s="41"/>
+      <c r="AG16" s="41"/>
+      <c r="AH16" s="41"/>
+      <c r="AI16" s="20"/>
+      <c r="AJ16" s="29"/>
+      <c r="AK16" s="18"/>
+      <c r="AL16" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM16" s="33"/>
+      <c r="AN16" s="41"/>
+      <c r="AO16" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP16" s="33"/>
+      <c r="AQ16" s="41"/>
+      <c r="AR16" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS16" s="33"/>
+      <c r="AT16" s="41"/>
+      <c r="AU16" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV16" s="33"/>
+      <c r="AW16" s="41"/>
+      <c r="AX16" s="33"/>
+      <c r="AY16" s="33"/>
+      <c r="AZ16" s="20"/>
+      <c r="BA16" s="27"/>
+      <c r="BB16" s="27"/>
+      <c r="BC16" s="27"/>
+      <c r="BD16" s="27"/>
+      <c r="BE16" s="27"/>
+      <c r="BF16" s="27"/>
+      <c r="BG16" s="27"/>
+      <c r="BH16" s="27"/>
+      <c r="BI16" s="27"/>
+    </row>
+    <row r="17" spans="2:61" ht="22.5" customHeight="1">
+      <c r="B17" s="26"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="41"/>
+      <c r="W17" s="41"/>
+      <c r="X17" s="41"/>
+      <c r="Y17" s="41"/>
+      <c r="Z17" s="41"/>
+      <c r="AA17" s="41"/>
+      <c r="AB17" s="41"/>
+      <c r="AC17" s="41"/>
+      <c r="AD17" s="41"/>
+      <c r="AE17" s="41"/>
+      <c r="AF17" s="41"/>
+      <c r="AG17" s="41"/>
+      <c r="AH17" s="41"/>
+      <c r="AJ17" s="29"/>
+      <c r="AL17" s="33"/>
+      <c r="AM17" s="33"/>
+      <c r="AN17" s="41"/>
+      <c r="AO17" s="33"/>
+      <c r="AP17" s="33"/>
+      <c r="AQ17" s="41"/>
+      <c r="AR17" s="33"/>
+      <c r="AS17" s="33"/>
+      <c r="AT17" s="41"/>
+      <c r="AU17" s="33"/>
+      <c r="AV17" s="33"/>
+      <c r="AW17" s="41"/>
+      <c r="AX17" s="19"/>
+      <c r="AY17" s="19"/>
+      <c r="AZ17" s="20"/>
+      <c r="BA17" s="27"/>
+      <c r="BB17" s="27"/>
+      <c r="BC17" s="27"/>
+      <c r="BD17" s="27"/>
+      <c r="BE17" s="27"/>
+      <c r="BF17" s="27"/>
+      <c r="BG17" s="27"/>
+      <c r="BH17" s="27"/>
+      <c r="BI17" s="27"/>
+    </row>
+    <row r="18" spans="2:61" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B18" s="26"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="M18" s="38"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="T18" s="33"/>
+      <c r="U18" s="33"/>
+      <c r="V18" s="41"/>
+      <c r="W18" s="41"/>
+      <c r="X18" s="41"/>
+      <c r="Y18" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z18" s="33"/>
+      <c r="AA18" s="41"/>
+      <c r="AB18" s="41"/>
+      <c r="AC18" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD18" s="33"/>
+      <c r="AE18" s="41"/>
+      <c r="AF18" s="41"/>
+      <c r="AJ18" s="29"/>
+      <c r="AL18" s="22"/>
+      <c r="AM18" s="22"/>
+      <c r="AN18" s="22"/>
+      <c r="AO18" s="22"/>
+      <c r="AP18" s="22"/>
+      <c r="AQ18" s="22"/>
+      <c r="AR18" s="22"/>
+      <c r="AS18" s="22"/>
+      <c r="AT18" s="22"/>
+      <c r="AU18" s="22"/>
+      <c r="AV18" s="22"/>
+      <c r="AW18" s="22"/>
+      <c r="AX18" s="22"/>
+      <c r="AY18" s="22"/>
+      <c r="AZ18" s="23"/>
+      <c r="BA18" s="27"/>
+      <c r="BB18" s="27"/>
+      <c r="BC18" s="27"/>
+      <c r="BD18" s="27"/>
+      <c r="BE18" s="27"/>
+      <c r="BF18" s="27"/>
+      <c r="BG18" s="27"/>
+      <c r="BH18" s="27"/>
+      <c r="BI18" s="27"/>
+    </row>
+    <row r="19" spans="2:61" ht="22.5" customHeight="1">
+      <c r="B19" s="26"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="41"/>
+      <c r="S19" s="41"/>
+      <c r="T19" s="41"/>
+      <c r="U19" s="41"/>
+      <c r="V19" s="41"/>
+      <c r="W19" s="41"/>
+      <c r="X19" s="41"/>
+      <c r="Y19" s="33"/>
+      <c r="Z19" s="33"/>
+      <c r="AA19" s="41"/>
+      <c r="AB19" s="41"/>
+      <c r="AC19" s="33"/>
+      <c r="AD19" s="33"/>
+      <c r="AE19" s="41"/>
+      <c r="AF19" s="41"/>
+      <c r="AI19" s="20"/>
+      <c r="AJ19" s="29"/>
+      <c r="AK19" s="29"/>
+      <c r="AL19" s="27"/>
+      <c r="AM19" s="27"/>
+      <c r="AN19" s="27"/>
+      <c r="AO19" s="27"/>
+      <c r="AP19" s="27"/>
+      <c r="AQ19" s="27"/>
+      <c r="AR19" s="27"/>
+      <c r="AS19" s="27"/>
+      <c r="AT19" s="27"/>
+      <c r="AU19" s="27"/>
+      <c r="AV19" s="27"/>
+      <c r="AW19" s="27"/>
+      <c r="AX19" s="27"/>
+      <c r="AY19" s="27"/>
+      <c r="AZ19" s="27"/>
+      <c r="BA19" s="27"/>
+      <c r="BB19" s="27"/>
+      <c r="BC19" s="27"/>
+      <c r="BD19" s="27"/>
+      <c r="BE19" s="27"/>
+      <c r="BF19" s="27"/>
+      <c r="BG19" s="27"/>
+      <c r="BH19" s="27"/>
+      <c r="BI19" s="27"/>
+    </row>
+    <row r="20" spans="2:61" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B20" s="26"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="T20" s="33"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="41"/>
+      <c r="W20" s="41"/>
+      <c r="X20" s="41"/>
+      <c r="Y20" s="41"/>
+      <c r="Z20" s="41"/>
+      <c r="AA20" s="41"/>
+      <c r="AB20" s="41"/>
+      <c r="AC20" s="41"/>
+      <c r="AD20" s="41"/>
+      <c r="AE20" s="41"/>
+      <c r="AF20" s="41"/>
+      <c r="AG20" s="41"/>
+      <c r="AH20" s="41"/>
+      <c r="AI20" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ20" s="29"/>
+      <c r="AK20" s="27"/>
+      <c r="AL20" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM20" s="33"/>
+      <c r="AN20" s="33"/>
+      <c r="AO20" s="33"/>
+      <c r="AP20" s="33"/>
+      <c r="AQ20" s="33"/>
+      <c r="AR20" s="33"/>
+      <c r="AS20" s="33"/>
+      <c r="AT20" s="33"/>
+      <c r="AU20" s="33"/>
+      <c r="AV20" s="33"/>
+      <c r="AW20" s="33"/>
+      <c r="AX20" s="33"/>
+      <c r="AY20" s="27"/>
+      <c r="AZ20" s="27"/>
+      <c r="BA20" s="27"/>
+      <c r="BB20" s="27"/>
+      <c r="BC20" s="27"/>
+      <c r="BD20" s="27"/>
+      <c r="BE20" s="27"/>
+      <c r="BF20" s="27"/>
+      <c r="BG20" s="27"/>
+      <c r="BH20" s="27"/>
+      <c r="BI20" s="27"/>
+    </row>
+    <row r="21" spans="2:61" ht="22.5" customHeight="1">
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="41"/>
+      <c r="V21" s="41"/>
+      <c r="W21" s="41"/>
+      <c r="X21" s="41"/>
+      <c r="Y21" s="41"/>
+      <c r="Z21" s="19"/>
+      <c r="AA21" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB21" s="33"/>
+      <c r="AC21" s="33"/>
+      <c r="AD21" s="41"/>
+      <c r="AE21" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF21" s="33"/>
+      <c r="AG21" s="33"/>
+      <c r="AH21" s="41"/>
+      <c r="AI21" s="20"/>
+      <c r="AJ21" s="29"/>
+      <c r="AK21" s="27"/>
+      <c r="AL21" s="47"/>
+      <c r="AM21" s="33"/>
+      <c r="AN21" s="33"/>
+      <c r="AO21" s="33"/>
+      <c r="AP21" s="33"/>
+      <c r="AQ21" s="33"/>
+      <c r="AR21" s="33"/>
+      <c r="AS21" s="33"/>
+      <c r="AT21" s="33"/>
+      <c r="AU21" s="33"/>
+      <c r="AV21" s="33"/>
+      <c r="AW21" s="33"/>
+      <c r="AX21" s="33"/>
+      <c r="AY21" s="27"/>
+      <c r="AZ21" s="27"/>
+      <c r="BA21" s="27"/>
+      <c r="BB21" s="27"/>
+      <c r="BC21" s="27"/>
+      <c r="BD21" s="27"/>
+      <c r="BE21" s="27"/>
+      <c r="BF21" s="27"/>
+      <c r="BG21" s="27"/>
+      <c r="BH21" s="27"/>
+      <c r="BI21" s="27"/>
+    </row>
+    <row r="22" spans="2:61" ht="22.5" customHeight="1">
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="41"/>
+      <c r="V22" s="41"/>
+      <c r="W22" s="41"/>
+      <c r="X22" s="41"/>
+      <c r="Y22" s="41"/>
+      <c r="Z22" s="41"/>
+      <c r="AA22" s="41"/>
+      <c r="AB22" s="41"/>
+      <c r="AC22" s="41"/>
+      <c r="AD22" s="41"/>
+      <c r="AE22" s="41"/>
+      <c r="AF22" s="41"/>
+      <c r="AG22" s="41"/>
+      <c r="AH22" s="41"/>
+      <c r="AI22" s="20"/>
+      <c r="AJ22" s="29"/>
+      <c r="AK22" s="27"/>
+      <c r="AL22" s="18"/>
+      <c r="AM22" s="19"/>
+      <c r="AN22" s="19"/>
+      <c r="AO22" s="19"/>
+      <c r="AP22" s="19"/>
+      <c r="AQ22" s="19"/>
+      <c r="AR22" s="19"/>
+      <c r="AS22" s="19"/>
+      <c r="AT22" s="19"/>
+      <c r="AU22" s="19"/>
+      <c r="AV22" s="19"/>
+      <c r="AW22" s="19"/>
+      <c r="AX22" s="19"/>
+      <c r="AY22" s="27"/>
+      <c r="AZ22" s="27"/>
+      <c r="BA22" s="27"/>
+      <c r="BB22" s="27"/>
+      <c r="BC22" s="27"/>
+      <c r="BD22" s="27"/>
+      <c r="BE22" s="27"/>
+      <c r="BF22" s="27"/>
+      <c r="BG22" s="27"/>
+      <c r="BH22" s="27"/>
+      <c r="BI22" s="27"/>
+    </row>
+    <row r="23" spans="2:61" ht="22.5" customHeight="1">
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="26"/>
+      <c r="P23" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="S23" s="33"/>
+      <c r="T23" s="41"/>
+      <c r="V23" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="W23" s="33"/>
+      <c r="X23" s="41"/>
+      <c r="Y23" s="41"/>
+      <c r="Z23" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA23" s="33"/>
+      <c r="AB23" s="19"/>
+      <c r="AC23" s="41"/>
+      <c r="AD23" s="41"/>
+      <c r="AE23" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF23" s="33"/>
+      <c r="AG23" s="41"/>
+      <c r="AH23" s="41"/>
+      <c r="AI23" s="20"/>
+      <c r="AJ23" s="29"/>
+      <c r="AK23" s="27"/>
+      <c r="AL23" s="18"/>
+      <c r="AM23" s="19"/>
+      <c r="AN23" s="19"/>
+      <c r="AO23" s="19"/>
+      <c r="AP23" s="19"/>
+      <c r="AQ23" s="19"/>
+      <c r="AR23" s="19"/>
+      <c r="AS23" s="19"/>
+      <c r="AT23" s="19"/>
+      <c r="AU23" s="19"/>
+      <c r="AV23" s="19"/>
+      <c r="AW23" s="19"/>
+      <c r="AX23" s="19"/>
+      <c r="AY23" s="27"/>
+      <c r="AZ23" s="27"/>
+      <c r="BA23" s="27"/>
+      <c r="BB23" s="27"/>
+      <c r="BC23" s="27"/>
+      <c r="BD23" s="27"/>
+      <c r="BE23" s="27"/>
+      <c r="BF23" s="27"/>
+      <c r="BG23" s="27"/>
+      <c r="BH23" s="27"/>
+      <c r="BI23" s="27"/>
+    </row>
+    <row r="24" spans="2:61" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B24" s="26"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="50"/>
+      <c r="V24" s="51"/>
+      <c r="W24" s="51"/>
+      <c r="X24" s="50"/>
+      <c r="Y24" s="50"/>
+      <c r="Z24" s="51"/>
+      <c r="AA24" s="51"/>
+      <c r="AB24" s="50"/>
+      <c r="AC24" s="50"/>
+      <c r="AE24" s="33"/>
+      <c r="AF24" s="33"/>
+      <c r="AG24" s="50"/>
+      <c r="AH24" s="50"/>
+      <c r="AI24" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ24" s="38"/>
+      <c r="AK24" s="38"/>
+      <c r="AL24" s="18"/>
+      <c r="AM24" s="19"/>
+      <c r="AN24" s="19"/>
+      <c r="AO24" s="19"/>
+      <c r="AP24" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ24" s="33"/>
+      <c r="AR24" s="19"/>
+      <c r="AS24" s="19"/>
+      <c r="AT24" s="19"/>
+      <c r="AU24" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV24" s="33"/>
+      <c r="AW24" s="19"/>
+      <c r="AX24" s="19"/>
+      <c r="AY24" s="27"/>
+      <c r="AZ24" s="27"/>
+      <c r="BA24" s="27"/>
+      <c r="BB24" s="27"/>
+      <c r="BC24" s="27"/>
+      <c r="BD24" s="27"/>
+      <c r="BE24" s="27"/>
+      <c r="BF24" s="27"/>
+      <c r="BG24" s="27"/>
+      <c r="BH24" s="27"/>
+      <c r="BI24" s="27"/>
+    </row>
+    <row r="25" spans="2:61" ht="22.5" customHeight="1">
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="27"/>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="27"/>
+      <c r="AC25" s="27"/>
+      <c r="AD25" s="27"/>
+      <c r="AE25" s="27"/>
+      <c r="AF25" s="27"/>
+      <c r="AG25" s="27"/>
+      <c r="AH25" s="27"/>
+      <c r="AI25" s="27"/>
+      <c r="AJ25" s="27"/>
+      <c r="AK25" s="38"/>
+      <c r="AL25" s="18"/>
+      <c r="AM25" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN25" s="33"/>
+      <c r="AO25" s="19"/>
+      <c r="AP25" s="33"/>
+      <c r="AQ25" s="33"/>
+      <c r="AR25" s="19"/>
+      <c r="AS25" s="19"/>
+      <c r="AT25" s="19"/>
+      <c r="AU25" s="33"/>
+      <c r="AV25" s="33"/>
+      <c r="AW25" s="19"/>
+      <c r="AX25" s="19"/>
+      <c r="AY25" s="27"/>
+      <c r="AZ25" s="27"/>
+      <c r="BA25" s="27"/>
+      <c r="BB25" s="27"/>
+      <c r="BC25" s="27"/>
+      <c r="BD25" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="BE25" s="31"/>
+      <c r="BF25" s="27"/>
+      <c r="BG25" s="27"/>
+      <c r="BH25" s="27"/>
+      <c r="BI25" s="27"/>
+    </row>
+    <row r="26" spans="2:61" ht="22.5" customHeight="1">
+      <c r="B26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="27"/>
+      <c r="U26" s="27"/>
+      <c r="V26" s="27"/>
+      <c r="W26" s="27"/>
+      <c r="X26" s="27"/>
+      <c r="Y26" s="27"/>
+      <c r="Z26" s="27"/>
+      <c r="AA26" s="27"/>
+      <c r="AB26" s="27"/>
+      <c r="AC26" s="27"/>
+      <c r="AD26" s="27"/>
+      <c r="AE26" s="27"/>
+      <c r="AF26" s="27"/>
+      <c r="AG26" s="27"/>
+      <c r="AH26" s="27"/>
+      <c r="AI26" s="27"/>
+      <c r="AJ26" s="27"/>
+      <c r="AK26" s="38"/>
+      <c r="AL26" s="18"/>
+      <c r="AM26" s="33"/>
+      <c r="AN26" s="33"/>
+      <c r="AO26" s="19"/>
+      <c r="AP26" s="19"/>
+      <c r="AQ26" s="19"/>
+      <c r="AR26" s="19"/>
+      <c r="AS26" s="19"/>
+      <c r="AT26" s="19"/>
+      <c r="AU26" s="19"/>
+      <c r="AV26" s="41"/>
+      <c r="AW26" s="41"/>
+      <c r="AX26" s="19"/>
+      <c r="AY26" s="19"/>
+      <c r="AZ26" s="19"/>
+      <c r="BA26" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB26" s="33"/>
+      <c r="BC26" s="41"/>
+      <c r="BD26" s="33"/>
+      <c r="BE26" s="33"/>
+      <c r="BF26" s="19"/>
+      <c r="BG26" s="19"/>
+      <c r="BH26" s="20"/>
+      <c r="BI26" s="27"/>
+    </row>
+    <row r="27" spans="2:61" ht="22.5" customHeight="1">
+      <c r="B27" s="26"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="27"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="27"/>
+      <c r="X27" s="27"/>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="27"/>
+      <c r="AA27" s="27"/>
+      <c r="AB27" s="27"/>
+      <c r="AC27" s="27"/>
+      <c r="AD27" s="27"/>
+      <c r="AE27" s="27"/>
+      <c r="AF27" s="27"/>
+      <c r="AG27" s="27"/>
+      <c r="AH27" s="27"/>
+      <c r="AI27" s="27"/>
+      <c r="AJ27" s="27"/>
+      <c r="AK27" s="38"/>
+      <c r="AL27" s="18"/>
+      <c r="AM27" s="33"/>
+      <c r="AN27" s="33"/>
+      <c r="AO27" s="19"/>
+      <c r="AP27" s="19"/>
+      <c r="AQ27" s="19"/>
+      <c r="AR27" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS27" s="33"/>
+      <c r="AT27" s="19"/>
+      <c r="AU27" s="19"/>
+      <c r="AV27" s="41"/>
+      <c r="AW27" s="41"/>
+      <c r="AX27" s="19"/>
+      <c r="AY27" s="19"/>
+      <c r="AZ27" s="19"/>
+      <c r="BA27" s="33"/>
+      <c r="BB27" s="33"/>
+      <c r="BC27" s="41"/>
+      <c r="BD27" s="19"/>
+      <c r="BE27" s="19"/>
+      <c r="BF27" s="19"/>
+      <c r="BG27" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="BH27" s="52"/>
+      <c r="BI27" s="27"/>
+    </row>
+    <row r="28" spans="2:61" ht="22.5" customHeight="1">
+      <c r="B28" s="26"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="27"/>
+      <c r="V28" s="27"/>
+      <c r="W28" s="27"/>
+      <c r="X28" s="27"/>
+      <c r="Y28" s="27"/>
+      <c r="Z28" s="27"/>
+      <c r="AA28" s="27"/>
+      <c r="AB28" s="27"/>
+      <c r="AC28" s="27"/>
+      <c r="AD28" s="27"/>
+      <c r="AE28" s="27"/>
+      <c r="AF28" s="27"/>
+      <c r="AG28" s="27"/>
+      <c r="AH28" s="27"/>
+      <c r="AI28" s="27"/>
+      <c r="AJ28" s="27"/>
+      <c r="AK28" s="38"/>
+      <c r="AL28" s="18"/>
+      <c r="AM28" s="19"/>
+      <c r="AN28" s="19"/>
+      <c r="AO28" s="19"/>
+      <c r="AP28" s="19"/>
+      <c r="AQ28" s="19"/>
+      <c r="AR28" s="33"/>
+      <c r="AS28" s="33"/>
+      <c r="AT28" s="19"/>
+      <c r="AU28" s="19"/>
+      <c r="AV28" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW28" s="33"/>
+      <c r="AX28" s="19"/>
+      <c r="AY28" s="19"/>
+      <c r="AZ28" s="19"/>
+      <c r="BA28" s="19"/>
+      <c r="BB28" s="19"/>
+      <c r="BC28" s="19"/>
+      <c r="BD28" s="19"/>
+      <c r="BE28" s="19"/>
+      <c r="BF28" s="19"/>
+      <c r="BG28" s="33"/>
+      <c r="BH28" s="52"/>
+      <c r="BI28" s="27"/>
+    </row>
+    <row r="29" spans="2:61" ht="22.5" customHeight="1">
+      <c r="B29" s="26"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="27"/>
+      <c r="U29" s="27"/>
+      <c r="V29" s="27"/>
+      <c r="W29" s="27"/>
+      <c r="X29" s="27"/>
+      <c r="Y29" s="27"/>
+      <c r="Z29" s="27"/>
+      <c r="AA29" s="27"/>
+      <c r="AB29" s="27"/>
+      <c r="AC29" s="27"/>
+      <c r="AD29" s="27"/>
+      <c r="AE29" s="27"/>
+      <c r="AF29" s="27"/>
+      <c r="AG29" s="27"/>
+      <c r="AH29" s="27"/>
+      <c r="AI29" s="27"/>
+      <c r="AJ29" s="27"/>
+      <c r="AK29" s="38"/>
+      <c r="AL29" s="18"/>
+      <c r="AM29" s="19"/>
+      <c r="AN29" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO29" s="33"/>
+      <c r="AP29" s="19"/>
+      <c r="AQ29" s="19"/>
+      <c r="AR29" s="19"/>
+      <c r="AS29" s="19"/>
+      <c r="AT29" s="19"/>
+      <c r="AU29" s="19"/>
+      <c r="AV29" s="33"/>
+      <c r="AW29" s="33"/>
+      <c r="AX29" s="19"/>
+      <c r="AY29" s="19"/>
+      <c r="AZ29" s="19"/>
+      <c r="BA29" s="19"/>
+      <c r="BB29" s="19"/>
+      <c r="BC29" s="19"/>
+      <c r="BD29" s="19"/>
+      <c r="BE29" s="19"/>
+      <c r="BF29" s="19"/>
+      <c r="BG29" s="19"/>
+      <c r="BH29" s="20"/>
+      <c r="BI29" s="27"/>
+    </row>
+    <row r="30" spans="2:61" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B30" s="26"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="27"/>
+      <c r="T30" s="27"/>
+      <c r="U30" s="27"/>
+      <c r="V30" s="27"/>
+      <c r="W30" s="27"/>
+      <c r="X30" s="27"/>
+      <c r="Y30" s="27"/>
+      <c r="Z30" s="27"/>
+      <c r="AA30" s="27"/>
+      <c r="AB30" s="27"/>
+      <c r="AC30" s="27"/>
+      <c r="AD30" s="27"/>
+      <c r="AE30" s="27"/>
+      <c r="AF30" s="27"/>
+      <c r="AG30" s="27"/>
+      <c r="AH30" s="27"/>
+      <c r="AI30" s="27"/>
+      <c r="AJ30" s="27"/>
+      <c r="AK30" s="38"/>
+      <c r="AL30" s="18"/>
+      <c r="AM30" s="19"/>
+      <c r="AN30" s="33"/>
+      <c r="AO30" s="33"/>
+      <c r="AP30" s="19"/>
+      <c r="AQ30" s="22"/>
+      <c r="AR30" s="22"/>
+      <c r="AS30" s="22"/>
+      <c r="AT30" s="22"/>
+      <c r="AU30" s="22"/>
+      <c r="AV30" s="22"/>
+      <c r="AW30" s="22"/>
+      <c r="AX30" s="19"/>
+      <c r="AY30" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AZ30" s="33"/>
+      <c r="BA30" s="33"/>
+      <c r="BB30" s="19"/>
+      <c r="BC30" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="BD30" s="33"/>
+      <c r="BE30" s="33"/>
+      <c r="BF30" s="19"/>
+      <c r="BG30" s="22"/>
+      <c r="BH30" s="23"/>
+      <c r="BI30" s="27"/>
+    </row>
+    <row r="31" spans="2:61" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B31" s="26"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="27"/>
+      <c r="U31" s="27"/>
+      <c r="V31" s="27"/>
+      <c r="W31" s="27"/>
+      <c r="X31" s="27"/>
+      <c r="Y31" s="27"/>
+      <c r="Z31" s="27"/>
+      <c r="AA31" s="27"/>
+      <c r="AB31" s="27"/>
+      <c r="AC31" s="27"/>
+      <c r="AD31" s="27"/>
+      <c r="AE31" s="27"/>
+      <c r="AF31" s="27"/>
+      <c r="AG31" s="27"/>
+      <c r="AH31" s="27"/>
+      <c r="AI31" s="27"/>
+      <c r="AJ31" s="27"/>
+      <c r="AK31" s="38"/>
+      <c r="AL31" s="18"/>
+      <c r="AM31" s="19"/>
+      <c r="AN31" s="19"/>
+      <c r="AO31" s="19"/>
+      <c r="AP31" s="20"/>
+      <c r="AQ31" s="27"/>
+      <c r="AR31" s="27"/>
+      <c r="AS31" s="27"/>
+      <c r="AT31" s="27"/>
+      <c r="AU31" s="27"/>
+      <c r="AV31" s="27"/>
+      <c r="AW31" s="32"/>
+      <c r="AX31" s="22"/>
+      <c r="AY31" s="22"/>
+      <c r="AZ31" s="22"/>
+      <c r="BA31" s="22"/>
+      <c r="BB31" s="22"/>
+      <c r="BC31" s="22"/>
+      <c r="BD31" s="22"/>
+      <c r="BE31" s="22"/>
+      <c r="BF31" s="23"/>
+      <c r="BG31" s="27"/>
+      <c r="BH31" s="32"/>
+      <c r="BI31" s="27"/>
+    </row>
+    <row r="32" spans="2:61" ht="22.5" customHeight="1">
+      <c r="B32" s="26"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="27"/>
+      <c r="T32" s="27"/>
+      <c r="U32" s="27"/>
+      <c r="V32" s="27"/>
+      <c r="W32" s="27"/>
+      <c r="X32" s="27"/>
+      <c r="Y32" s="27"/>
+      <c r="Z32" s="27"/>
+      <c r="AA32" s="27"/>
+      <c r="AB32" s="27"/>
+      <c r="AC32" s="27"/>
+      <c r="AD32" s="27"/>
+      <c r="AE32" s="27"/>
+      <c r="AF32" s="27"/>
+      <c r="AG32" s="27"/>
+      <c r="AH32" s="27"/>
+      <c r="AI32" s="27"/>
+      <c r="AJ32" s="27"/>
+      <c r="AK32" s="38"/>
+      <c r="AL32" s="42"/>
+      <c r="AM32" s="41"/>
+      <c r="AN32" s="41"/>
+      <c r="AO32" s="41"/>
+      <c r="AP32" s="43"/>
+      <c r="AQ32" s="27"/>
+      <c r="AR32" s="27"/>
+      <c r="AS32" s="27"/>
+      <c r="AT32" s="27"/>
+      <c r="AU32" s="27"/>
+      <c r="AV32" s="27"/>
+      <c r="AW32" s="27"/>
+      <c r="AX32" s="27"/>
+      <c r="AY32" s="27"/>
+      <c r="AZ32" s="27"/>
+      <c r="BA32" s="27"/>
+      <c r="BB32" s="27"/>
+      <c r="BC32" s="27"/>
+      <c r="BD32" s="27"/>
+      <c r="BE32" s="27"/>
+      <c r="BF32" s="27"/>
+      <c r="BG32" s="27"/>
+      <c r="BH32" s="32"/>
+      <c r="BI32" s="27"/>
+    </row>
+    <row r="33" spans="2:62" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B33" s="26"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="27"/>
+      <c r="S33" s="27"/>
+      <c r="T33" s="27"/>
+      <c r="U33" s="27"/>
+      <c r="V33" s="27"/>
+      <c r="W33" s="27"/>
+      <c r="X33" s="27"/>
+      <c r="Y33" s="27"/>
+      <c r="Z33" s="27"/>
+      <c r="AA33" s="27"/>
+      <c r="AB33" s="27"/>
+      <c r="AC33" s="27"/>
+      <c r="AD33" s="27"/>
+      <c r="AE33" s="27"/>
+      <c r="AF33" s="27"/>
+      <c r="AG33" s="27"/>
+      <c r="AH33" s="27"/>
+      <c r="AI33" s="27"/>
+      <c r="AJ33" s="27"/>
+      <c r="AK33" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL33" s="54"/>
+      <c r="AM33" s="55"/>
+      <c r="AN33" s="55"/>
+      <c r="AO33" s="55"/>
+      <c r="AP33" s="56"/>
+      <c r="AQ33" s="57"/>
+      <c r="AR33" s="57"/>
+      <c r="AS33" s="57"/>
+      <c r="AT33" s="57"/>
+      <c r="AU33" s="57"/>
+      <c r="AV33" s="57"/>
+      <c r="AW33" s="57"/>
+      <c r="AX33" s="57"/>
+      <c r="AY33" s="57"/>
+      <c r="AZ33" s="57"/>
+      <c r="BA33" s="57"/>
+      <c r="BB33" s="57"/>
+      <c r="BC33" s="57"/>
+      <c r="BD33" s="57"/>
+      <c r="BE33" s="57"/>
+      <c r="BF33" s="57"/>
+      <c r="BG33" s="57"/>
+      <c r="BH33" s="58"/>
+      <c r="BI33" s="27"/>
+    </row>
+    <row r="34" spans="2:62" ht="22.5" customHeight="1">
+      <c r="B34" s="26"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="27"/>
+      <c r="T34" s="27"/>
+      <c r="U34" s="27"/>
+      <c r="V34" s="27"/>
+      <c r="W34" s="27"/>
+      <c r="X34" s="27"/>
+      <c r="Y34" s="27"/>
+      <c r="Z34" s="27"/>
+      <c r="AA34" s="27"/>
+      <c r="AB34" s="27"/>
+      <c r="AC34" s="27"/>
+      <c r="AD34" s="27"/>
+      <c r="AE34" s="27"/>
+      <c r="AF34" s="27"/>
+      <c r="AG34" s="27"/>
+      <c r="AH34" s="27"/>
+      <c r="AI34" s="27"/>
+      <c r="AJ34" s="27"/>
+      <c r="AK34" s="27"/>
+      <c r="AL34" s="27"/>
+      <c r="AM34" s="27"/>
+      <c r="AN34" s="27"/>
+      <c r="AO34" s="27"/>
+      <c r="AP34" s="27"/>
+      <c r="AQ34" s="27"/>
+      <c r="AR34" s="27"/>
+      <c r="AS34" s="27"/>
+      <c r="AT34" s="27"/>
+      <c r="AU34" s="27"/>
+      <c r="AV34" s="27"/>
+      <c r="AW34" s="27"/>
+      <c r="AX34" s="27"/>
+      <c r="AY34" s="27"/>
+      <c r="AZ34" s="27"/>
+      <c r="BA34" s="27"/>
+      <c r="BB34" s="27"/>
+      <c r="BC34" s="27"/>
+      <c r="BD34" s="27"/>
+      <c r="BE34" s="27"/>
+      <c r="BF34" s="27"/>
+      <c r="BG34" s="27"/>
+      <c r="BH34" s="27"/>
+      <c r="BI34" s="27"/>
+    </row>
+    <row r="36" spans="2:62" ht="42" customHeight="1">
+      <c r="B36" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="25"/>
+      <c r="U36" s="25"/>
+      <c r="V36" s="25"/>
+      <c r="W36" s="25"/>
+      <c r="X36" s="25"/>
+      <c r="Y36" s="25"/>
+      <c r="Z36" s="25"/>
+      <c r="AA36" s="25"/>
+      <c r="AB36" s="25"/>
+      <c r="AC36" s="25"/>
+      <c r="AD36" s="25"/>
+      <c r="AE36" s="25"/>
+      <c r="AF36" s="25"/>
+      <c r="AG36" s="25"/>
+      <c r="AH36" s="25"/>
+      <c r="AI36" s="25"/>
+      <c r="AJ36" s="27"/>
+      <c r="AK36" s="27"/>
+      <c r="AL36" s="27"/>
+      <c r="AM36" s="27"/>
+      <c r="AN36" s="27"/>
+      <c r="AO36" s="27"/>
+      <c r="AP36" s="27"/>
+      <c r="AQ36" s="27"/>
+      <c r="AR36" s="27"/>
+      <c r="AS36" s="27"/>
+      <c r="AT36" s="27"/>
+      <c r="AU36" s="27"/>
+      <c r="AV36" s="27"/>
+      <c r="AW36" s="27"/>
+      <c r="AX36" s="27"/>
+      <c r="AY36" s="25"/>
+      <c r="AZ36" s="25"/>
+      <c r="BA36" s="25"/>
+      <c r="BB36" s="25"/>
+      <c r="BC36" s="25"/>
+      <c r="BD36" s="25"/>
+      <c r="BE36" s="25"/>
+      <c r="BF36" s="25"/>
+      <c r="BG36" s="25"/>
+      <c r="BH36" s="25"/>
+      <c r="BI36" s="25"/>
+      <c r="BJ36" s="59"/>
+    </row>
+    <row r="37" spans="2:62" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="59"/>
+      <c r="L37" s="59"/>
+      <c r="M37" s="59"/>
+      <c r="N37" s="59"/>
+      <c r="O37" s="59"/>
+      <c r="P37" s="59"/>
+      <c r="Q37" s="59"/>
+      <c r="R37" s="59"/>
+      <c r="S37" s="59"/>
+      <c r="T37" s="59"/>
+      <c r="U37" s="59"/>
+      <c r="V37" s="59"/>
+      <c r="W37" s="59"/>
+      <c r="X37" s="59"/>
+      <c r="Y37" s="59"/>
+      <c r="Z37" s="59"/>
+      <c r="AA37" s="59"/>
+      <c r="AB37" s="59"/>
+      <c r="AC37" s="59"/>
+      <c r="AD37" s="59"/>
+      <c r="AE37" s="59"/>
+      <c r="AF37" s="59"/>
+      <c r="AG37" s="59"/>
+      <c r="AH37" s="59"/>
+      <c r="AI37" s="59"/>
+      <c r="AJ37" s="59"/>
+      <c r="AK37" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL37" s="38"/>
+      <c r="AM37" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN37" s="33"/>
+      <c r="AO37" s="33"/>
+      <c r="AP37" s="19"/>
+      <c r="AQ37" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR37" s="33"/>
+      <c r="AS37" s="33"/>
+      <c r="AT37" s="19"/>
+      <c r="AU37" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV37" s="33"/>
+      <c r="AW37" s="33"/>
+      <c r="AX37" s="20"/>
+      <c r="AY37" s="59"/>
+      <c r="AZ37" s="59"/>
+      <c r="BA37" s="59"/>
+      <c r="BB37" s="59"/>
+      <c r="BC37" s="59"/>
+      <c r="BD37" s="59"/>
+      <c r="BE37" s="59"/>
+      <c r="BF37" s="59"/>
+      <c r="BG37" s="59"/>
+      <c r="BH37" s="59"/>
+      <c r="BI37" s="59"/>
+      <c r="BJ37" s="59"/>
+    </row>
+    <row r="38" spans="2:62" ht="22.5" customHeight="1">
+      <c r="B38" s="59"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="59"/>
+      <c r="J38" s="59"/>
+      <c r="K38" s="59"/>
+      <c r="L38" s="59"/>
+      <c r="M38" s="59"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="34"/>
+      <c r="R38" s="41"/>
+      <c r="S38" s="34"/>
+      <c r="T38" s="34"/>
+      <c r="U38" s="34"/>
+      <c r="V38" s="34"/>
+      <c r="W38" s="34"/>
+      <c r="X38" s="34"/>
+      <c r="Y38" s="34"/>
+      <c r="Z38" s="34"/>
+      <c r="AA38" s="34"/>
+      <c r="AB38" s="34"/>
+      <c r="AC38" s="34"/>
+      <c r="AD38" s="34"/>
+      <c r="AE38" s="34"/>
+      <c r="AF38" s="34"/>
+      <c r="AG38" s="34"/>
+      <c r="AH38" s="34"/>
+      <c r="AI38" s="34"/>
+      <c r="AJ38" s="39"/>
+      <c r="AK38" s="38"/>
+      <c r="AL38" s="18"/>
+      <c r="AM38" s="19"/>
+      <c r="AN38" s="41"/>
+      <c r="AO38" s="41"/>
+      <c r="AP38" s="41"/>
+      <c r="AQ38" s="41"/>
+      <c r="AR38" s="41"/>
+      <c r="AS38" s="41"/>
+      <c r="AT38" s="41"/>
+      <c r="AU38" s="41"/>
+      <c r="AV38" s="41"/>
+      <c r="AW38" s="41"/>
+      <c r="AX38" s="20"/>
+      <c r="AY38" s="59"/>
+      <c r="AZ38" s="59"/>
+      <c r="BA38" s="59"/>
+      <c r="BB38" s="59"/>
+      <c r="BC38" s="59"/>
+      <c r="BD38" s="59"/>
+      <c r="BE38" s="59"/>
+      <c r="BF38" s="59"/>
+      <c r="BG38" s="59"/>
+      <c r="BH38" s="59"/>
+      <c r="BI38" s="59"/>
+      <c r="BJ38" s="59"/>
+    </row>
+    <row r="39" spans="2:62" ht="22.5" customHeight="1">
+      <c r="B39" s="59"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="59"/>
+      <c r="K39" s="59"/>
+      <c r="L39" s="59"/>
+      <c r="M39" s="59"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="41"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="S39" s="41"/>
+      <c r="T39" s="41"/>
+      <c r="U39" s="41"/>
+      <c r="V39" s="41"/>
+      <c r="W39" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="X39" s="33"/>
+      <c r="Y39" s="33"/>
+      <c r="Z39" s="41"/>
+      <c r="AA39" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB39" s="33"/>
+      <c r="AC39" s="33"/>
+      <c r="AD39" s="41"/>
+      <c r="AE39" s="41"/>
+      <c r="AF39" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG39" s="33"/>
+      <c r="AH39" s="33"/>
+      <c r="AI39" s="41"/>
+      <c r="AJ39" s="20"/>
+      <c r="AK39" s="38"/>
+      <c r="AL39" s="18"/>
+      <c r="AM39" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN39" s="33"/>
+      <c r="AO39" s="33"/>
+      <c r="AP39" s="41"/>
+      <c r="AQ39" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR39" s="33"/>
+      <c r="AS39" s="33"/>
+      <c r="AT39" s="41"/>
+      <c r="AU39" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV39" s="33"/>
+      <c r="AW39" s="33"/>
+      <c r="AX39" s="20"/>
+      <c r="AY39" s="59"/>
+      <c r="AZ39" s="59"/>
+      <c r="BA39" s="59"/>
+      <c r="BB39" s="59"/>
+      <c r="BC39" s="59"/>
+      <c r="BD39" s="59"/>
+      <c r="BE39" s="59"/>
+      <c r="BF39" s="59"/>
+      <c r="BG39" s="59"/>
+      <c r="BH39" s="59"/>
+      <c r="BI39" s="59"/>
+      <c r="BJ39" s="59"/>
+    </row>
+    <row r="40" spans="2:62" ht="22.5" customHeight="1">
+      <c r="B40" s="59"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="59"/>
+      <c r="L40" s="59"/>
+      <c r="M40" s="59"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="41"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="41"/>
+      <c r="S40" s="41"/>
+      <c r="T40" s="41"/>
+      <c r="U40" s="41"/>
+      <c r="V40" s="41"/>
+      <c r="W40" s="41"/>
+      <c r="X40" s="41"/>
+      <c r="Y40" s="41"/>
+      <c r="Z40" s="41"/>
+      <c r="AA40" s="41"/>
+      <c r="AB40" s="41"/>
+      <c r="AC40" s="41"/>
+      <c r="AD40" s="41"/>
+      <c r="AE40" s="41"/>
+      <c r="AF40" s="41"/>
+      <c r="AG40" s="41"/>
+      <c r="AH40" s="41"/>
+      <c r="AI40" s="41"/>
+      <c r="AJ40" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK40" s="38"/>
+      <c r="AL40" s="18"/>
+      <c r="AM40" s="41"/>
+      <c r="AN40" s="41"/>
+      <c r="AO40" s="41"/>
+      <c r="AP40" s="41"/>
+      <c r="AQ40" s="41"/>
+      <c r="AR40" s="41"/>
+      <c r="AS40" s="41"/>
+      <c r="AT40" s="41"/>
+      <c r="AU40" s="41"/>
+      <c r="AV40" s="41"/>
+      <c r="AW40" s="41"/>
+      <c r="AX40" s="20"/>
+      <c r="AY40" s="59"/>
+      <c r="AZ40" s="59"/>
+      <c r="BA40" s="59"/>
+      <c r="BB40" s="59"/>
+      <c r="BC40" s="59"/>
+      <c r="BD40" s="59"/>
+      <c r="BE40" s="59"/>
+      <c r="BF40" s="59"/>
+      <c r="BG40" s="59"/>
+      <c r="BH40" s="59"/>
+      <c r="BI40" s="59"/>
+      <c r="BJ40" s="59"/>
+    </row>
+    <row r="41" spans="2:62" ht="22.5" customHeight="1">
+      <c r="B41" s="59"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="59"/>
+      <c r="J41" s="59"/>
+      <c r="K41" s="59"/>
+      <c r="L41" s="59"/>
+      <c r="M41" s="59"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="41"/>
+      <c r="P41" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="41"/>
+      <c r="S41" s="41"/>
+      <c r="T41" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="U41" s="33"/>
+      <c r="V41" s="41"/>
+      <c r="W41" s="41"/>
+      <c r="X41" s="41"/>
+      <c r="Y41" s="41"/>
+      <c r="Z41" s="41"/>
+      <c r="AA41" s="41"/>
+      <c r="AB41" s="41"/>
+      <c r="AC41" s="41"/>
+      <c r="AD41" s="41"/>
+      <c r="AE41" s="41"/>
+      <c r="AF41" s="41"/>
+      <c r="AG41" s="41"/>
+      <c r="AH41" s="41"/>
+      <c r="AI41" s="41"/>
+      <c r="AJ41" s="20"/>
+      <c r="AK41" s="27"/>
+      <c r="AL41" s="18"/>
+      <c r="AM41" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN41" s="33"/>
+      <c r="AO41" s="41"/>
+      <c r="AP41" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ41" s="33"/>
+      <c r="AR41" s="41"/>
+      <c r="AS41" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="AT41" s="33"/>
+      <c r="AU41" s="41"/>
+      <c r="AV41" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW41" s="33"/>
+      <c r="AX41" s="20"/>
+      <c r="AY41" s="59"/>
+      <c r="AZ41" s="59"/>
+      <c r="BA41" s="59"/>
+      <c r="BB41" s="59"/>
+      <c r="BC41" s="59"/>
+      <c r="BD41" s="59"/>
+      <c r="BE41" s="59"/>
+      <c r="BF41" s="59"/>
+      <c r="BG41" s="59"/>
+      <c r="BH41" s="59"/>
+      <c r="BI41" s="59"/>
+      <c r="BJ41" s="59"/>
+    </row>
+    <row r="42" spans="2:62" ht="22.5" customHeight="1">
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="59"/>
+      <c r="M42" s="59"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="41"/>
+      <c r="P42" s="33"/>
+      <c r="Q42" s="33"/>
+      <c r="R42" s="41"/>
+      <c r="S42" s="41"/>
+      <c r="T42" s="33"/>
+      <c r="U42" s="33"/>
+      <c r="V42" s="41"/>
+      <c r="W42" s="41"/>
+      <c r="X42" s="41"/>
+      <c r="Y42" s="41"/>
+      <c r="Z42" s="41"/>
+      <c r="AA42" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB42" s="33"/>
+      <c r="AC42" s="33"/>
+      <c r="AD42" s="41"/>
+      <c r="AE42" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF42" s="33"/>
+      <c r="AG42" s="33"/>
+      <c r="AH42" s="41"/>
+      <c r="AI42" s="41"/>
+      <c r="AJ42" s="20"/>
+      <c r="AK42" s="27"/>
+      <c r="AL42" s="18"/>
+      <c r="AM42" s="33"/>
+      <c r="AN42" s="33"/>
+      <c r="AO42" s="41"/>
+      <c r="AP42" s="33"/>
+      <c r="AQ42" s="33"/>
+      <c r="AR42" s="41"/>
+      <c r="AS42" s="33"/>
+      <c r="AT42" s="33"/>
+      <c r="AU42" s="41"/>
+      <c r="AV42" s="33"/>
+      <c r="AW42" s="33"/>
+      <c r="AX42" s="20"/>
+      <c r="AY42" s="59"/>
+      <c r="AZ42" s="59"/>
+      <c r="BA42" s="59"/>
+      <c r="BB42" s="59"/>
+      <c r="BC42" s="59"/>
+      <c r="BD42" s="59"/>
+      <c r="BE42" s="59"/>
+      <c r="BF42" s="59"/>
+      <c r="BG42" s="59"/>
+      <c r="BH42" s="59"/>
+      <c r="BI42" s="59"/>
+      <c r="BJ42" s="59"/>
+    </row>
+    <row r="43" spans="2:62" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B43" s="59"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="59"/>
+      <c r="J43" s="59"/>
+      <c r="K43" s="59"/>
+      <c r="L43" s="59"/>
+      <c r="M43" s="59"/>
+      <c r="N43" s="18"/>
+      <c r="O43" s="41"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="41"/>
+      <c r="S43" s="41"/>
+      <c r="T43" s="41"/>
+      <c r="U43" s="41"/>
+      <c r="V43" s="41"/>
+      <c r="W43" s="41"/>
+      <c r="X43" s="41"/>
+      <c r="Y43" s="41"/>
+      <c r="Z43" s="41"/>
+      <c r="AA43" s="41"/>
+      <c r="AB43" s="41"/>
+      <c r="AC43" s="41"/>
+      <c r="AD43" s="41"/>
+      <c r="AE43" s="41"/>
+      <c r="AF43" s="41"/>
+      <c r="AG43" s="41"/>
+      <c r="AH43" s="41"/>
+      <c r="AI43" s="41"/>
+      <c r="AJ43" s="20"/>
+      <c r="AK43" s="27"/>
+      <c r="AL43" s="18"/>
+      <c r="AM43" s="41"/>
+      <c r="AN43" s="41"/>
+      <c r="AO43" s="41"/>
+      <c r="AP43" s="41"/>
+      <c r="AQ43" s="41"/>
+      <c r="AR43" s="41"/>
+      <c r="AS43" s="41"/>
+      <c r="AT43" s="41"/>
+      <c r="AU43" s="41"/>
+      <c r="AV43" s="41"/>
+      <c r="AW43" s="41"/>
+      <c r="AX43" s="20"/>
+      <c r="AY43" s="59"/>
+      <c r="AZ43" s="59"/>
+      <c r="BA43" s="59"/>
+      <c r="BB43" s="59"/>
+      <c r="BC43" s="59"/>
+      <c r="BD43" s="59"/>
+      <c r="BE43" s="59"/>
+      <c r="BF43" s="59"/>
+      <c r="BG43" s="59"/>
+      <c r="BH43" s="59"/>
+      <c r="BI43" s="59"/>
+      <c r="BJ43" s="59"/>
+    </row>
+    <row r="44" spans="2:62" ht="22.5" customHeight="1">
+      <c r="B44" s="59"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="59"/>
+      <c r="K44" s="59"/>
+      <c r="L44" s="59"/>
+      <c r="M44" s="59"/>
+      <c r="N44" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="O44" s="41"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="S44" s="33"/>
+      <c r="T44" s="41"/>
+      <c r="U44" s="41"/>
+      <c r="V44" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="W44" s="33"/>
+      <c r="X44" s="41"/>
+      <c r="Y44" s="41"/>
+      <c r="Z44" s="41"/>
+      <c r="AA44" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB44" s="33"/>
+      <c r="AC44" s="33"/>
+      <c r="AD44" s="41"/>
+      <c r="AE44" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF44" s="33"/>
+      <c r="AG44" s="33"/>
+      <c r="AH44" s="41"/>
+      <c r="AI44" s="41"/>
+      <c r="AJ44" s="20"/>
+      <c r="AK44" s="27"/>
+      <c r="AL44" s="18"/>
+      <c r="AM44" s="41"/>
+      <c r="AN44" s="41"/>
+      <c r="AO44" s="41"/>
+      <c r="AP44" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ44" s="33"/>
+      <c r="AR44" s="33"/>
+      <c r="AS44" s="41"/>
+      <c r="AT44" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU44" s="33"/>
+      <c r="AV44" s="33"/>
+      <c r="AW44" s="19"/>
+      <c r="AX44" s="20"/>
+      <c r="AY44" s="59"/>
+      <c r="AZ44" s="59"/>
+      <c r="BA44" s="59"/>
+      <c r="BB44" s="59"/>
+      <c r="BC44" s="59"/>
+      <c r="BD44" s="59"/>
+      <c r="BE44" s="59"/>
+      <c r="BF44" s="59"/>
+      <c r="BG44" s="59"/>
+      <c r="BH44" s="59"/>
+      <c r="BI44" s="59"/>
+      <c r="BJ44" s="59"/>
+    </row>
+    <row r="45" spans="2:62" ht="22.5" customHeight="1">
+      <c r="B45" s="59"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="59"/>
+      <c r="I45" s="59"/>
+      <c r="J45" s="59"/>
+      <c r="K45" s="59"/>
+      <c r="L45" s="59"/>
+      <c r="M45" s="59"/>
+      <c r="N45" s="18"/>
+      <c r="O45" s="41"/>
+      <c r="P45" s="41"/>
+      <c r="Q45" s="41"/>
+      <c r="R45" s="33"/>
+      <c r="S45" s="33"/>
+      <c r="T45" s="41"/>
+      <c r="U45" s="41"/>
+      <c r="V45" s="33"/>
+      <c r="W45" s="33"/>
+      <c r="X45" s="41"/>
+      <c r="Y45" s="41"/>
+      <c r="Z45" s="41"/>
+      <c r="AA45" s="41"/>
+      <c r="AB45" s="41"/>
+      <c r="AC45" s="41"/>
+      <c r="AD45" s="41"/>
+      <c r="AE45" s="41"/>
+      <c r="AF45" s="41"/>
+      <c r="AG45" s="41"/>
+      <c r="AH45" s="41"/>
+      <c r="AI45" s="41"/>
+      <c r="AJ45" s="20"/>
+      <c r="AK45" s="27"/>
+      <c r="AL45" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM45" s="33"/>
+      <c r="AN45" s="33"/>
+      <c r="AO45" s="41"/>
+      <c r="AP45" s="41"/>
+      <c r="AQ45" s="41"/>
+      <c r="AR45" s="41"/>
+      <c r="AS45" s="41"/>
+      <c r="AT45" s="41"/>
+      <c r="AU45" s="41"/>
+      <c r="AV45" s="19"/>
+      <c r="AW45" s="19"/>
+      <c r="AX45" s="20"/>
+      <c r="AY45" s="59"/>
+      <c r="AZ45" s="59"/>
+      <c r="BA45" s="59"/>
+      <c r="BB45" s="59"/>
+      <c r="BC45" s="59"/>
+      <c r="BD45" s="59"/>
+      <c r="BE45" s="59"/>
+      <c r="BF45" s="59"/>
+      <c r="BG45" s="59"/>
+      <c r="BH45" s="59"/>
+      <c r="BI45" s="59"/>
+      <c r="BJ45" s="59"/>
+    </row>
+    <row r="46" spans="2:62" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B46" s="59"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="59"/>
+      <c r="J46" s="59"/>
+      <c r="K46" s="59"/>
+      <c r="L46" s="59"/>
+      <c r="M46" s="59"/>
+      <c r="N46" s="18"/>
+      <c r="O46" s="41"/>
+      <c r="P46" s="41"/>
+      <c r="Q46" s="41"/>
+      <c r="R46" s="41"/>
+      <c r="S46" s="41"/>
+      <c r="T46" s="41"/>
+      <c r="U46" s="41"/>
+      <c r="V46" s="41"/>
+      <c r="W46" s="41"/>
+      <c r="X46" s="41"/>
+      <c r="Y46" s="41"/>
+      <c r="Z46" s="41"/>
+      <c r="AA46" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB46" s="33"/>
+      <c r="AC46" s="33"/>
+      <c r="AD46" s="41"/>
+      <c r="AE46" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF46" s="33"/>
+      <c r="AG46" s="33"/>
+      <c r="AH46" s="41"/>
+      <c r="AI46" s="41"/>
+      <c r="AJ46" s="20"/>
+      <c r="AK46" s="27"/>
+      <c r="AL46" s="21"/>
+      <c r="AM46" s="22"/>
+      <c r="AN46" s="22"/>
+      <c r="AO46" s="22"/>
+      <c r="AP46" s="22"/>
+      <c r="AQ46" s="22"/>
+      <c r="AR46" s="22"/>
+      <c r="AS46" s="22"/>
+      <c r="AT46" s="22"/>
+      <c r="AU46" s="22"/>
+      <c r="AV46" s="22"/>
+      <c r="AW46" s="22"/>
+      <c r="AX46" s="23"/>
+      <c r="AY46" s="59"/>
+      <c r="AZ46" s="59"/>
+      <c r="BA46" s="59"/>
+      <c r="BB46" s="59"/>
+      <c r="BC46" s="59"/>
+      <c r="BD46" s="59"/>
+      <c r="BE46" s="59"/>
+      <c r="BF46" s="59"/>
+      <c r="BG46" s="59"/>
+      <c r="BH46" s="59"/>
+      <c r="BI46" s="59"/>
+      <c r="BJ46" s="59"/>
+    </row>
+    <row r="47" spans="2:62" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B47" s="59"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="59"/>
+      <c r="I47" s="59"/>
+      <c r="J47" s="59"/>
+      <c r="K47" s="59"/>
+      <c r="L47" s="59"/>
+      <c r="M47" s="59"/>
+      <c r="N47" s="18"/>
+      <c r="O47" s="41"/>
+      <c r="P47" s="41"/>
+      <c r="Q47" s="41"/>
+      <c r="R47" s="41"/>
+      <c r="S47" s="41"/>
+      <c r="T47" s="41"/>
+      <c r="U47" s="41"/>
+      <c r="V47" s="41"/>
+      <c r="W47" s="41"/>
+      <c r="X47" s="41"/>
+      <c r="Y47" s="41"/>
+      <c r="Z47" s="41"/>
+      <c r="AA47" s="41"/>
+      <c r="AB47" s="41"/>
+      <c r="AC47" s="41"/>
+      <c r="AD47" s="41"/>
+      <c r="AE47" s="41"/>
+      <c r="AF47" s="41"/>
+      <c r="AG47" s="41"/>
+      <c r="AH47" s="41"/>
+      <c r="AI47" s="41"/>
+      <c r="AJ47" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK47" s="38"/>
+      <c r="AL47" s="49"/>
+      <c r="AM47" s="59"/>
+      <c r="AN47" s="59"/>
+      <c r="AO47" s="59"/>
+      <c r="AP47" s="59"/>
+      <c r="AQ47" s="59"/>
+      <c r="AR47" s="59"/>
+      <c r="AS47" s="59"/>
+      <c r="AT47" s="59"/>
+      <c r="AU47" s="59"/>
+      <c r="AV47" s="59"/>
+      <c r="AW47" s="59"/>
+      <c r="AX47" s="59"/>
+      <c r="AY47" s="59"/>
+      <c r="AZ47" s="59"/>
+      <c r="BA47" s="59"/>
+      <c r="BB47" s="59"/>
+      <c r="BC47" s="59"/>
+      <c r="BD47" s="59"/>
+      <c r="BE47" s="59"/>
+      <c r="BF47" s="59"/>
+      <c r="BG47" s="59"/>
+      <c r="BH47" s="59"/>
+      <c r="BI47" s="59"/>
+      <c r="BJ47" s="59"/>
+    </row>
+    <row r="48" spans="2:62" ht="22.5" customHeight="1">
+      <c r="B48" s="59"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="59"/>
+      <c r="K48" s="59"/>
+      <c r="L48" s="59"/>
+      <c r="M48" s="59"/>
+      <c r="N48" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="O48" s="33"/>
+      <c r="P48" s="33"/>
+      <c r="Q48" s="33"/>
+      <c r="R48" s="33"/>
+      <c r="S48" s="33"/>
+      <c r="T48" s="33"/>
+      <c r="U48" s="33"/>
+      <c r="V48" s="33"/>
+      <c r="W48" s="41"/>
+      <c r="X48" s="41"/>
+      <c r="Y48" s="41"/>
+      <c r="Z48" s="41"/>
+      <c r="AA48" s="41"/>
+      <c r="AB48" s="41"/>
+      <c r="AC48" s="41"/>
+      <c r="AD48" s="41"/>
+      <c r="AE48" s="41"/>
+      <c r="AF48" s="41"/>
+      <c r="AG48" s="41"/>
+      <c r="AH48" s="41"/>
+      <c r="AI48" s="41"/>
+      <c r="AJ48" s="20"/>
+      <c r="AK48" s="59"/>
+      <c r="AL48" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM48" s="38"/>
+      <c r="AN48" s="34"/>
+      <c r="AO48" s="34"/>
+      <c r="AP48" s="34"/>
+      <c r="AQ48" s="34"/>
+      <c r="AR48" s="34"/>
+      <c r="AS48" s="34"/>
+      <c r="AT48" s="34"/>
+      <c r="AU48" s="34"/>
+      <c r="AV48" s="34"/>
+      <c r="AW48" s="63"/>
+      <c r="AX48" s="64"/>
+      <c r="AY48" s="64"/>
+      <c r="AZ48" s="40"/>
+      <c r="BA48" s="34"/>
+      <c r="BB48" s="34"/>
+      <c r="BC48" s="34"/>
+      <c r="BD48" s="34"/>
+      <c r="BE48" s="34"/>
+      <c r="BF48" s="34"/>
+      <c r="BG48" s="34"/>
+      <c r="BH48" s="34"/>
+      <c r="BI48" s="63"/>
+      <c r="BJ48" s="59"/>
+    </row>
+    <row r="49" spans="2:62" ht="22.5" customHeight="1">
+      <c r="B49" s="59"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="59"/>
+      <c r="J49" s="59"/>
+      <c r="K49" s="59"/>
+      <c r="L49" s="59"/>
+      <c r="M49" s="59"/>
+      <c r="N49" s="18"/>
+      <c r="O49" s="41"/>
+      <c r="P49" s="41"/>
+      <c r="Q49" s="41"/>
+      <c r="R49" s="41"/>
+      <c r="S49" s="41"/>
+      <c r="T49" s="41"/>
+      <c r="U49" s="41"/>
+      <c r="V49" s="41"/>
+      <c r="W49" s="41"/>
+      <c r="X49" s="41"/>
+      <c r="Y49" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z49" s="33"/>
+      <c r="AA49" s="33"/>
+      <c r="AB49" s="41"/>
+      <c r="AC49" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD49" s="33"/>
+      <c r="AE49" s="33"/>
+      <c r="AF49" s="41"/>
+      <c r="AG49" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH49" s="33"/>
+      <c r="AI49" s="33"/>
+      <c r="AJ49" s="20"/>
+      <c r="AK49" s="59"/>
+      <c r="AL49" s="59"/>
+      <c r="AM49" s="42"/>
+      <c r="AN49" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO49" s="33"/>
+      <c r="AP49" s="19"/>
+      <c r="AQ49" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR49" s="33"/>
+      <c r="AS49" s="19"/>
+      <c r="AT49" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU49" s="33"/>
+      <c r="AV49" s="19"/>
+      <c r="AW49" s="20"/>
+      <c r="AX49" s="27"/>
+      <c r="AY49" s="27"/>
+      <c r="AZ49" s="18"/>
+      <c r="BA49" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="BB49" s="33"/>
+      <c r="BC49" s="33"/>
+      <c r="BD49" s="19"/>
+      <c r="BE49" s="19"/>
+      <c r="BF49" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="BG49" s="33"/>
+      <c r="BH49" s="33"/>
+      <c r="BI49" s="20"/>
+      <c r="BJ49" s="59"/>
+    </row>
+    <row r="50" spans="2:62" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B50" s="59"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="59"/>
+      <c r="I50" s="59"/>
+      <c r="J50" s="59"/>
+      <c r="K50" s="59"/>
+      <c r="L50" s="59"/>
+      <c r="M50" s="59"/>
+      <c r="N50" s="45"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="22"/>
+      <c r="Q50" s="22"/>
+      <c r="R50" s="22"/>
+      <c r="S50" s="22"/>
+      <c r="T50" s="22"/>
+      <c r="U50" s="22"/>
+      <c r="V50" s="22"/>
+      <c r="W50" s="22"/>
+      <c r="X50" s="22"/>
+      <c r="Y50" s="22"/>
+      <c r="Z50" s="22"/>
+      <c r="AA50" s="22"/>
+      <c r="AB50" s="22"/>
+      <c r="AC50" s="22"/>
+      <c r="AD50" s="22"/>
+      <c r="AE50" s="22"/>
+      <c r="AF50" s="22"/>
+      <c r="AG50" s="22"/>
+      <c r="AH50" s="22"/>
+      <c r="AI50" s="22"/>
+      <c r="AJ50" s="23"/>
+      <c r="AK50" s="59"/>
+      <c r="AL50" s="59"/>
+      <c r="AM50" s="42"/>
+      <c r="AN50" s="33"/>
+      <c r="AO50" s="33"/>
+      <c r="AP50" s="19"/>
+      <c r="AQ50" s="33"/>
+      <c r="AR50" s="33"/>
+      <c r="AS50" s="19"/>
+      <c r="AT50" s="33"/>
+      <c r="AU50" s="33"/>
+      <c r="AV50" s="19"/>
+      <c r="AW50" s="20"/>
+      <c r="AX50" s="57"/>
+      <c r="AY50" s="57"/>
+      <c r="AZ50" s="18"/>
+      <c r="BA50" s="19"/>
+      <c r="BB50" s="19"/>
+      <c r="BC50" s="19"/>
+      <c r="BD50" s="19"/>
+      <c r="BE50" s="19"/>
+      <c r="BF50" s="19"/>
+      <c r="BG50" s="19"/>
+      <c r="BH50" s="19"/>
+      <c r="BI50" s="20"/>
+      <c r="BJ50" s="59"/>
+    </row>
+    <row r="51" spans="2:62" ht="22.5" customHeight="1">
+      <c r="B51" s="59"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="59"/>
+      <c r="I51" s="59"/>
+      <c r="J51" s="59"/>
+      <c r="K51" s="59"/>
+      <c r="L51" s="59"/>
+      <c r="M51" s="59"/>
+      <c r="N51" s="59"/>
+      <c r="O51" s="59"/>
+      <c r="P51" s="59"/>
+      <c r="Q51" s="59"/>
+      <c r="R51" s="59"/>
+      <c r="S51" s="59"/>
+      <c r="T51" s="59"/>
+      <c r="U51" s="59"/>
+      <c r="V51" s="59"/>
+      <c r="W51" s="59"/>
+      <c r="X51" s="59"/>
+      <c r="Y51" s="59"/>
+      <c r="Z51" s="59"/>
+      <c r="AA51" s="59"/>
+      <c r="AB51" s="59"/>
+      <c r="AC51" s="59"/>
+      <c r="AD51" s="59"/>
+      <c r="AE51" s="59"/>
+      <c r="AF51" s="59"/>
+      <c r="AG51" s="59"/>
+      <c r="AH51" s="59"/>
+      <c r="AI51" s="59"/>
+      <c r="AJ51" s="59"/>
+      <c r="AK51" s="59"/>
+      <c r="AL51" s="59"/>
+      <c r="AM51" s="42"/>
+      <c r="AN51" s="19"/>
+      <c r="AO51" s="19"/>
+      <c r="AP51" s="19"/>
+      <c r="AQ51" s="19"/>
+      <c r="AR51" s="19"/>
+      <c r="AS51" s="19"/>
+      <c r="AT51" s="19"/>
+      <c r="AU51" s="19"/>
+      <c r="AV51" s="19"/>
+      <c r="AW51" s="19"/>
+      <c r="AX51" s="19"/>
+      <c r="AY51" s="19"/>
+      <c r="AZ51" s="19"/>
+      <c r="BA51" s="19"/>
+      <c r="BB51" s="19"/>
+      <c r="BC51" s="19"/>
+      <c r="BD51" s="19"/>
+      <c r="BE51" s="19"/>
+      <c r="BF51" s="19"/>
+      <c r="BG51" s="19"/>
+      <c r="BH51" s="19"/>
+      <c r="BI51" s="20"/>
+      <c r="BJ51" s="59"/>
+    </row>
+    <row r="52" spans="2:62" ht="22.5" customHeight="1">
+      <c r="B52" s="59"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="59"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="59"/>
+      <c r="H52" s="59"/>
+      <c r="I52" s="59"/>
+      <c r="J52" s="59"/>
+      <c r="K52" s="59"/>
+      <c r="L52" s="59"/>
+      <c r="M52" s="59"/>
+      <c r="N52" s="59"/>
+      <c r="O52" s="59"/>
+      <c r="P52" s="59"/>
+      <c r="Q52" s="59"/>
+      <c r="R52" s="59"/>
+      <c r="S52" s="59"/>
+      <c r="T52" s="59"/>
+      <c r="U52" s="59"/>
+      <c r="V52" s="59"/>
+      <c r="W52" s="59"/>
+      <c r="X52" s="59"/>
+      <c r="Y52" s="59"/>
+      <c r="Z52" s="59"/>
+      <c r="AA52" s="59"/>
+      <c r="AB52" s="59"/>
+      <c r="AC52" s="59"/>
+      <c r="AD52" s="59"/>
+      <c r="AE52" s="59"/>
+      <c r="AF52" s="59"/>
+      <c r="AG52" s="59"/>
+      <c r="AH52" s="59"/>
+      <c r="AI52" s="59"/>
+      <c r="AJ52" s="59"/>
+      <c r="AK52" s="59"/>
+      <c r="AL52" s="59"/>
+      <c r="AM52" s="42"/>
+      <c r="AN52" s="19"/>
+      <c r="AO52" s="19"/>
+      <c r="AP52" s="19"/>
+      <c r="AQ52" s="19"/>
+      <c r="AR52" s="19"/>
+      <c r="AS52" s="19"/>
+      <c r="AT52" s="19"/>
+      <c r="AU52" s="19"/>
+      <c r="AV52" s="19"/>
+      <c r="AW52" s="19"/>
+      <c r="AX52" s="19"/>
+      <c r="AY52" s="19"/>
+      <c r="AZ52" s="19"/>
+      <c r="BA52" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="BB52" s="33"/>
+      <c r="BC52" s="33"/>
+      <c r="BD52" s="19"/>
+      <c r="BE52" s="19"/>
+      <c r="BF52" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="BG52" s="33"/>
+      <c r="BH52" s="33"/>
+      <c r="BI52" s="20"/>
+      <c r="BJ52" s="59"/>
+    </row>
+    <row r="53" spans="2:62" ht="22.5" customHeight="1">
+      <c r="B53" s="59"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="59"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="59"/>
+      <c r="H53" s="59"/>
+      <c r="I53" s="59"/>
+      <c r="J53" s="59"/>
+      <c r="K53" s="59"/>
+      <c r="L53" s="59"/>
+      <c r="M53" s="59"/>
+      <c r="N53" s="59"/>
+      <c r="O53" s="59"/>
+      <c r="P53" s="59"/>
+      <c r="Q53" s="59"/>
+      <c r="R53" s="59"/>
+      <c r="S53" s="59"/>
+      <c r="T53" s="59"/>
+      <c r="U53" s="59"/>
+      <c r="V53" s="59"/>
+      <c r="W53" s="59"/>
+      <c r="X53" s="59"/>
+      <c r="Y53" s="59"/>
+      <c r="Z53" s="59"/>
+      <c r="AA53" s="59"/>
+      <c r="AB53" s="59"/>
+      <c r="AC53" s="59"/>
+      <c r="AD53" s="59"/>
+      <c r="AE53" s="59"/>
+      <c r="AF53" s="59"/>
+      <c r="AG53" s="59"/>
+      <c r="AH53" s="59"/>
+      <c r="AI53" s="59"/>
+      <c r="AJ53" s="59"/>
+      <c r="AK53" s="59"/>
+      <c r="AL53" s="59"/>
+      <c r="AM53" s="42"/>
+      <c r="AN53" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO53" s="33"/>
+      <c r="AP53" s="19"/>
+      <c r="AQ53" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR53" s="33"/>
+      <c r="AS53" s="19"/>
+      <c r="AT53" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU53" s="33"/>
+      <c r="AV53" s="19"/>
+      <c r="AW53" s="19"/>
+      <c r="AX53" s="19"/>
+      <c r="AY53" s="19"/>
+      <c r="AZ53" s="19"/>
+      <c r="BA53" s="19"/>
+      <c r="BB53" s="19"/>
+      <c r="BC53" s="19"/>
+      <c r="BD53" s="19"/>
+      <c r="BE53" s="19"/>
+      <c r="BF53" s="19"/>
+      <c r="BG53" s="19"/>
+      <c r="BH53" s="19"/>
+      <c r="BI53" s="20"/>
+      <c r="BJ53" s="59"/>
+    </row>
+    <row r="54" spans="2:62" ht="22.5" customHeight="1">
+      <c r="B54" s="59"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="59"/>
+      <c r="F54" s="59"/>
+      <c r="G54" s="59"/>
+      <c r="H54" s="59"/>
+      <c r="I54" s="59"/>
+      <c r="J54" s="59"/>
+      <c r="K54" s="59"/>
+      <c r="L54" s="59"/>
+      <c r="M54" s="59"/>
+      <c r="N54" s="59"/>
+      <c r="O54" s="59"/>
+      <c r="P54" s="59"/>
+      <c r="Q54" s="59"/>
+      <c r="R54" s="59"/>
+      <c r="S54" s="59"/>
+      <c r="T54" s="59"/>
+      <c r="U54" s="59"/>
+      <c r="V54" s="59"/>
+      <c r="W54" s="59"/>
+      <c r="X54" s="59"/>
+      <c r="Y54" s="59"/>
+      <c r="Z54" s="59"/>
+      <c r="AA54" s="59"/>
+      <c r="AB54" s="59"/>
+      <c r="AC54" s="59"/>
+      <c r="AD54" s="59"/>
+      <c r="AE54" s="59"/>
+      <c r="AF54" s="59"/>
+      <c r="AG54" s="59"/>
+      <c r="AH54" s="59"/>
+      <c r="AI54" s="59"/>
+      <c r="AJ54" s="59"/>
+      <c r="AK54" s="59"/>
+      <c r="AL54" s="59"/>
+      <c r="AM54" s="42"/>
+      <c r="AN54" s="33"/>
+      <c r="AO54" s="33"/>
+      <c r="AP54" s="19"/>
+      <c r="AQ54" s="33"/>
+      <c r="AR54" s="33"/>
+      <c r="AS54" s="19"/>
+      <c r="AT54" s="33"/>
+      <c r="AU54" s="33"/>
+      <c r="AV54" s="19"/>
+      <c r="AW54" s="19"/>
+      <c r="AX54" s="19"/>
+      <c r="AY54" s="19"/>
+      <c r="AZ54" s="19"/>
+      <c r="BA54" s="19"/>
+      <c r="BB54" s="19"/>
+      <c r="BC54" s="19"/>
+      <c r="BD54" s="19"/>
+      <c r="BE54" s="19"/>
+      <c r="BF54" s="19"/>
+      <c r="BG54" s="19"/>
+      <c r="BH54" s="19"/>
+      <c r="BI54" s="20"/>
+      <c r="BJ54" s="59"/>
+    </row>
+    <row r="55" spans="2:62" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B55" s="59"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="59"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="59"/>
+      <c r="H55" s="59"/>
+      <c r="I55" s="59"/>
+      <c r="J55" s="59"/>
+      <c r="K55" s="59"/>
+      <c r="L55" s="59"/>
+      <c r="M55" s="59"/>
+      <c r="N55" s="59"/>
+      <c r="O55" s="59"/>
+      <c r="P55" s="59"/>
+      <c r="Q55" s="59"/>
+      <c r="R55" s="59"/>
+      <c r="S55" s="59"/>
+      <c r="T55" s="59"/>
+      <c r="U55" s="59"/>
+      <c r="V55" s="59"/>
+      <c r="W55" s="59"/>
+      <c r="X55" s="59"/>
+      <c r="Y55" s="59"/>
+      <c r="Z55" s="59"/>
+      <c r="AA55" s="59"/>
+      <c r="AB55" s="59"/>
+      <c r="AC55" s="59"/>
+      <c r="AD55" s="59"/>
+      <c r="AE55" s="59"/>
+      <c r="AF55" s="59"/>
+      <c r="AG55" s="59"/>
+      <c r="AH55" s="59"/>
+      <c r="AI55" s="59"/>
+      <c r="AJ55" s="59"/>
+      <c r="AK55" s="59"/>
+      <c r="AL55" s="59"/>
+      <c r="AM55" s="42"/>
+      <c r="AN55" s="19"/>
+      <c r="AO55" s="19"/>
+      <c r="AP55" s="19"/>
+      <c r="AQ55" s="19"/>
+      <c r="AR55" s="19"/>
+      <c r="AS55" s="19"/>
+      <c r="AT55" s="19"/>
+      <c r="AU55" s="19"/>
+      <c r="AV55" s="19"/>
+      <c r="AW55" s="19"/>
+      <c r="AX55" s="22"/>
+      <c r="AY55" s="22"/>
+      <c r="AZ55" s="19"/>
+      <c r="BA55" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="BB55" s="33"/>
+      <c r="BC55" s="33"/>
+      <c r="BD55" s="19"/>
+      <c r="BE55" s="19"/>
+      <c r="BF55" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="BG55" s="33"/>
+      <c r="BH55" s="33"/>
+      <c r="BI55" s="20"/>
+      <c r="BJ55" s="59"/>
+    </row>
+    <row r="56" spans="2:62" ht="22.5" customHeight="1">
+      <c r="B56" s="59"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="59"/>
+      <c r="F56" s="59"/>
+      <c r="G56" s="59"/>
+      <c r="H56" s="59"/>
+      <c r="I56" s="59"/>
+      <c r="J56" s="59"/>
+      <c r="K56" s="59"/>
+      <c r="L56" s="59"/>
+      <c r="M56" s="59"/>
+      <c r="N56" s="59"/>
+      <c r="O56" s="59"/>
+      <c r="P56" s="59"/>
+      <c r="Q56" s="59"/>
+      <c r="R56" s="59"/>
+      <c r="S56" s="59"/>
+      <c r="T56" s="59"/>
+      <c r="U56" s="59"/>
+      <c r="V56" s="59"/>
+      <c r="W56" s="59"/>
+      <c r="X56" s="59"/>
+      <c r="Y56" s="59"/>
+      <c r="Z56" s="59"/>
+      <c r="AA56" s="59"/>
+      <c r="AB56" s="59"/>
+      <c r="AC56" s="59"/>
+      <c r="AD56" s="59"/>
+      <c r="AE56" s="59"/>
+      <c r="AF56" s="59"/>
+      <c r="AG56" s="59"/>
+      <c r="AH56" s="59"/>
+      <c r="AI56" s="59"/>
+      <c r="AJ56" s="59"/>
+      <c r="AK56" s="59"/>
+      <c r="AL56" s="59"/>
+      <c r="AM56" s="18"/>
+      <c r="AN56" s="19"/>
+      <c r="AO56" s="19"/>
+      <c r="AP56" s="19"/>
+      <c r="AQ56" s="19"/>
+      <c r="AR56" s="19"/>
+      <c r="AS56" s="19"/>
+      <c r="AT56" s="19"/>
+      <c r="AU56" s="19"/>
+      <c r="AV56" s="19"/>
+      <c r="AW56" s="20"/>
+      <c r="AX56" s="27"/>
+      <c r="AY56" s="27"/>
+      <c r="AZ56" s="18"/>
+      <c r="BA56" s="19"/>
+      <c r="BB56" s="19"/>
+      <c r="BC56" s="19"/>
+      <c r="BD56" s="19"/>
+      <c r="BE56" s="19"/>
+      <c r="BF56" s="19"/>
+      <c r="BG56" s="19"/>
+      <c r="BH56" s="19"/>
+      <c r="BI56" s="20"/>
+      <c r="BJ56" s="59"/>
+    </row>
+    <row r="57" spans="2:62" ht="22.5" customHeight="1">
+      <c r="B57" s="59"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="59"/>
+      <c r="E57" s="59"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="59"/>
+      <c r="H57" s="59"/>
+      <c r="I57" s="59"/>
+      <c r="J57" s="59"/>
+      <c r="K57" s="59"/>
+      <c r="L57" s="59"/>
+      <c r="M57" s="59"/>
+      <c r="N57" s="59"/>
+      <c r="O57" s="59"/>
+      <c r="P57" s="59"/>
+      <c r="Q57" s="59"/>
+      <c r="R57" s="59"/>
+      <c r="S57" s="59"/>
+      <c r="T57" s="59"/>
+      <c r="U57" s="59"/>
+      <c r="V57" s="59"/>
+      <c r="W57" s="59"/>
+      <c r="X57" s="59"/>
+      <c r="Y57" s="59"/>
+      <c r="Z57" s="59"/>
+      <c r="AA57" s="59"/>
+      <c r="AB57" s="59"/>
+      <c r="AC57" s="59"/>
+      <c r="AD57" s="59"/>
+      <c r="AE57" s="59"/>
+      <c r="AF57" s="59"/>
+      <c r="AG57" s="59"/>
+      <c r="AH57" s="59"/>
+      <c r="AI57" s="59"/>
+      <c r="AJ57" s="59"/>
+      <c r="AK57" s="59"/>
+      <c r="AL57" s="59"/>
+      <c r="AM57" s="18"/>
+      <c r="AN57" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO57" s="33"/>
+      <c r="AP57" s="19"/>
+      <c r="AQ57" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR57" s="33"/>
+      <c r="AS57" s="19"/>
+      <c r="AT57" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU57" s="33"/>
+      <c r="AV57" s="19"/>
+      <c r="AW57" s="20"/>
+      <c r="AX57" s="27"/>
+      <c r="AY57" s="27"/>
+      <c r="AZ57" s="18"/>
+      <c r="BA57" s="19"/>
+      <c r="BB57" s="19"/>
+      <c r="BC57" s="19"/>
+      <c r="BD57" s="19"/>
+      <c r="BE57" s="19"/>
+      <c r="BF57" s="19"/>
+      <c r="BG57" s="19"/>
+      <c r="BH57" s="19"/>
+      <c r="BI57" s="20"/>
+      <c r="BJ57" s="59"/>
+    </row>
+    <row r="58" spans="2:62" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B58" s="59"/>
+      <c r="C58" s="59"/>
+      <c r="D58" s="59"/>
+      <c r="E58" s="59"/>
+      <c r="F58" s="59"/>
+      <c r="G58" s="59"/>
+      <c r="H58" s="59"/>
+      <c r="I58" s="59"/>
+      <c r="J58" s="59"/>
+      <c r="K58" s="59"/>
+      <c r="L58" s="59"/>
+      <c r="M58" s="59"/>
+      <c r="N58" s="59"/>
+      <c r="O58" s="59"/>
+      <c r="P58" s="59"/>
+      <c r="Q58" s="59"/>
+      <c r="R58" s="59"/>
+      <c r="S58" s="59"/>
+      <c r="T58" s="59"/>
+      <c r="U58" s="59"/>
+      <c r="V58" s="59"/>
+      <c r="W58" s="59"/>
+      <c r="X58" s="59"/>
+      <c r="Y58" s="59"/>
+      <c r="Z58" s="59"/>
+      <c r="AA58" s="59"/>
+      <c r="AB58" s="59"/>
+      <c r="AC58" s="59"/>
+      <c r="AD58" s="59"/>
+      <c r="AE58" s="59"/>
+      <c r="AF58" s="59"/>
+      <c r="AG58" s="59"/>
+      <c r="AH58" s="59"/>
+      <c r="AI58" s="59"/>
+      <c r="AJ58" s="59"/>
+      <c r="AK58" s="59"/>
+      <c r="AL58" s="59"/>
+      <c r="AM58" s="45"/>
+      <c r="AN58" s="65"/>
+      <c r="AO58" s="65"/>
+      <c r="AP58" s="22"/>
+      <c r="AQ58" s="65"/>
+      <c r="AR58" s="65"/>
+      <c r="AS58" s="22"/>
+      <c r="AT58" s="65"/>
+      <c r="AU58" s="65"/>
+      <c r="AV58" s="22"/>
+      <c r="AW58" s="23"/>
+      <c r="AX58" s="27"/>
+      <c r="AY58" s="27"/>
+      <c r="AZ58" s="21"/>
+      <c r="BA58" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="BB58" s="65"/>
+      <c r="BC58" s="65"/>
+      <c r="BD58" s="22"/>
+      <c r="BE58" s="22"/>
+      <c r="BF58" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="BG58" s="65"/>
+      <c r="BH58" s="65"/>
+      <c r="BI58" s="23"/>
+      <c r="BJ58" s="59"/>
+    </row>
+    <row r="59" spans="2:62" ht="22.5" customHeight="1">
+      <c r="B59" s="59"/>
+      <c r="C59" s="59"/>
+      <c r="D59" s="59"/>
+      <c r="E59" s="59"/>
+      <c r="F59" s="59"/>
+      <c r="G59" s="59"/>
+      <c r="H59" s="59"/>
+      <c r="I59" s="59"/>
+      <c r="J59" s="59"/>
+      <c r="K59" s="59"/>
+      <c r="L59" s="59"/>
+      <c r="M59" s="59"/>
+      <c r="N59" s="59"/>
+      <c r="O59" s="59"/>
+      <c r="P59" s="59"/>
+      <c r="Q59" s="59"/>
+      <c r="R59" s="59"/>
+      <c r="S59" s="59"/>
+      <c r="T59" s="59"/>
+      <c r="U59" s="59"/>
+      <c r="V59" s="59"/>
+      <c r="W59" s="59"/>
+      <c r="X59" s="59"/>
+      <c r="Y59" s="59"/>
+      <c r="Z59" s="59"/>
+      <c r="AA59" s="59"/>
+      <c r="AB59" s="59"/>
+      <c r="AC59" s="59"/>
+      <c r="AD59" s="59"/>
+      <c r="AE59" s="59"/>
+      <c r="AF59" s="59"/>
+      <c r="AG59" s="59"/>
+      <c r="AH59" s="59"/>
+      <c r="AI59" s="59"/>
+      <c r="AJ59" s="59"/>
+      <c r="AK59" s="59"/>
+      <c r="AL59" s="59"/>
+      <c r="AM59" s="59"/>
+      <c r="AN59" s="59"/>
+      <c r="AO59" s="59"/>
+      <c r="AP59" s="59"/>
+      <c r="AQ59" s="59"/>
+      <c r="AR59" s="59"/>
+      <c r="AS59" s="59"/>
+      <c r="AT59" s="59"/>
+      <c r="AU59" s="59"/>
+      <c r="AV59" s="59"/>
+      <c r="AW59" s="59"/>
+      <c r="AX59" s="59"/>
+      <c r="AY59" s="59"/>
+      <c r="AZ59" s="59"/>
+      <c r="BA59" s="59"/>
+      <c r="BB59" s="59"/>
+      <c r="BC59" s="59"/>
+      <c r="BD59" s="59"/>
+      <c r="BE59" s="59"/>
+      <c r="BF59" s="59"/>
+      <c r="BG59" s="59"/>
+      <c r="BH59" s="59"/>
+      <c r="BI59" s="59"/>
+      <c r="BJ59" s="59"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Game Plan.xlsx
+++ b/Game Plan.xlsx
@@ -1,28 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr date1904="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Notilaca\Documents\GameProd2\GameProd2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - Intro_    -          Yo" sheetId="1" r:id="rId1"/>
-    <sheet name="Level3" sheetId="3" r:id="rId2"/>
+          Yo" sheetId="1" r:id="rId4"/>
+    <sheet name="Level3" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
   <si>
     <t>Intro:    @@ -45,7 +38,7 @@
   <si>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -54,8 +47,8 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <i/>
+        <b val="1"/>
+        <i val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -64,7 +57,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -75,7 +68,7 @@
   <si>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -85,79 +78,97 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">(Ryn) -
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t> -</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>On second visit - -</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">(Ryn)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">On second visit
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -169,8 +180,8 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <u/>
+        <b val="1"/>
+        <u val="single"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -187,7 +198,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -213,7 +224,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -240,7 +251,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -262,12 +273,20 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t xml:space="preserve"> -—  Butler appears, after </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">—  Butler appears, after </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -284,7 +303,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -302,7 +321,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -320,7 +339,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -355,7 +374,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -382,7 +401,7 @@
     </r>
     <r>
       <rPr>
-        <i/>
+        <i val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -395,26 +414,34 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t xml:space="preserve">pulls up a dialog saying the front page of today’s newspaper shows the your face. -
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t> +      <t xml:space="preserve">pulls up a dialog saying the front page of today’s newspaper shows the your face.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -427,7 +454,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -440,15 +467,31 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t xml:space="preserve"> - -— </t>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">— </t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -466,7 +509,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -484,7 +527,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -493,7 +536,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="19"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -503,12 +546,12 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t> +        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -526,8 +569,16 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t xml:space="preserve"> -— Pushing them off the roof or hitting them enough times enables you to  board a helicopter then cuts scene to the lab (or starts potential helicopter side-scroller round) </t>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">— Pushing them off the roof or hitting them enough times enables you to  board a helicopter then cuts scene to the lab (or starts potential helicopter side-scroller round) </t>
     </r>
   </si>
   <si>
@@ -541,7 +592,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -558,7 +609,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -575,7 +626,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -588,13 +639,29 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t xml:space="preserve"> - -2. “Hey son. I don’t know if you’ve heard yet, I called a publisher about that evidence you discovered.” </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">2. “Hey son. I don’t know if you’ve heard yet, I called a publisher about that evidence you discovered.” </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -611,7 +678,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -628,7 +695,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -645,7 +712,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -658,13 +725,29 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t xml:space="preserve">mom - -3. “Roof is blocked by angry mob of scientist. Not sure if they’re smart for finding a way up here or the opposite for not having planned a way down. Either way, I’m going to have to use the sewer for now.” — </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t xml:space="preserve">mom
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">3. “Roof is blocked by angry mob of scientist. Not sure if they’re smart for finding a way up here or the opposite for not having planned a way down. Either way, I’m going to have to use the sewer for now.” — </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -686,12 +769,20 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t xml:space="preserve"> -4. “I gave the publisher a call. They said they won’t withdrawal the article. The address for the publishers office is… What’s that? The angry mob on your roof cut your power lines and your phone got soaked going through the sewer? I guess you’ll have to make it back here so I can print you off a map. Head here once you fetch the research paper from the lab.” </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">4. “I gave the publisher a call. They said they won’t withdrawal the article. The address for the publishers office is… What’s that? The angry mob on your roof cut your power lines and your phone got soaked going through the sewer? I guess you’ll have to make it back here so I can print you off a map. Head here once you fetch the research paper from the lab.” </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -708,8 +799,8 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <u/>
+        <b val="1"/>
+        <u val="single"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -726,7 +817,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -736,7 +827,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -746,7 +837,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -756,7 +847,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -774,7 +865,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -801,7 +892,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -828,7 +919,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -838,7 +929,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -856,7 +947,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -900,7 +991,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -935,7 +1026,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -952,7 +1043,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -981,7 +1072,7 @@
   <si>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -999,7 +1090,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1012,12 +1103,12 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t xml:space="preserve"> Pull lever to drain sewer and find a key hidden under the sewer water in order to make it through the sewer into the store. -</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t xml:space="preserve"> Pull lever to drain sewer and find a key hidden under the sewer water in order to make it through the sewer into the store.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1034,7 +1125,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1070,7 +1161,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1087,7 +1178,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1114,7 +1205,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1124,7 +1215,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1142,7 +1233,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1159,7 +1250,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1194,7 +1285,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1204,7 +1295,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1222,7 +1313,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1237,8 +1328,8 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <u/>
+        <b val="1"/>
+        <u val="single"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1247,7 +1338,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1282,7 +1373,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1308,7 +1399,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1334,7 +1425,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1360,7 +1451,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1377,7 +1468,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1395,7 +1486,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1413,7 +1504,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1431,7 +1522,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1449,7 +1540,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1460,6 +1551,61 @@
   <si>
     <r>
       <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> Search the filing cabinets and desk for clues to the passcode for the door. Find a picture that has a date on it and enter that to unlock the door.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> Time your way passed the open windows
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> Push boxes around and search the levels of the store for a disguise and rollerblades and a map.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1468,7 +1614,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1486,7 +1632,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1512,7 +1658,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1530,7 +1676,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1548,7 +1694,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1566,7 +1712,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1584,7 +1730,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1601,8 +1747,8 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <u/>
+        <b val="1"/>
+        <u val="single"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1611,7 +1757,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1629,7 +1775,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1655,7 +1801,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1666,7 +1812,7 @@
   <si>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1679,12 +1825,12 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t xml:space="preserve"> Immediately gets sighted upon leaving store and mob at his/her mansion starts heading his way -</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t xml:space="preserve"> Immediately gets sighted upon leaving store and mob at his/her mansion starts heading his way
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1697,7 +1843,7 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>Zoom(on rollerblades) through the street avoiding debris. Hit an obstacle and the mobbists might catch up with you. +      <t xml:space="preserve">Zoom(on rollerblades) through the street avoiding debris. Hit an obstacle and the mobbists might catch up with you.
 </t>
     </r>
   </si>
@@ -1712,7 +1858,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1738,7 +1884,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1799,17 +1945,17 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>— Must listen to old lady mom’s story and deduce which cats snatched the piece of paper with the publishers number on it to advance  -</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t> +      <t xml:space="preserve">— Must listen to old lady mom’s story and deduce which cats snatched the piece of paper with the publishers number on it to advance 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -1822,12 +1968,12 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t> +        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
   </si>
@@ -1842,7 +1988,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1855,8 +2001,16 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t xml:space="preserve"> -
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -1869,7 +2023,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1889,8 +2043,16 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>— The way to the lab is blocked by an angry mob - +      <t xml:space="preserve">— The way to the lab is blocked by an angry mob
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -1909,8 +2071,16 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>— Must return to house and fight off the roof mob with moms cane and get to the helicopter to enter the lab through the roof - +      <t xml:space="preserve">— Must return to house and fight off the roof mob with moms cane and get to the helicopter to enter the lab through the roof
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -1923,13 +2093,22 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve"> -
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
   </si>
@@ -1944,13 +2123,22 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>dialog - +        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">dialog
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -1963,7 +2151,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1989,212 +2177,130 @@
   </si>
   <si>
     <t>player goal</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>window</t>
+  </si>
+  <si>
+    <t>door</t>
+  </si>
+  <si>
+    <t>1. player gets passcode from cabinet</t>
   </si>
   <si>
     <t>cabinet</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. player gets map from stand</t>
+  </si>
+  <si>
+    <t>exit</t>
+  </si>
+  <si>
+    <t>3. player gets rollerblades from cabinet</t>
+  </si>
+  <si>
+    <t>counter</t>
+  </si>
+  <si>
+    <t>4. player gets disguise from rack</t>
+  </si>
+  <si>
+    <t>5. after disguise is collected, go to exit point(1F - map1)</t>
+  </si>
+  <si>
+    <t>stand</t>
+  </si>
+  <si>
+    <t>rack</t>
   </si>
   <si>
     <t>enter</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>exit</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>stand</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>window</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>counter</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>rack</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>door</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. player should take passcode in cabinet</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. player should find map in stand</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve"> Search the filing cabinets and desk for clues to the passcode for the door. Find a picture that has a date on it and enter that to unlock the door.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve"> Time your way passed the open windows
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve"> Push boxes around and search the levels of the store for a disguise and rollerblades and a map.</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. player should find in rollerblades cabinet</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. player should find disguise in rack</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>5. after cloth take, go to exit point(1F - map1)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b/>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b/>
-      <i/>
+      <b val="1"/>
+      <i val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b/>
-      <u/>
+      <b val="1"/>
+      <u val="single"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <i/>
+      <i val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="19"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <b val="1"/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Helvetica Neue"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <b val="1"/>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="18"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="18"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2215,36 +2321,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor indexed="14"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
+        <fgColor indexed="15"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <fgColor indexed="16"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
+        <fgColor indexed="17"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
+        <fgColor indexed="19"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="20"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -2256,9 +2368,7 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="10"/>
       </top>
@@ -2268,8 +2378,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
@@ -2278,7 +2410,7 @@
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2289,41 +2421,97 @@
       <right style="thin">
         <color indexed="10"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
       </right>
       <top style="thin">
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2334,9 +2522,7 @@
       <right style="thin">
         <color indexed="10"/>
       </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="10"/>
       </bottom>
@@ -2346,6 +2532,46 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -2353,17 +2579,28 @@
         <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color indexed="8"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color indexed="8"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -2372,7 +2609,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color indexed="8"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -2380,86 +2617,17 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color indexed="8"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color indexed="8"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color indexed="8"/>
       </left>
       <right/>
       <top/>
@@ -2469,8 +2637,64 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color indexed="8"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -2480,295 +2704,345 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color indexed="8"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color indexed="8"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+  </cellStyleXfs>
+  <cellXfs count="66">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="51">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyBorder="1">
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFBDC0BF"/>
-      <rgbColor rgb="FFA5A5A5"/>
-      <rgbColor rgb="FF3F3F3F"/>
-      <rgbColor rgb="FFDBDBDB"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="ffbdc0bf"/>
+      <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="fffbdeed"/>
+      <rgbColor rgb="ffd8d8d8"/>
+      <rgbColor rgb="fff2f2f2"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="fffcf3ac"/>
+      <rgbColor rgb="ffbfbfbf"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>173442</xdr:colOff>
@@ -2783,25 +3057,32 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1">
+          <a:extLst/>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1002117" y="2181224"/>
-          <a:ext cx="4273255" cy="3209926"/>
+          <a:off x="1125942" y="2181224"/>
+          <a:ext cx="4933656" cy="3209926"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2810,7 +3091,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -2820,10 +3101,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -3000,20 +3281,23 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:schemeClr val="accent1"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -3028,590 +3312,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
-          </a:defRPr>
-        </a:defPPr>
-        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl1pPr>
-        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl2pPr>
-        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl3pPr>
-        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl4pPr>
-        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl5pPr>
-        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl6pPr>
-        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl7pPr>
-        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl8pPr>
-        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl9pPr>
-      </a:lstStyle>
-      <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="none"/>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
-        <a:noAutofit/>
-      </a:bodyPr>
-      <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:defPPr>
-        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl1pPr>
-        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl2pPr>
-        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl3pPr>
-        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl4pPr>
-        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl5pPr>
-        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl6pPr>
-        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl7pPr>
-        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl8pPr>
-        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl9pPr>
-      </a:lstStyle>
-      <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="none"/>
-      </a:style>
-    </a:lnDef>
-    <a:txDef>
-      <a:spPr>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
-        <a:spAutoFit/>
-      </a:bodyPr>
-      <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3641,7 +3342,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3667,7 +3368,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3693,7 +3394,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3719,7 +3420,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3745,7 +3446,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3771,7 +3472,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3797,7 +3498,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3823,7 +3524,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3849,7 +3550,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3862,181 +3563,751 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:lnDef>
+    <a:txDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="60.85546875" style="1" customWidth="1"/>
-    <col min="5" max="256" width="16.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1719" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="60.8516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="158.85" customHeight="1">
-      <c r="A1" s="50" t="s">
+    <row r="1" ht="158.85" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="20.25" customHeight="1">
+      <c r="A2" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s" s="5">
         <v>4</v>
       </c>
+      <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:4" ht="308.64999999999998" customHeight="1">
-      <c r="A3" s="3" t="s">
+    <row r="3" ht="308.65" customHeight="1">
+      <c r="A3" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s" s="8">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" t="s" s="9">
         <v>7</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" t="s" s="9">
         <v>8</v>
       </c>
+      <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:4" ht="260.45" customHeight="1">
-      <c r="A4" s="6" t="s">
+    <row r="4" ht="260.45" customHeight="1">
+      <c r="A4" t="s" s="10">
         <v>9</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" t="s" s="11">
         <v>10</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" t="s" s="12">
         <v>12</v>
       </c>
+      <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:4" ht="200.65" customHeight="1">
-      <c r="A5" s="6" t="s">
+    <row r="5" ht="200.65" customHeight="1">
+      <c r="A5" t="s" s="10">
         <v>13</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" t="s" s="11">
         <v>14</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="C5" t="s" s="12">
         <v>15</v>
       </c>
+      <c r="D5" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:4" ht="123.95" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="7" t="s">
+    <row r="6" ht="123.95" customHeight="1">
+      <c r="A6" t="s" s="10">
         <v>17</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="B6" t="s" s="11">
         <v>18</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="C6" t="s" s="12">
         <v>19</v>
       </c>
+      <c r="D6" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:4" ht="176.1" customHeight="1">
-      <c r="A7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="7" t="s">
+    <row r="7" ht="176.1" customHeight="1">
+      <c r="A7" t="s" s="10">
         <v>21</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="B7" t="s" s="11">
         <v>22</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="C7" t="s" s="12">
         <v>23</v>
       </c>
+      <c r="D7" t="s" s="12">
+        <v>24</v>
+      </c>
+      <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:4" ht="164.1" customHeight="1">
-      <c r="A8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="7" t="s">
+    <row r="8" ht="164.1" customHeight="1">
+      <c r="A8" t="s" s="10">
         <v>25</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="B8" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="C8" t="s" s="12">
         <v>27</v>
       </c>
+      <c r="D8" t="s" s="12">
+        <v>28</v>
+      </c>
+      <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:4" ht="56.1" customHeight="1">
-      <c r="A9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+    <row r="9" ht="56.1" customHeight="1">
+      <c r="A9" t="s" s="10">
+        <v>29</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+    <row r="10" ht="20.1" customHeight="1">
+      <c r="A10" t="s" s="10">
+        <v>30</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="11"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+    <row r="11" ht="20.1" customHeight="1">
+      <c r="A11" s="15"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -4044,708 +4315,1074 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AT19"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:AT19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="22.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.16667" defaultRowHeight="22.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="16384" width="4.140625" style="12"/>
+    <col min="1" max="1" width="4.17188" style="17" customWidth="1"/>
+    <col min="2" max="2" width="4.17188" style="17" customWidth="1"/>
+    <col min="3" max="3" width="4.17188" style="17" customWidth="1"/>
+    <col min="4" max="4" width="4.17188" style="17" customWidth="1"/>
+    <col min="5" max="5" width="4.17188" style="17" customWidth="1"/>
+    <col min="6" max="6" width="4.17188" style="17" customWidth="1"/>
+    <col min="7" max="7" width="4.17188" style="17" customWidth="1"/>
+    <col min="8" max="8" width="4.17188" style="17" customWidth="1"/>
+    <col min="9" max="9" width="4.17188" style="17" customWidth="1"/>
+    <col min="10" max="10" width="4.17188" style="17" customWidth="1"/>
+    <col min="11" max="11" width="4.17188" style="17" customWidth="1"/>
+    <col min="12" max="12" width="4.17188" style="17" customWidth="1"/>
+    <col min="13" max="13" width="4.17188" style="17" customWidth="1"/>
+    <col min="14" max="14" width="4.17188" style="17" customWidth="1"/>
+    <col min="15" max="15" width="4.17188" style="17" customWidth="1"/>
+    <col min="16" max="16" width="4.17188" style="17" customWidth="1"/>
+    <col min="17" max="17" width="4.17188" style="17" customWidth="1"/>
+    <col min="18" max="18" width="4.17188" style="17" customWidth="1"/>
+    <col min="19" max="19" width="4.17188" style="17" customWidth="1"/>
+    <col min="20" max="20" width="4.17188" style="17" customWidth="1"/>
+    <col min="21" max="21" width="4.17188" style="17" customWidth="1"/>
+    <col min="22" max="22" width="4.17188" style="17" customWidth="1"/>
+    <col min="23" max="23" width="4.17188" style="17" customWidth="1"/>
+    <col min="24" max="24" width="4.17188" style="17" customWidth="1"/>
+    <col min="25" max="25" width="4.17188" style="17" customWidth="1"/>
+    <col min="26" max="26" width="4.17188" style="17" customWidth="1"/>
+    <col min="27" max="27" width="4.17188" style="17" customWidth="1"/>
+    <col min="28" max="28" width="4.17188" style="17" customWidth="1"/>
+    <col min="29" max="29" width="4.17188" style="17" customWidth="1"/>
+    <col min="30" max="30" width="4.17188" style="17" customWidth="1"/>
+    <col min="31" max="31" width="4.17188" style="17" customWidth="1"/>
+    <col min="32" max="32" width="4.17188" style="17" customWidth="1"/>
+    <col min="33" max="33" width="4.17188" style="17" customWidth="1"/>
+    <col min="34" max="34" width="4.17188" style="17" customWidth="1"/>
+    <col min="35" max="35" width="4.17188" style="17" customWidth="1"/>
+    <col min="36" max="36" width="4.17188" style="17" customWidth="1"/>
+    <col min="37" max="37" width="4.17188" style="17" customWidth="1"/>
+    <col min="38" max="38" width="4.17188" style="17" customWidth="1"/>
+    <col min="39" max="39" width="4.17188" style="17" customWidth="1"/>
+    <col min="40" max="40" width="4.17188" style="17" customWidth="1"/>
+    <col min="41" max="41" width="4.17188" style="17" customWidth="1"/>
+    <col min="42" max="42" width="4.17188" style="17" customWidth="1"/>
+    <col min="43" max="43" width="4.17188" style="17" customWidth="1"/>
+    <col min="44" max="44" width="4.17188" style="17" customWidth="1"/>
+    <col min="45" max="45" width="4.17188" style="17" customWidth="1"/>
+    <col min="46" max="46" width="4.17188" style="17" customWidth="1"/>
+    <col min="47" max="256" width="4.17188" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:46" ht="22.5" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:46" ht="22.5" customHeight="1">
-      <c r="B2" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="15"/>
-      <c r="V2" s="43" t="s">
+    <row r="1" ht="22.5" customHeight="1">
+      <c r="A1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="21"/>
+      <c r="AJ1" s="21"/>
+      <c r="AK1" s="21"/>
+      <c r="AL1" s="21"/>
+      <c r="AM1" s="21"/>
+      <c r="AN1" s="21"/>
+      <c r="AO1" s="21"/>
+      <c r="AP1" s="21"/>
+      <c r="AQ1" s="21"/>
+      <c r="AR1" s="21"/>
+      <c r="AS1" s="21"/>
+      <c r="AT1" s="22"/>
+    </row>
+    <row r="2" ht="22.5" customHeight="1">
+      <c r="A2" s="23"/>
+      <c r="B2" t="s" s="24">
         <v>31</v>
       </c>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="28"/>
+      <c r="V2" t="s" s="29">
+        <v>32</v>
+      </c>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" t="s" s="31">
+        <v>33</v>
+      </c>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" t="s" s="31">
+        <v>33</v>
+      </c>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" t="s" s="32">
+        <v>34</v>
+      </c>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" t="s" s="31">
+        <v>33</v>
+      </c>
+      <c r="AK2" s="30"/>
+      <c r="AL2" s="30"/>
+      <c r="AM2" s="30"/>
+      <c r="AN2" t="s" s="31">
+        <v>33</v>
+      </c>
+      <c r="AO2" s="30"/>
+      <c r="AP2" s="30"/>
+      <c r="AQ2" t="s" s="31">
+        <v>33</v>
+      </c>
+      <c r="AR2" s="30"/>
+      <c r="AS2" s="30"/>
+      <c r="AT2" s="34"/>
+    </row>
+    <row r="3" ht="22.5" customHeight="1">
+      <c r="A3" s="23"/>
+      <c r="B3" t="s" s="35">
+        <v>35</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="28"/>
+      <c r="V3" t="s" s="38">
         <v>36</v>
       </c>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41" t="s">
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="40"/>
+      <c r="AI3" s="40"/>
+      <c r="AJ3" s="40"/>
+      <c r="AK3" s="40"/>
+      <c r="AL3" s="40"/>
+      <c r="AM3" s="40"/>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="40"/>
+      <c r="AQ3" s="40"/>
+      <c r="AR3" s="40"/>
+      <c r="AS3" s="40"/>
+      <c r="AT3" s="42"/>
+    </row>
+    <row r="4" ht="22.5" customHeight="1">
+      <c r="A4" s="23"/>
+      <c r="B4" t="s" s="35">
+        <v>37</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="43">
+        <v>1</v>
+      </c>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="44"/>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="44"/>
+      <c r="AE4" s="44"/>
+      <c r="AF4" t="s" s="45">
+        <v>38</v>
+      </c>
+      <c r="AG4" s="46">
+        <v>5</v>
+      </c>
+      <c r="AH4" s="44"/>
+      <c r="AI4" s="44"/>
+      <c r="AJ4" s="44"/>
+      <c r="AK4" s="44"/>
+      <c r="AL4" s="44"/>
+      <c r="AM4" s="44"/>
+      <c r="AN4" s="44"/>
+      <c r="AO4" s="44"/>
+      <c r="AP4" s="44"/>
+      <c r="AQ4" s="44"/>
+      <c r="AR4" s="44"/>
+      <c r="AS4" s="44"/>
+      <c r="AT4" s="47"/>
+    </row>
+    <row r="5" ht="22.5" customHeight="1">
+      <c r="A5" s="23"/>
+      <c r="B5" t="s" s="35">
+        <v>39</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="36"/>
+      <c r="AB5" s="36"/>
+      <c r="AC5" s="36"/>
+      <c r="AD5" s="36"/>
+      <c r="AE5" s="36"/>
+      <c r="AF5" s="36"/>
+      <c r="AG5" s="36"/>
+      <c r="AH5" s="36"/>
+      <c r="AI5" s="36"/>
+      <c r="AJ5" s="36"/>
+      <c r="AK5" s="36"/>
+      <c r="AL5" t="s" s="49">
+        <v>40</v>
+      </c>
+      <c r="AM5" s="39"/>
+      <c r="AN5" s="39"/>
+      <c r="AO5" s="39"/>
+      <c r="AP5" t="s" s="49">
+        <v>40</v>
+      </c>
+      <c r="AQ5" s="39"/>
+      <c r="AR5" s="39"/>
+      <c r="AS5" s="39"/>
+      <c r="AT5" s="50"/>
+    </row>
+    <row r="6" ht="22.5" customHeight="1">
+      <c r="A6" s="23"/>
+      <c r="B6" t="s" s="35">
+        <v>41</v>
+      </c>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="28"/>
+      <c r="V6" t="s" s="38">
         <v>36</v>
       </c>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG2" s="40"/>
-      <c r="AH2" s="41"/>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="AO2" s="41"/>
-      <c r="AP2" s="41"/>
-      <c r="AQ2" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="AR2" s="41"/>
-      <c r="AS2" s="41"/>
-      <c r="AT2" s="44"/>
-    </row>
-    <row r="3" spans="2:46" ht="22.5" customHeight="1">
-      <c r="B3" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="18"/>
-      <c r="V3" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="W3" s="22"/>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="22"/>
-      <c r="AG3" s="22"/>
-      <c r="AH3" s="42"/>
-      <c r="AI3" s="42"/>
-      <c r="AJ3" s="42"/>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="42"/>
-      <c r="AM3" s="42"/>
-      <c r="AN3" s="42"/>
-      <c r="AO3" s="42"/>
-      <c r="AP3" s="42"/>
-      <c r="AQ3" s="42"/>
-      <c r="AR3" s="42"/>
-      <c r="AS3" s="42"/>
-      <c r="AT3" s="45"/>
-    </row>
-    <row r="4" spans="2:46" ht="22.5" customHeight="1">
-      <c r="B4" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="18"/>
-      <c r="V4" s="46">
-        <v>1</v>
-      </c>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="37"/>
-      <c r="AD4" s="37"/>
-      <c r="AE4" s="37"/>
-      <c r="AF4" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG4" s="48">
-        <v>5</v>
-      </c>
-      <c r="AH4" s="37"/>
-      <c r="AI4" s="37"/>
-      <c r="AJ4" s="37"/>
-      <c r="AK4" s="37"/>
-      <c r="AL4" s="37"/>
-      <c r="AM4" s="37"/>
-      <c r="AN4" s="37"/>
-      <c r="AO4" s="37"/>
-      <c r="AP4" s="37"/>
-      <c r="AQ4" s="37"/>
-      <c r="AR4" s="37"/>
-      <c r="AS4" s="37"/>
-      <c r="AT4" s="39"/>
-    </row>
-    <row r="5" spans="2:46" ht="22.5" customHeight="1">
-      <c r="B5" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="18"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="23"/>
-      <c r="X5" s="23"/>
-      <c r="Y5" s="23"/>
-      <c r="Z5" s="24"/>
-      <c r="AA5" s="24"/>
-      <c r="AB5" s="24"/>
-      <c r="AC5" s="24"/>
-      <c r="AD5" s="24"/>
-      <c r="AE5" s="24"/>
-      <c r="AF5" s="24"/>
-      <c r="AG5" s="24"/>
-      <c r="AH5" s="24"/>
-      <c r="AI5" s="24"/>
-      <c r="AJ5" s="24"/>
-      <c r="AK5" s="24"/>
-      <c r="AL5" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM5" s="22"/>
-      <c r="AN5" s="22"/>
-      <c r="AO5" s="22"/>
-      <c r="AP5" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="AQ5" s="22"/>
-      <c r="AR5" s="22"/>
-      <c r="AS5" s="22"/>
-      <c r="AT5" s="30"/>
-    </row>
-    <row r="6" spans="2:46" ht="22.5" customHeight="1">
-      <c r="B6" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="18"/>
-      <c r="V6" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="W6" s="22"/>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="24"/>
-      <c r="Z6" s="24"/>
-      <c r="AA6" s="24"/>
-      <c r="AB6" s="24"/>
-      <c r="AC6" s="24"/>
-      <c r="AD6" s="24"/>
-      <c r="AE6" s="24"/>
-      <c r="AF6" s="24"/>
-      <c r="AG6" s="24"/>
-      <c r="AH6" s="24"/>
-      <c r="AI6" s="24"/>
-      <c r="AJ6" s="24"/>
-      <c r="AK6" s="24"/>
-      <c r="AL6" s="24"/>
-      <c r="AM6" s="24"/>
-      <c r="AN6" s="23"/>
-      <c r="AO6" s="24"/>
-      <c r="AP6" s="24"/>
-      <c r="AQ6" s="24"/>
-      <c r="AR6" s="24"/>
-      <c r="AS6" s="24"/>
+      <c r="W6" s="39"/>
+      <c r="X6" s="39"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36"/>
+      <c r="AB6" s="36"/>
+      <c r="AC6" s="36"/>
+      <c r="AD6" s="36"/>
+      <c r="AE6" s="36"/>
+      <c r="AF6" s="36"/>
+      <c r="AG6" s="36"/>
+      <c r="AH6" s="36"/>
+      <c r="AI6" s="36"/>
+      <c r="AJ6" s="36"/>
+      <c r="AK6" s="36"/>
+      <c r="AL6" s="36"/>
+      <c r="AM6" s="36"/>
+      <c r="AN6" s="36"/>
+      <c r="AO6" s="36"/>
+      <c r="AP6" s="36"/>
+      <c r="AQ6" s="36"/>
+      <c r="AR6" s="36"/>
+      <c r="AS6" s="36"/>
       <c r="AT6" s="28"/>
     </row>
-    <row r="7" spans="2:46" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B7" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="21"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="24"/>
-      <c r="AA7" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB7" s="22"/>
-      <c r="AC7" s="24"/>
-      <c r="AD7" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE7" s="22"/>
-      <c r="AF7" s="24"/>
-      <c r="AG7" s="24"/>
-      <c r="AH7" s="24"/>
-      <c r="AI7" s="24"/>
-      <c r="AJ7" s="24"/>
-      <c r="AK7" s="24"/>
-      <c r="AL7" s="24"/>
-      <c r="AM7" s="24"/>
-      <c r="AN7" s="23"/>
-      <c r="AO7" s="24"/>
-      <c r="AP7" s="24"/>
-      <c r="AQ7" s="24"/>
-      <c r="AR7" s="24"/>
-      <c r="AS7" s="24"/>
+    <row r="7" ht="22.5" customHeight="1">
+      <c r="A7" s="23"/>
+      <c r="B7" t="s" s="51">
+        <v>42</v>
+      </c>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="54"/>
+      <c r="W7" s="39"/>
+      <c r="X7" s="39"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="36"/>
+      <c r="AA7" t="s" s="49">
+        <v>43</v>
+      </c>
+      <c r="AB7" s="39"/>
+      <c r="AC7" s="36"/>
+      <c r="AD7" t="s" s="49">
+        <v>43</v>
+      </c>
+      <c r="AE7" s="39"/>
+      <c r="AF7" s="36"/>
+      <c r="AG7" s="36"/>
+      <c r="AH7" s="36"/>
+      <c r="AI7" s="36"/>
+      <c r="AJ7" s="36"/>
+      <c r="AK7" s="36"/>
+      <c r="AL7" s="36"/>
+      <c r="AM7" s="36"/>
+      <c r="AN7" s="36"/>
+      <c r="AO7" s="36"/>
+      <c r="AP7" s="36"/>
+      <c r="AQ7" s="36"/>
+      <c r="AR7" s="36"/>
+      <c r="AS7" s="36"/>
       <c r="AT7" s="28"/>
     </row>
-    <row r="8" spans="2:46" ht="22.5" customHeight="1">
-      <c r="V8" s="29"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="24"/>
-      <c r="Y8" s="24"/>
-      <c r="Z8" s="24"/>
-      <c r="AA8" s="22"/>
-      <c r="AB8" s="22"/>
-      <c r="AC8" s="24"/>
-      <c r="AD8" s="22"/>
-      <c r="AE8" s="22"/>
-      <c r="AF8" s="24"/>
-      <c r="AG8" s="24"/>
-      <c r="AH8" s="24"/>
-      <c r="AI8" s="24"/>
-      <c r="AJ8" s="24"/>
-      <c r="AK8" s="24"/>
-      <c r="AL8" s="24"/>
-      <c r="AM8" s="24"/>
-      <c r="AN8" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO8" s="22"/>
-      <c r="AP8" s="22"/>
-      <c r="AQ8" s="24"/>
-      <c r="AR8" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="AS8" s="22"/>
-      <c r="AT8" s="30"/>
+    <row r="8" ht="22.5" customHeight="1">
+      <c r="A8" s="55"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="39"/>
+      <c r="AB8" s="39"/>
+      <c r="AC8" s="36"/>
+      <c r="AD8" s="39"/>
+      <c r="AE8" s="39"/>
+      <c r="AF8" s="36"/>
+      <c r="AG8" s="36"/>
+      <c r="AH8" s="36"/>
+      <c r="AI8" s="36"/>
+      <c r="AJ8" s="36"/>
+      <c r="AK8" s="36"/>
+      <c r="AL8" s="36"/>
+      <c r="AM8" s="36"/>
+      <c r="AN8" t="s" s="49">
+        <v>44</v>
+      </c>
+      <c r="AO8" s="39"/>
+      <c r="AP8" s="39"/>
+      <c r="AQ8" s="36"/>
+      <c r="AR8" t="s" s="49">
+        <v>44</v>
+      </c>
+      <c r="AS8" s="39"/>
+      <c r="AT8" s="50"/>
     </row>
-    <row r="9" spans="2:46" ht="22.5" customHeight="1">
-      <c r="V9" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="24"/>
-      <c r="Z9" s="24"/>
-      <c r="AA9" s="24"/>
-      <c r="AB9" s="24"/>
-      <c r="AC9" s="24"/>
-      <c r="AD9" s="24"/>
-      <c r="AE9" s="24"/>
-      <c r="AF9" s="24"/>
-      <c r="AG9" s="24"/>
-      <c r="AH9" s="24"/>
-      <c r="AI9" s="24"/>
-      <c r="AJ9" s="24"/>
-      <c r="AK9" s="24"/>
-      <c r="AL9" s="24"/>
-      <c r="AM9" s="24"/>
-      <c r="AN9" s="24"/>
-      <c r="AO9" s="24"/>
-      <c r="AP9" s="24"/>
-      <c r="AQ9" s="24"/>
-      <c r="AR9" s="24"/>
-      <c r="AS9" s="24"/>
+    <row r="9" ht="22.5" customHeight="1">
+      <c r="A9" s="55"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="28"/>
+      <c r="V9" t="s" s="38">
+        <v>36</v>
+      </c>
+      <c r="W9" s="39"/>
+      <c r="X9" s="39"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="36"/>
+      <c r="AB9" s="36"/>
+      <c r="AC9" s="36"/>
+      <c r="AD9" s="36"/>
+      <c r="AE9" s="36"/>
+      <c r="AF9" s="36"/>
+      <c r="AG9" s="36"/>
+      <c r="AH9" s="36"/>
+      <c r="AI9" s="36"/>
+      <c r="AJ9" s="36"/>
+      <c r="AK9" s="36"/>
+      <c r="AL9" s="36"/>
+      <c r="AM9" s="36"/>
+      <c r="AN9" s="36"/>
+      <c r="AO9" s="36"/>
+      <c r="AP9" s="36"/>
+      <c r="AQ9" s="36"/>
+      <c r="AR9" s="36"/>
+      <c r="AS9" s="36"/>
       <c r="AT9" s="28"/>
     </row>
-    <row r="10" spans="2:46" ht="22.5" customHeight="1">
-      <c r="V10" s="26"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="24"/>
-      <c r="Z10" s="24"/>
-      <c r="AA10" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB10" s="22"/>
-      <c r="AD10" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE10" s="22"/>
-      <c r="AF10" s="24"/>
-      <c r="AG10" s="24"/>
-      <c r="AH10" s="24"/>
-      <c r="AI10" s="24"/>
-      <c r="AJ10" s="24"/>
-      <c r="AK10" s="24"/>
-      <c r="AL10" s="24"/>
-      <c r="AM10" s="24"/>
-      <c r="AN10" s="24"/>
-      <c r="AO10" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP10" s="22"/>
-      <c r="AQ10" s="24"/>
-      <c r="AR10" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="AS10" s="22"/>
+    <row r="10" ht="22.5" customHeight="1">
+      <c r="A10" s="55"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="54"/>
+      <c r="W10" s="39"/>
+      <c r="X10" s="39"/>
+      <c r="Y10" s="36"/>
+      <c r="Z10" s="36"/>
+      <c r="AA10" t="s" s="49">
+        <v>43</v>
+      </c>
+      <c r="AB10" s="39"/>
+      <c r="AC10" s="36"/>
+      <c r="AD10" t="s" s="49">
+        <v>43</v>
+      </c>
+      <c r="AE10" s="39"/>
+      <c r="AF10" s="36"/>
+      <c r="AG10" s="36"/>
+      <c r="AH10" s="36"/>
+      <c r="AI10" s="36"/>
+      <c r="AJ10" s="36"/>
+      <c r="AK10" s="36"/>
+      <c r="AL10" s="36"/>
+      <c r="AM10" s="36"/>
+      <c r="AN10" s="36"/>
+      <c r="AO10" t="s" s="49">
+        <v>43</v>
+      </c>
+      <c r="AP10" s="39"/>
+      <c r="AQ10" s="36"/>
+      <c r="AR10" t="s" s="49">
+        <v>43</v>
+      </c>
+      <c r="AS10" s="39"/>
       <c r="AT10" s="28"/>
     </row>
-    <row r="11" spans="2:46" ht="22.5" customHeight="1">
-      <c r="V11" s="31"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="24"/>
-      <c r="Z11" s="24"/>
-      <c r="AA11" s="22"/>
-      <c r="AB11" s="22"/>
-      <c r="AD11" s="22"/>
-      <c r="AE11" s="22"/>
-      <c r="AF11" s="24"/>
-      <c r="AG11" s="24"/>
-      <c r="AH11" s="24"/>
-      <c r="AI11" s="24"/>
-      <c r="AJ11" s="24"/>
-      <c r="AK11" s="24"/>
-      <c r="AL11" s="24"/>
-      <c r="AM11" s="24"/>
-      <c r="AN11" s="24"/>
-      <c r="AO11" s="22"/>
-      <c r="AP11" s="22"/>
-      <c r="AQ11" s="24"/>
-      <c r="AR11" s="47">
+    <row r="11" ht="22.5" customHeight="1">
+      <c r="A11" s="55"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="36"/>
+      <c r="Z11" s="36"/>
+      <c r="AA11" s="39"/>
+      <c r="AB11" s="39"/>
+      <c r="AC11" s="36"/>
+      <c r="AD11" s="39"/>
+      <c r="AE11" s="39"/>
+      <c r="AF11" s="36"/>
+      <c r="AG11" s="36"/>
+      <c r="AH11" s="36"/>
+      <c r="AI11" s="36"/>
+      <c r="AJ11" s="36"/>
+      <c r="AK11" s="36"/>
+      <c r="AL11" s="36"/>
+      <c r="AM11" s="36"/>
+      <c r="AN11" s="36"/>
+      <c r="AO11" s="39"/>
+      <c r="AP11" s="39"/>
+      <c r="AQ11" s="36"/>
+      <c r="AR11" s="57">
         <v>2</v>
       </c>
-      <c r="AS11" s="22"/>
+      <c r="AS11" s="39"/>
       <c r="AT11" s="28"/>
     </row>
-    <row r="12" spans="2:46" ht="22.5" customHeight="1">
-      <c r="V12" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="W12" s="22"/>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="24"/>
-      <c r="Z12" s="24"/>
-      <c r="AA12" s="24"/>
-      <c r="AB12" s="24"/>
-      <c r="AC12" s="24"/>
-      <c r="AD12" s="24"/>
-      <c r="AE12" s="24"/>
-      <c r="AF12" s="24"/>
-      <c r="AG12" s="24"/>
-      <c r="AH12" s="24"/>
-      <c r="AI12" s="24"/>
-      <c r="AJ12" s="24"/>
-      <c r="AK12" s="24"/>
-      <c r="AL12" s="24"/>
-      <c r="AM12" s="24"/>
-      <c r="AN12" s="24"/>
-      <c r="AO12" s="24"/>
-      <c r="AP12" s="24"/>
-      <c r="AQ12" s="24"/>
-      <c r="AR12" s="24"/>
-      <c r="AS12" s="24"/>
+    <row r="12" ht="22.5" customHeight="1">
+      <c r="A12" s="55"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="28"/>
+      <c r="V12" t="s" s="38">
+        <v>36</v>
+      </c>
+      <c r="W12" s="39"/>
+      <c r="X12" s="39"/>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="36"/>
+      <c r="AA12" s="36"/>
+      <c r="AB12" s="36"/>
+      <c r="AC12" s="36"/>
+      <c r="AD12" s="36"/>
+      <c r="AE12" s="36"/>
+      <c r="AF12" s="36"/>
+      <c r="AG12" s="36"/>
+      <c r="AH12" s="36"/>
+      <c r="AI12" s="36"/>
+      <c r="AJ12" s="36"/>
+      <c r="AK12" s="36"/>
+      <c r="AL12" s="36"/>
+      <c r="AM12" s="36"/>
+      <c r="AN12" s="36"/>
+      <c r="AO12" s="36"/>
+      <c r="AP12" s="36"/>
+      <c r="AQ12" s="36"/>
+      <c r="AR12" s="36"/>
+      <c r="AS12" s="36"/>
       <c r="AT12" s="28"/>
     </row>
-    <row r="13" spans="2:46" ht="22.5" customHeight="1">
-      <c r="V13" s="26"/>
-      <c r="W13" s="49">
+    <row r="13" ht="22.5" customHeight="1">
+      <c r="A13" s="55"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="54"/>
+      <c r="W13" s="58">
         <v>3</v>
       </c>
-      <c r="X13" s="22"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="24"/>
-      <c r="AA13" s="24"/>
-      <c r="AB13" s="24"/>
-      <c r="AC13" s="24"/>
-      <c r="AD13" s="24"/>
-      <c r="AE13" s="24"/>
-      <c r="AF13" s="24"/>
-      <c r="AG13" s="24"/>
-      <c r="AH13" s="24"/>
-      <c r="AI13" s="24"/>
-      <c r="AJ13" s="24"/>
-      <c r="AK13" s="24"/>
-      <c r="AL13" s="24"/>
-      <c r="AM13" s="24"/>
-      <c r="AN13" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO13" s="22"/>
-      <c r="AP13" s="22"/>
-      <c r="AQ13" s="24"/>
-      <c r="AR13" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="AS13" s="22"/>
-      <c r="AT13" s="30"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="36"/>
+      <c r="Z13" s="36"/>
+      <c r="AA13" s="36"/>
+      <c r="AB13" s="36"/>
+      <c r="AC13" s="36"/>
+      <c r="AD13" s="36"/>
+      <c r="AE13" s="36"/>
+      <c r="AF13" s="36"/>
+      <c r="AG13" s="36"/>
+      <c r="AH13" s="36"/>
+      <c r="AI13" s="36"/>
+      <c r="AJ13" s="36"/>
+      <c r="AK13" s="36"/>
+      <c r="AL13" s="36"/>
+      <c r="AM13" s="36"/>
+      <c r="AN13" t="s" s="49">
+        <v>44</v>
+      </c>
+      <c r="AO13" s="39"/>
+      <c r="AP13" s="39"/>
+      <c r="AQ13" s="36"/>
+      <c r="AR13" t="s" s="49">
+        <v>44</v>
+      </c>
+      <c r="AS13" s="39"/>
+      <c r="AT13" s="50"/>
     </row>
-    <row r="14" spans="2:46" ht="22.5" customHeight="1">
-      <c r="V14" s="31"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="24"/>
-      <c r="Z14" s="24"/>
-      <c r="AA14" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB14" s="22"/>
-      <c r="AC14" s="24"/>
-      <c r="AD14" s="24"/>
-      <c r="AE14" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF14" s="22"/>
-      <c r="AG14" s="24"/>
-      <c r="AH14" s="24"/>
-      <c r="AI14" s="24"/>
-      <c r="AJ14" s="24"/>
-      <c r="AK14" s="24"/>
-      <c r="AL14" s="24"/>
-      <c r="AM14" s="24"/>
-      <c r="AN14" s="24"/>
-      <c r="AO14" s="24"/>
-      <c r="AP14" s="24"/>
-      <c r="AQ14" s="24"/>
-      <c r="AR14" s="24"/>
-      <c r="AS14" s="24"/>
+    <row r="14" ht="22.5" customHeight="1">
+      <c r="A14" s="55"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="36"/>
+      <c r="Z14" s="36"/>
+      <c r="AA14" t="s" s="49">
+        <v>43</v>
+      </c>
+      <c r="AB14" s="39"/>
+      <c r="AC14" s="36"/>
+      <c r="AD14" s="36"/>
+      <c r="AE14" t="s" s="49">
+        <v>43</v>
+      </c>
+      <c r="AF14" s="39"/>
+      <c r="AG14" s="36"/>
+      <c r="AH14" s="36"/>
+      <c r="AI14" s="36"/>
+      <c r="AJ14" s="36"/>
+      <c r="AK14" s="36"/>
+      <c r="AL14" s="36"/>
+      <c r="AM14" s="36"/>
+      <c r="AN14" s="36"/>
+      <c r="AO14" s="36"/>
+      <c r="AP14" s="36"/>
+      <c r="AQ14" s="36"/>
+      <c r="AR14" s="36"/>
+      <c r="AS14" s="36"/>
       <c r="AT14" s="28"/>
     </row>
-    <row r="15" spans="2:46" ht="22.5" customHeight="1">
-      <c r="V15" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="W15" s="22"/>
-      <c r="X15" s="22"/>
-      <c r="Y15" s="24"/>
-      <c r="Z15" s="24"/>
-      <c r="AA15" s="22"/>
-      <c r="AB15" s="22"/>
-      <c r="AC15" s="24"/>
-      <c r="AD15" s="24"/>
-      <c r="AE15" s="22"/>
-      <c r="AF15" s="22"/>
-      <c r="AG15" s="24"/>
-      <c r="AH15" s="24"/>
-      <c r="AI15" s="24"/>
-      <c r="AJ15" s="24"/>
-      <c r="AK15" s="24"/>
-      <c r="AL15" s="24"/>
-      <c r="AM15" s="24"/>
-      <c r="AN15" s="24"/>
-      <c r="AO15" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP15" s="22"/>
-      <c r="AQ15" s="24"/>
-      <c r="AR15" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="AS15" s="22"/>
+    <row r="15" ht="22.5" customHeight="1">
+      <c r="A15" s="55"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="28"/>
+      <c r="V15" t="s" s="38">
+        <v>36</v>
+      </c>
+      <c r="W15" s="39"/>
+      <c r="X15" s="39"/>
+      <c r="Y15" s="36"/>
+      <c r="Z15" s="36"/>
+      <c r="AA15" s="39"/>
+      <c r="AB15" s="39"/>
+      <c r="AC15" s="36"/>
+      <c r="AD15" s="36"/>
+      <c r="AE15" s="39"/>
+      <c r="AF15" s="39"/>
+      <c r="AG15" s="36"/>
+      <c r="AH15" s="36"/>
+      <c r="AI15" s="36"/>
+      <c r="AJ15" s="36"/>
+      <c r="AK15" s="36"/>
+      <c r="AL15" s="36"/>
+      <c r="AM15" s="36"/>
+      <c r="AN15" s="36"/>
+      <c r="AO15" t="s" s="49">
+        <v>43</v>
+      </c>
+      <c r="AP15" s="39"/>
+      <c r="AQ15" s="36"/>
+      <c r="AR15" t="s" s="49">
+        <v>43</v>
+      </c>
+      <c r="AS15" s="39"/>
       <c r="AT15" s="28"/>
     </row>
-    <row r="16" spans="2:46" ht="22.5" customHeight="1">
-      <c r="V16" s="26"/>
-      <c r="W16" s="22"/>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="24"/>
-      <c r="Z16" s="24"/>
-      <c r="AA16" s="24"/>
-      <c r="AB16" s="24"/>
-      <c r="AC16" s="24"/>
-      <c r="AD16" s="24"/>
-      <c r="AE16" s="24"/>
-      <c r="AF16" s="24"/>
-      <c r="AG16" s="24"/>
-      <c r="AH16" s="24"/>
-      <c r="AI16" s="24"/>
-      <c r="AJ16" s="24"/>
-      <c r="AK16" s="24"/>
-      <c r="AL16" s="24"/>
-      <c r="AM16" s="24"/>
-      <c r="AN16" s="24"/>
-      <c r="AO16" s="22"/>
-      <c r="AP16" s="22"/>
-      <c r="AQ16" s="24"/>
-      <c r="AR16" s="22"/>
-      <c r="AS16" s="22"/>
+    <row r="16" ht="22.5" customHeight="1">
+      <c r="A16" s="55"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="54"/>
+      <c r="W16" s="39"/>
+      <c r="X16" s="39"/>
+      <c r="Y16" s="36"/>
+      <c r="Z16" s="36"/>
+      <c r="AA16" s="36"/>
+      <c r="AB16" s="36"/>
+      <c r="AC16" s="36"/>
+      <c r="AD16" s="36"/>
+      <c r="AE16" s="36"/>
+      <c r="AF16" s="36"/>
+      <c r="AG16" s="36"/>
+      <c r="AH16" s="36"/>
+      <c r="AI16" s="36"/>
+      <c r="AJ16" s="36"/>
+      <c r="AK16" s="36"/>
+      <c r="AL16" s="36"/>
+      <c r="AM16" s="36"/>
+      <c r="AN16" s="36"/>
+      <c r="AO16" s="39"/>
+      <c r="AP16" s="39"/>
+      <c r="AQ16" s="36"/>
+      <c r="AR16" s="39"/>
+      <c r="AS16" s="39"/>
       <c r="AT16" s="28"/>
     </row>
-    <row r="17" spans="22:46" ht="22.5" customHeight="1">
-      <c r="V17" s="31"/>
-      <c r="W17" s="23"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="24"/>
-      <c r="Z17" s="24"/>
-      <c r="AA17" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB17" s="22"/>
-      <c r="AC17" s="22"/>
-      <c r="AD17" s="24"/>
-      <c r="AE17" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF17" s="22"/>
-      <c r="AG17" s="22"/>
-      <c r="AH17" s="24"/>
-      <c r="AI17" s="24"/>
-      <c r="AJ17" s="24"/>
-      <c r="AK17" s="24"/>
-      <c r="AL17" s="24"/>
-      <c r="AM17" s="24"/>
-      <c r="AN17" s="23"/>
-      <c r="AO17" s="23"/>
-      <c r="AP17" s="23"/>
-      <c r="AQ17" s="23"/>
-      <c r="AR17" s="23"/>
-      <c r="AS17" s="23"/>
-      <c r="AT17" s="27"/>
+    <row r="17" ht="22.5" customHeight="1">
+      <c r="A17" s="55"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="48"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="36"/>
+      <c r="AA17" t="s" s="49">
+        <v>44</v>
+      </c>
+      <c r="AB17" s="39"/>
+      <c r="AC17" s="39"/>
+      <c r="AD17" s="36"/>
+      <c r="AE17" t="s" s="49">
+        <v>44</v>
+      </c>
+      <c r="AF17" s="39"/>
+      <c r="AG17" s="39"/>
+      <c r="AH17" s="36"/>
+      <c r="AI17" s="36"/>
+      <c r="AJ17" s="36"/>
+      <c r="AK17" s="36"/>
+      <c r="AL17" s="36"/>
+      <c r="AM17" s="36"/>
+      <c r="AN17" s="36"/>
+      <c r="AO17" s="36"/>
+      <c r="AP17" s="36"/>
+      <c r="AQ17" s="36"/>
+      <c r="AR17" s="36"/>
+      <c r="AS17" s="36"/>
+      <c r="AT17" s="28"/>
     </row>
-    <row r="18" spans="22:46" ht="22.5" customHeight="1">
-      <c r="V18" s="31"/>
-      <c r="W18" s="23"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="24"/>
-      <c r="Z18" s="24"/>
-      <c r="AA18" s="24"/>
-      <c r="AB18" s="24"/>
-      <c r="AC18" s="24"/>
-      <c r="AD18" s="24"/>
-      <c r="AE18" s="24"/>
-      <c r="AF18" s="24"/>
-      <c r="AG18" s="24"/>
-      <c r="AH18" s="24"/>
-      <c r="AI18" s="24"/>
-      <c r="AJ18" s="24"/>
-      <c r="AK18" s="23"/>
-      <c r="AL18" s="23"/>
-      <c r="AM18" s="23"/>
-      <c r="AN18" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO18" s="49">
+    <row r="18" ht="22.5" customHeight="1">
+      <c r="A18" s="55"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="48"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="36"/>
+      <c r="Y18" s="36"/>
+      <c r="Z18" s="36"/>
+      <c r="AA18" s="36"/>
+      <c r="AB18" s="36"/>
+      <c r="AC18" s="36"/>
+      <c r="AD18" s="36"/>
+      <c r="AE18" s="36"/>
+      <c r="AF18" s="36"/>
+      <c r="AG18" s="36"/>
+      <c r="AH18" s="36"/>
+      <c r="AI18" s="36"/>
+      <c r="AJ18" s="36"/>
+      <c r="AK18" s="36"/>
+      <c r="AL18" s="36"/>
+      <c r="AM18" s="36"/>
+      <c r="AN18" t="s" s="49">
+        <v>44</v>
+      </c>
+      <c r="AO18" s="58">
         <v>4</v>
       </c>
-      <c r="AP18" s="22"/>
-      <c r="AQ18" s="24"/>
-      <c r="AR18" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="AS18" s="22"/>
-      <c r="AT18" s="30"/>
+      <c r="AP18" s="39"/>
+      <c r="AQ18" s="36"/>
+      <c r="AR18" t="s" s="49">
+        <v>44</v>
+      </c>
+      <c r="AS18" s="39"/>
+      <c r="AT18" s="50"/>
     </row>
-    <row r="19" spans="22:46" ht="22.5" customHeight="1">
-      <c r="V19" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="W19" s="33"/>
-      <c r="X19" s="33"/>
-      <c r="Y19" s="33"/>
-      <c r="Z19" s="33"/>
-      <c r="AA19" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB19" s="34"/>
-      <c r="AC19" s="34"/>
-      <c r="AD19" s="35"/>
-      <c r="AE19" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF19" s="34"/>
-      <c r="AG19" s="34"/>
-      <c r="AH19" s="33"/>
-      <c r="AI19" s="33"/>
-      <c r="AJ19" s="33"/>
-      <c r="AK19" s="33"/>
-      <c r="AL19" s="33"/>
-      <c r="AM19" s="33"/>
-      <c r="AN19" s="33"/>
-      <c r="AO19" s="33"/>
-      <c r="AP19" s="33"/>
-      <c r="AQ19" s="33"/>
-      <c r="AR19" s="33"/>
-      <c r="AS19" s="35"/>
-      <c r="AT19" s="36"/>
+    <row r="19" ht="22.5" customHeight="1">
+      <c r="A19" s="59"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="60"/>
+      <c r="Q19" s="60"/>
+      <c r="R19" s="60"/>
+      <c r="S19" s="60"/>
+      <c r="T19" s="60"/>
+      <c r="U19" s="61"/>
+      <c r="V19" t="s" s="62">
+        <v>45</v>
+      </c>
+      <c r="W19" s="63"/>
+      <c r="X19" s="63"/>
+      <c r="Y19" s="63"/>
+      <c r="Z19" s="63"/>
+      <c r="AA19" t="s" s="64">
+        <v>44</v>
+      </c>
+      <c r="AB19" s="41"/>
+      <c r="AC19" s="41"/>
+      <c r="AD19" s="63"/>
+      <c r="AE19" t="s" s="64">
+        <v>44</v>
+      </c>
+      <c r="AF19" s="41"/>
+      <c r="AG19" s="41"/>
+      <c r="AH19" s="63"/>
+      <c r="AI19" s="63"/>
+      <c r="AJ19" s="63"/>
+      <c r="AK19" s="63"/>
+      <c r="AL19" s="63"/>
+      <c r="AM19" s="63"/>
+      <c r="AN19" s="63"/>
+      <c r="AO19" s="63"/>
+      <c r="AP19" s="63"/>
+      <c r="AQ19" s="63"/>
+      <c r="AR19" s="63"/>
+      <c r="AS19" s="63"/>
+      <c r="AT19" s="65"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Game Plan.xlsx
+++ b/Game Plan.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Notilaca\Documents\GameProd2\GameProd2\GameProd2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - Intro_    -          Yo" sheetId="1" r:id="rId4"/>
-    <sheet name="Level3" sheetId="2" r:id="rId5"/>
+          Yo" sheetId="1" r:id="rId1"/>
+    <sheet name="Level3" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
   <si>
     <t>Intro:    @@ -38,7 +45,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -47,8 +54,8 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
-        <i val="1"/>
+        <b/>
+        <i/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -57,7 +64,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -68,7 +75,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -78,7 +85,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -88,67 +95,67 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -158,17 +165,17 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -180,8 +187,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -198,7 +205,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -224,7 +231,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -251,7 +258,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -286,7 +293,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -303,7 +310,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -321,7 +328,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -339,7 +346,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -374,7 +381,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -401,7 +408,7 @@
     </r>
     <r>
       <rPr>
-        <i val="1"/>
+        <i/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -454,7 +461,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -491,7 +498,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -509,7 +516,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -527,7 +534,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -536,7 +543,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="19"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -546,7 +553,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -592,7 +599,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -609,7 +616,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -626,7 +633,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -661,7 +668,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -678,7 +685,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -695,7 +702,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -712,7 +719,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -747,7 +754,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -782,7 +789,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -799,8 +806,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -817,7 +824,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -827,7 +834,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -837,7 +844,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -847,7 +854,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -865,7 +872,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -892,7 +899,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -919,7 +926,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -929,7 +936,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -947,7 +954,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -991,7 +998,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1026,7 +1033,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1043,7 +1050,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1072,7 +1079,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1090,7 +1097,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1108,7 +1115,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1125,7 +1132,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1161,7 +1168,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1178,7 +1185,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1205,7 +1212,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1215,7 +1222,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1233,7 +1240,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1250,7 +1257,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1285,7 +1292,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1295,7 +1302,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1313,7 +1320,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1328,8 +1335,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1338,7 +1345,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1373,7 +1380,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1399,7 +1406,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1425,7 +1432,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1451,7 +1458,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1468,7 +1475,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1486,7 +1493,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1504,7 +1511,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1522,7 +1529,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1540,7 +1547,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1551,7 +1558,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1569,7 +1576,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1587,7 +1594,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1614,7 +1621,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1632,7 +1639,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1658,7 +1665,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1676,7 +1683,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1694,7 +1701,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1712,7 +1719,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1730,7 +1737,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1747,8 +1754,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1757,7 +1764,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1775,7 +1782,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1801,7 +1808,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1812,7 +1819,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1830,7 +1837,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1858,7 +1865,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1884,7 +1891,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1950,7 +1957,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1968,7 +1975,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1988,7 +1995,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2023,7 +2030,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2093,17 +2100,17 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2123,7 +2130,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2133,7 +2140,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2151,7 +2158,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2179,34 +2186,19 @@
     <t>player goal</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>window</t>
   </si>
   <si>
     <t>door</t>
   </si>
   <si>
-    <t>1. player gets passcode from cabinet</t>
-  </si>
-  <si>
     <t>cabinet</t>
-  </si>
-  <si>
-    <t>2. player gets map from stand</t>
   </si>
   <si>
     <t>exit</t>
   </si>
   <si>
-    <t>3. player gets rollerblades from cabinet</t>
-  </si>
-  <si>
     <t>counter</t>
-  </si>
-  <si>
-    <t>4. player gets disguise from rack</t>
   </si>
   <si>
     <t>5. after disguise is collected, go to exit point(1F - map1)</t>
@@ -2220,14 +2212,43 @@
   <si>
     <t>enter</t>
   </si>
+  <si>
+    <t>desk</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>cabinet</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. player gets passcode from desks in office to open cabinets</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. player gets rollerblades from cabinets</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. player gets a disguise from racks</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>counter</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>door</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. player gets a map from counter</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12">
     <font>
       <sz val="10"/>
@@ -2235,61 +2256,51 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="1"/>
+      <b/>
+      <i/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
-      <u val="single"/>
+      <b/>
+      <u/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <i val="1"/>
+      <i/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="19"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="12"/>
       <color indexed="18"/>
       <name val="Helvetica Neue"/>
@@ -2299,8 +2310,20 @@
       <color indexed="18"/>
       <name val="Helvetica Neue"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2355,8 +2378,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="40">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -2529,12 +2558,19 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -2543,91 +2579,25 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
@@ -2637,7 +2607,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -2645,37 +2615,39 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -2684,49 +2656,20 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2735,275 +2678,295 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="10"/>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="65">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3014,84 +2977,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="fffbdeed"/>
-      <rgbColor rgb="ffd8d8d8"/>
-      <rgbColor rgb="fff2f2f2"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="fffcf3ac"/>
-      <rgbColor rgb="ffbfbfbf"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="FFFBDEED"/>
+      <rgbColor rgb="FFD8D8D8"/>
+      <rgbColor rgb="FFF2F2F2"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFFCF3AC"/>
+      <rgbColor rgb="FFBFBFBF"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>173442</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>27097</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1">
-          <a:extLst/>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1125942" y="2181224"/>
-          <a:ext cx="4933656" cy="3209926"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -3293,7 +3257,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -3312,7 +3276,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3342,7 +3306,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3368,7 +3332,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3394,7 +3358,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3420,7 +3384,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3446,7 +3410,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3472,7 +3436,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3498,7 +3462,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3524,7 +3488,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3550,7 +3514,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3563,9 +3527,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -3582,7 +3552,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -3601,7 +3571,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3627,7 +3597,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3653,7 +3623,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3679,7 +3649,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3705,7 +3675,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3731,7 +3701,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3757,7 +3727,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3783,7 +3753,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3809,7 +3779,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3835,7 +3805,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3848,9 +3818,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -3864,7 +3840,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -3883,7 +3859,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3913,7 +3889,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3939,7 +3915,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3965,7 +3941,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3991,7 +3967,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4017,7 +3993,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4043,7 +4019,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4069,7 +4045,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4095,7 +4071,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4121,7 +4097,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4134,180 +4110,189 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:IV11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.1719" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="60.8516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="60.85546875" style="1" customWidth="1"/>
+    <col min="5" max="256" width="16.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="158.85" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="158.85" customHeight="1">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="2"/>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="5">
+    <row r="2" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="5">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="5">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="5">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="4"/>
     </row>
-    <row r="3" ht="308.65" customHeight="1">
-      <c r="A3" t="s" s="7">
+    <row r="3" spans="1:5" ht="308.64999999999998" customHeight="1">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s" s="8">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s" s="9">
+      <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s" s="9">
+      <c r="D3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="4"/>
     </row>
-    <row r="4" ht="260.45" customHeight="1">
-      <c r="A4" t="s" s="10">
+    <row r="4" spans="1:5" ht="260.45" customHeight="1">
+      <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s" s="11">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s" s="12">
+      <c r="C4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s" s="12">
+      <c r="D4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="4"/>
     </row>
-    <row r="5" ht="200.65" customHeight="1">
-      <c r="A5" t="s" s="10">
+    <row r="5" spans="1:5" ht="200.65" customHeight="1">
+      <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s" s="11">
+      <c r="B5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="4"/>
     </row>
-    <row r="6" ht="123.95" customHeight="1">
-      <c r="A6" t="s" s="10">
+    <row r="6" spans="1:5" ht="123.95" customHeight="1">
+      <c r="A6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s" s="11">
+      <c r="B6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s" s="12">
+      <c r="C6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s" s="12">
+      <c r="D6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="4"/>
     </row>
-    <row r="7" ht="176.1" customHeight="1">
-      <c r="A7" t="s" s="10">
+    <row r="7" spans="1:5" ht="176.1" customHeight="1">
+      <c r="A7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s" s="11">
+      <c r="B7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s" s="12">
+      <c r="C7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s" s="12">
+      <c r="D7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="4"/>
     </row>
-    <row r="8" ht="164.1" customHeight="1">
-      <c r="A8" t="s" s="10">
+    <row r="8" spans="1:5" ht="164.1" customHeight="1">
+      <c r="A8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="s" s="11">
+      <c r="B8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s" s="12">
+      <c r="C8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D8" t="s" s="12">
+      <c r="D8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="4"/>
     </row>
-    <row r="9" ht="56.1" customHeight="1">
-      <c r="A9" t="s" s="10">
+    <row r="9" spans="1:5" ht="56.1" customHeight="1">
+      <c r="A9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="6"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="4"/>
     </row>
-    <row r="10" ht="20.1" customHeight="1">
-      <c r="A10" t="s" s="10">
+    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="6"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="4"/>
     </row>
-    <row r="11" ht="20.1" customHeight="1">
-      <c r="A11" s="15"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="16"/>
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="13"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -4315,1074 +4300,1231 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AT19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IW28"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.16667" defaultRowHeight="22.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="22.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.17188" style="17" customWidth="1"/>
-    <col min="2" max="2" width="4.17188" style="17" customWidth="1"/>
-    <col min="3" max="3" width="4.17188" style="17" customWidth="1"/>
-    <col min="4" max="4" width="4.17188" style="17" customWidth="1"/>
-    <col min="5" max="5" width="4.17188" style="17" customWidth="1"/>
-    <col min="6" max="6" width="4.17188" style="17" customWidth="1"/>
-    <col min="7" max="7" width="4.17188" style="17" customWidth="1"/>
-    <col min="8" max="8" width="4.17188" style="17" customWidth="1"/>
-    <col min="9" max="9" width="4.17188" style="17" customWidth="1"/>
-    <col min="10" max="10" width="4.17188" style="17" customWidth="1"/>
-    <col min="11" max="11" width="4.17188" style="17" customWidth="1"/>
-    <col min="12" max="12" width="4.17188" style="17" customWidth="1"/>
-    <col min="13" max="13" width="4.17188" style="17" customWidth="1"/>
-    <col min="14" max="14" width="4.17188" style="17" customWidth="1"/>
-    <col min="15" max="15" width="4.17188" style="17" customWidth="1"/>
-    <col min="16" max="16" width="4.17188" style="17" customWidth="1"/>
-    <col min="17" max="17" width="4.17188" style="17" customWidth="1"/>
-    <col min="18" max="18" width="4.17188" style="17" customWidth="1"/>
-    <col min="19" max="19" width="4.17188" style="17" customWidth="1"/>
-    <col min="20" max="20" width="4.17188" style="17" customWidth="1"/>
-    <col min="21" max="21" width="4.17188" style="17" customWidth="1"/>
-    <col min="22" max="22" width="4.17188" style="17" customWidth="1"/>
-    <col min="23" max="23" width="4.17188" style="17" customWidth="1"/>
-    <col min="24" max="24" width="4.17188" style="17" customWidth="1"/>
-    <col min="25" max="25" width="4.17188" style="17" customWidth="1"/>
-    <col min="26" max="26" width="4.17188" style="17" customWidth="1"/>
-    <col min="27" max="27" width="4.17188" style="17" customWidth="1"/>
-    <col min="28" max="28" width="4.17188" style="17" customWidth="1"/>
-    <col min="29" max="29" width="4.17188" style="17" customWidth="1"/>
-    <col min="30" max="30" width="4.17188" style="17" customWidth="1"/>
-    <col min="31" max="31" width="4.17188" style="17" customWidth="1"/>
-    <col min="32" max="32" width="4.17188" style="17" customWidth="1"/>
-    <col min="33" max="33" width="4.17188" style="17" customWidth="1"/>
-    <col min="34" max="34" width="4.17188" style="17" customWidth="1"/>
-    <col min="35" max="35" width="4.17188" style="17" customWidth="1"/>
-    <col min="36" max="36" width="4.17188" style="17" customWidth="1"/>
-    <col min="37" max="37" width="4.17188" style="17" customWidth="1"/>
-    <col min="38" max="38" width="4.17188" style="17" customWidth="1"/>
-    <col min="39" max="39" width="4.17188" style="17" customWidth="1"/>
-    <col min="40" max="40" width="4.17188" style="17" customWidth="1"/>
-    <col min="41" max="41" width="4.17188" style="17" customWidth="1"/>
-    <col min="42" max="42" width="4.17188" style="17" customWidth="1"/>
-    <col min="43" max="43" width="4.17188" style="17" customWidth="1"/>
-    <col min="44" max="44" width="4.17188" style="17" customWidth="1"/>
-    <col min="45" max="45" width="4.17188" style="17" customWidth="1"/>
-    <col min="46" max="46" width="4.17188" style="17" customWidth="1"/>
-    <col min="47" max="256" width="4.17188" style="17" customWidth="1"/>
+    <col min="1" max="257" width="4.140625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" customHeight="1">
-      <c r="A1" s="18"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="21"/>
-      <c r="AO1" s="21"/>
-      <c r="AP1" s="21"/>
-      <c r="AQ1" s="21"/>
-      <c r="AR1" s="21"/>
-      <c r="AS1" s="21"/>
-      <c r="AT1" s="22"/>
+    <row r="1" spans="1:47" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="16"/>
+      <c r="AN1" s="16"/>
+      <c r="AO1" s="16"/>
+      <c r="AP1" s="16"/>
+      <c r="AQ1" s="16"/>
+      <c r="AR1" s="16"/>
+      <c r="AS1" s="16"/>
+      <c r="AT1" s="16"/>
+      <c r="AU1" s="16"/>
     </row>
-    <row r="2" ht="22.5" customHeight="1">
-      <c r="A2" s="23"/>
-      <c r="B2" t="s" s="24">
+    <row r="2" spans="1:47" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A2" s="16"/>
+      <c r="B2" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="28"/>
-      <c r="V2" t="s" s="29">
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="33"/>
+      <c r="AO2" s="33"/>
+      <c r="AP2" s="33"/>
+      <c r="AQ2" s="33"/>
+      <c r="AR2" s="33"/>
+      <c r="AS2" s="33"/>
+      <c r="AT2" s="33"/>
+      <c r="AU2" s="33"/>
+    </row>
+    <row r="3" spans="1:47" ht="22.5" customHeight="1">
+      <c r="A3" s="16"/>
+      <c r="B3" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="33"/>
+      <c r="AG3" s="33"/>
+      <c r="AH3" s="33"/>
+      <c r="AI3" s="33"/>
+      <c r="AJ3" s="33"/>
+      <c r="AK3" s="33"/>
+      <c r="AL3" s="33"/>
+      <c r="AM3" s="33"/>
+      <c r="AN3" s="33"/>
+      <c r="AO3" s="33"/>
+      <c r="AP3" s="33"/>
+      <c r="AQ3" s="33"/>
+      <c r="AR3" s="33"/>
+      <c r="AS3" s="33"/>
+      <c r="AT3" s="33"/>
+      <c r="AU3" s="33"/>
+    </row>
+    <row r="4" spans="1:47" ht="22.5" customHeight="1">
+      <c r="A4" s="16"/>
+      <c r="B4" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="33"/>
+      <c r="AD4" s="33"/>
+      <c r="AE4" s="33"/>
+      <c r="AF4" s="33"/>
+      <c r="AG4" s="33"/>
+      <c r="AH4" s="33"/>
+      <c r="AI4" s="33"/>
+      <c r="AJ4" s="33"/>
+      <c r="AK4" s="33"/>
+      <c r="AL4" s="33"/>
+      <c r="AM4" s="33"/>
+      <c r="AN4" s="33"/>
+      <c r="AO4" s="33"/>
+      <c r="AP4" s="33"/>
+      <c r="AQ4" s="33"/>
+      <c r="AR4" s="33"/>
+      <c r="AS4" s="33"/>
+      <c r="AT4" s="33"/>
+      <c r="AU4" s="33"/>
+    </row>
+    <row r="5" spans="1:47" ht="22.5" customHeight="1">
+      <c r="A5" s="16"/>
+      <c r="B5" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="33"/>
+      <c r="AE5" s="33"/>
+      <c r="AF5" s="33"/>
+      <c r="AG5" s="33"/>
+      <c r="AH5" s="33"/>
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="33"/>
+      <c r="AK5" s="33"/>
+      <c r="AL5" s="33"/>
+      <c r="AM5" s="33"/>
+      <c r="AN5" s="33"/>
+      <c r="AO5" s="33"/>
+      <c r="AP5" s="33"/>
+      <c r="AQ5" s="33"/>
+      <c r="AR5" s="33"/>
+      <c r="AS5" s="33"/>
+      <c r="AT5" s="33"/>
+      <c r="AU5" s="33"/>
+    </row>
+    <row r="6" spans="1:47" ht="22.5" customHeight="1">
+      <c r="A6" s="16"/>
+      <c r="B6" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="33"/>
+      <c r="AA6" s="33"/>
+      <c r="AB6" s="33"/>
+      <c r="AC6" s="33"/>
+      <c r="AD6" s="33"/>
+      <c r="AE6" s="33"/>
+      <c r="AF6" s="33"/>
+      <c r="AG6" s="33"/>
+      <c r="AH6" s="33"/>
+      <c r="AI6" s="33"/>
+      <c r="AJ6" s="33"/>
+      <c r="AK6" s="33"/>
+      <c r="AL6" s="33"/>
+      <c r="AM6" s="33"/>
+      <c r="AN6" s="33"/>
+      <c r="AO6" s="33"/>
+      <c r="AP6" s="33"/>
+      <c r="AQ6" s="33"/>
+      <c r="AR6" s="33"/>
+      <c r="AS6" s="33"/>
+      <c r="AT6" s="33"/>
+      <c r="AU6" s="33"/>
+    </row>
+    <row r="7" spans="1:47" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A7" s="16"/>
+      <c r="B7" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="45"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
+      <c r="AB7" s="33"/>
+      <c r="AC7" s="33"/>
+      <c r="AD7" s="33"/>
+      <c r="AE7" s="33"/>
+      <c r="AF7" s="33"/>
+      <c r="AG7" s="33"/>
+      <c r="AH7" s="33"/>
+      <c r="AI7" s="33"/>
+      <c r="AJ7" s="33"/>
+      <c r="AK7" s="33"/>
+      <c r="AL7" s="33"/>
+      <c r="AM7" s="33"/>
+      <c r="AN7" s="33"/>
+      <c r="AO7" s="33"/>
+      <c r="AP7" s="33"/>
+      <c r="AQ7" s="33"/>
+      <c r="AR7" s="33"/>
+      <c r="AS7" s="33"/>
+      <c r="AT7" s="33"/>
+      <c r="AU7" s="33"/>
+    </row>
+    <row r="8" spans="1:47" ht="22.5" customHeight="1">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="45"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
+      <c r="AB8" s="33"/>
+      <c r="AC8" s="33"/>
+      <c r="AD8" s="33"/>
+      <c r="AE8" s="33"/>
+      <c r="AF8" s="33"/>
+      <c r="AG8" s="33"/>
+      <c r="AH8" s="33"/>
+      <c r="AI8" s="33"/>
+      <c r="AJ8" s="33"/>
+      <c r="AK8" s="33"/>
+      <c r="AL8" s="33"/>
+      <c r="AM8" s="33"/>
+      <c r="AN8" s="33"/>
+      <c r="AO8" s="33"/>
+      <c r="AP8" s="33"/>
+      <c r="AQ8" s="33"/>
+      <c r="AR8" s="33"/>
+      <c r="AS8" s="33"/>
+      <c r="AT8" s="33"/>
+      <c r="AU8" s="33"/>
+    </row>
+    <row r="9" spans="1:47" ht="22.5" customHeight="1">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="33"/>
+      <c r="AB9" s="33"/>
+      <c r="AC9" s="33"/>
+      <c r="AD9" s="33"/>
+      <c r="AE9" s="33"/>
+      <c r="AF9" s="33"/>
+      <c r="AG9" s="33"/>
+      <c r="AH9" s="33"/>
+      <c r="AI9" s="33"/>
+      <c r="AJ9" s="33"/>
+      <c r="AK9" s="33"/>
+      <c r="AL9" s="33"/>
+      <c r="AM9" s="33"/>
+      <c r="AN9" s="33"/>
+      <c r="AO9" s="33"/>
+      <c r="AP9" s="33"/>
+      <c r="AQ9" s="33"/>
+      <c r="AR9" s="33"/>
+      <c r="AS9" s="33"/>
+      <c r="AT9" s="33"/>
+      <c r="AU9" s="33"/>
+    </row>
+    <row r="10" spans="1:47" ht="22.5" customHeight="1">
+      <c r="A10" s="16"/>
+      <c r="B10" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" t="s" s="31">
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="58"/>
+      <c r="L10" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" t="s" s="31">
-        <v>33</v>
-      </c>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" t="s" s="32">
+      <c r="M10" s="61"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="58"/>
+      <c r="T10" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="59"/>
+      <c r="X10" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="62"/>
+      <c r="AD10" s="33"/>
+      <c r="AE10" s="33"/>
+      <c r="AF10" s="33"/>
+      <c r="AG10" s="33"/>
+      <c r="AH10" s="33"/>
+      <c r="AI10" s="33"/>
+      <c r="AJ10" s="33"/>
+      <c r="AK10" s="33"/>
+      <c r="AL10" s="33"/>
+      <c r="AM10" s="33"/>
+      <c r="AN10" s="33"/>
+      <c r="AO10" s="33"/>
+      <c r="AP10" s="33"/>
+      <c r="AQ10" s="33"/>
+      <c r="AR10" s="33"/>
+      <c r="AS10" s="33"/>
+      <c r="AT10" s="33"/>
+      <c r="AU10" s="33"/>
+    </row>
+    <row r="11" spans="1:47" ht="22.5" customHeight="1">
+      <c r="A11" s="16"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="40">
+        <v>5</v>
+      </c>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" t="s" s="31">
-        <v>33</v>
-      </c>
-      <c r="AK2" s="30"/>
-      <c r="AL2" s="30"/>
-      <c r="AM2" s="30"/>
-      <c r="AN2" t="s" s="31">
-        <v>33</v>
-      </c>
-      <c r="AO2" s="30"/>
-      <c r="AP2" s="30"/>
-      <c r="AQ2" t="s" s="31">
-        <v>33</v>
-      </c>
-      <c r="AR2" s="30"/>
-      <c r="AS2" s="30"/>
-      <c r="AT2" s="34"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="24"/>
+      <c r="AD11" s="33"/>
+      <c r="AE11" s="33"/>
+      <c r="AF11" s="33"/>
+      <c r="AG11" s="33"/>
+      <c r="AH11" s="33"/>
+      <c r="AI11" s="33"/>
+      <c r="AJ11" s="33"/>
+      <c r="AK11" s="33"/>
+      <c r="AL11" s="33"/>
+      <c r="AM11" s="33"/>
+      <c r="AN11" s="33"/>
+      <c r="AO11" s="33"/>
+      <c r="AP11" s="33"/>
+      <c r="AQ11" s="33"/>
+      <c r="AR11" s="33"/>
+      <c r="AS11" s="33"/>
+      <c r="AT11" s="33"/>
+      <c r="AU11" s="33"/>
     </row>
-    <row r="3" ht="22.5" customHeight="1">
-      <c r="A3" s="23"/>
-      <c r="B3" t="s" s="35">
-        <v>35</v>
-      </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="28"/>
-      <c r="V3" t="s" s="38">
+    <row r="12" spans="1:47" ht="22.5" customHeight="1">
+      <c r="A12" s="16"/>
+      <c r="B12" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="20">
+        <v>1</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="42"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="24"/>
+      <c r="AD12" s="33"/>
+      <c r="AE12" s="33"/>
+      <c r="AF12" s="33"/>
+      <c r="AG12" s="33"/>
+      <c r="AH12" s="33"/>
+      <c r="AI12" s="33"/>
+      <c r="AJ12" s="33"/>
+      <c r="AK12" s="33"/>
+      <c r="AL12" s="33"/>
+      <c r="AM12" s="33"/>
+      <c r="AN12" s="33"/>
+      <c r="AO12" s="33"/>
+      <c r="AP12" s="33"/>
+      <c r="AQ12" s="33"/>
+      <c r="AR12" s="33"/>
+      <c r="AS12" s="33"/>
+      <c r="AT12" s="33"/>
+      <c r="AU12" s="33"/>
+    </row>
+    <row r="13" spans="1:47" ht="22.5" customHeight="1">
+      <c r="A13" s="16"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="U13" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="V13" s="17"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="24"/>
+      <c r="AD13" s="33"/>
+      <c r="AE13" s="33"/>
+      <c r="AF13" s="33"/>
+      <c r="AG13" s="33"/>
+      <c r="AH13" s="33"/>
+      <c r="AI13" s="33"/>
+      <c r="AJ13" s="33"/>
+      <c r="AK13" s="33"/>
+      <c r="AL13" s="33"/>
+      <c r="AM13" s="33"/>
+      <c r="AN13" s="33"/>
+      <c r="AO13" s="33"/>
+      <c r="AP13" s="33"/>
+      <c r="AQ13" s="33"/>
+      <c r="AR13" s="33"/>
+      <c r="AS13" s="33"/>
+      <c r="AT13" s="33"/>
+      <c r="AU13" s="33"/>
+    </row>
+    <row r="14" spans="1:47" ht="22.5" customHeight="1">
+      <c r="A14" s="16"/>
+      <c r="B14" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="42"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="42"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="25"/>
+      <c r="Z14" s="24"/>
+      <c r="AD14" s="33"/>
+      <c r="AE14" s="33"/>
+      <c r="AF14" s="33"/>
+      <c r="AG14" s="33"/>
+      <c r="AH14" s="33"/>
+      <c r="AI14" s="33"/>
+      <c r="AJ14" s="33"/>
+      <c r="AK14" s="33"/>
+      <c r="AL14" s="33"/>
+      <c r="AM14" s="33"/>
+      <c r="AN14" s="33"/>
+      <c r="AO14" s="33"/>
+      <c r="AP14" s="33"/>
+      <c r="AQ14" s="33"/>
+      <c r="AR14" s="33"/>
+      <c r="AS14" s="33"/>
+      <c r="AT14" s="33"/>
+      <c r="AU14" s="33"/>
+    </row>
+    <row r="15" spans="1:47" ht="22.5" customHeight="1">
+      <c r="A15" s="16"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="L15" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="M15" s="17"/>
+      <c r="N15" s="16"/>
+      <c r="P15" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="V15" s="20">
+        <v>3</v>
+      </c>
+      <c r="W15" s="16"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="24"/>
+      <c r="AD15" s="33"/>
+      <c r="AE15" s="33"/>
+      <c r="AF15" s="33"/>
+      <c r="AG15" s="33"/>
+      <c r="AH15" s="33"/>
+      <c r="AI15" s="33"/>
+      <c r="AJ15" s="33"/>
+      <c r="AK15" s="33"/>
+      <c r="AL15" s="33"/>
+      <c r="AM15" s="33"/>
+      <c r="AN15" s="33"/>
+      <c r="AO15" s="33"/>
+      <c r="AP15" s="33"/>
+      <c r="AQ15" s="33"/>
+      <c r="AR15" s="33"/>
+      <c r="AS15" s="33"/>
+      <c r="AT15" s="33"/>
+      <c r="AU15" s="33"/>
+    </row>
+    <row r="16" spans="1:47" ht="22.5" customHeight="1">
+      <c r="A16" s="16"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="16"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="29"/>
+      <c r="AD16" s="33"/>
+      <c r="AE16" s="33"/>
+      <c r="AF16" s="33"/>
+      <c r="AG16" s="33"/>
+      <c r="AH16" s="33"/>
+      <c r="AI16" s="33"/>
+      <c r="AJ16" s="33"/>
+      <c r="AK16" s="33"/>
+      <c r="AL16" s="33"/>
+      <c r="AM16" s="33"/>
+      <c r="AN16" s="33"/>
+      <c r="AO16" s="33"/>
+      <c r="AP16" s="33"/>
+      <c r="AQ16" s="33"/>
+      <c r="AR16" s="33"/>
+      <c r="AS16" s="33"/>
+      <c r="AT16" s="33"/>
+      <c r="AU16" s="33"/>
+    </row>
+    <row r="17" spans="1:47" ht="22.5" customHeight="1">
+      <c r="A17" s="16"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="56"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="W17" s="42"/>
+      <c r="X17" s="42"/>
+      <c r="Y17" s="42"/>
+      <c r="Z17" s="43"/>
+      <c r="AD17" s="33"/>
+      <c r="AE17" s="33"/>
+      <c r="AF17" s="33"/>
+      <c r="AG17" s="33"/>
+      <c r="AH17" s="33"/>
+      <c r="AI17" s="33"/>
+      <c r="AJ17" s="33"/>
+      <c r="AK17" s="33"/>
+      <c r="AL17" s="33"/>
+      <c r="AM17" s="33"/>
+      <c r="AN17" s="33"/>
+      <c r="AO17" s="33"/>
+      <c r="AP17" s="33"/>
+      <c r="AQ17" s="33"/>
+      <c r="AR17" s="33"/>
+      <c r="AS17" s="33"/>
+      <c r="AT17" s="33"/>
+      <c r="AU17" s="33"/>
+    </row>
+    <row r="18" spans="1:47" ht="22.5" customHeight="1">
+      <c r="A18" s="16"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="Z18" s="30"/>
+      <c r="AD18" s="33"/>
+      <c r="AE18" s="33"/>
+      <c r="AF18" s="33"/>
+      <c r="AG18" s="33"/>
+      <c r="AH18" s="33"/>
+      <c r="AI18" s="33"/>
+      <c r="AJ18" s="33"/>
+      <c r="AK18" s="33"/>
+      <c r="AL18" s="33"/>
+      <c r="AM18" s="33"/>
+      <c r="AN18" s="33"/>
+      <c r="AO18" s="33"/>
+      <c r="AP18" s="33"/>
+      <c r="AQ18" s="33"/>
+      <c r="AR18" s="33"/>
+      <c r="AS18" s="33"/>
+      <c r="AT18" s="33"/>
+      <c r="AU18" s="33"/>
+    </row>
+    <row r="19" spans="1:47" ht="22.5" customHeight="1">
+      <c r="A19" s="16"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="16"/>
+      <c r="G19" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="17"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="L19" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="16"/>
+      <c r="Z19" s="30"/>
+      <c r="AD19" s="33"/>
+      <c r="AE19" s="33"/>
+      <c r="AF19" s="33"/>
+      <c r="AG19" s="33"/>
+      <c r="AH19" s="33"/>
+      <c r="AI19" s="33"/>
+      <c r="AJ19" s="33"/>
+      <c r="AK19" s="33"/>
+      <c r="AL19" s="33"/>
+      <c r="AM19" s="33"/>
+      <c r="AN19" s="33"/>
+      <c r="AO19" s="33"/>
+      <c r="AP19" s="33"/>
+      <c r="AQ19" s="33"/>
+      <c r="AR19" s="33"/>
+      <c r="AS19" s="33"/>
+      <c r="AT19" s="33"/>
+      <c r="AU19" s="33"/>
+    </row>
+    <row r="20" spans="1:47" ht="22.5" customHeight="1">
+      <c r="A20" s="16"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="16"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="V20" s="17"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="30"/>
+      <c r="AD20" s="33"/>
+      <c r="AE20" s="33"/>
+      <c r="AF20" s="33"/>
+      <c r="AG20" s="33"/>
+      <c r="AH20" s="33"/>
+      <c r="AI20" s="33"/>
+      <c r="AJ20" s="33"/>
+      <c r="AK20" s="33"/>
+      <c r="AL20" s="33"/>
+      <c r="AM20" s="33"/>
+      <c r="AN20" s="33"/>
+      <c r="AO20" s="33"/>
+      <c r="AP20" s="33"/>
+      <c r="AQ20" s="33"/>
+      <c r="AR20" s="33"/>
+      <c r="AS20" s="33"/>
+      <c r="AT20" s="33"/>
+      <c r="AU20" s="33"/>
+    </row>
+    <row r="21" spans="1:47" ht="22.5" customHeight="1">
+      <c r="A21" s="16"/>
+      <c r="B21" s="25"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="L21" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="30"/>
+      <c r="AD21" s="33"/>
+      <c r="AE21" s="33"/>
+      <c r="AF21" s="33"/>
+      <c r="AG21" s="33"/>
+      <c r="AH21" s="33"/>
+      <c r="AI21" s="33"/>
+      <c r="AJ21" s="33"/>
+      <c r="AK21" s="33"/>
+      <c r="AL21" s="33"/>
+      <c r="AM21" s="33"/>
+      <c r="AN21" s="33"/>
+      <c r="AO21" s="33"/>
+      <c r="AP21" s="33"/>
+      <c r="AQ21" s="33"/>
+      <c r="AR21" s="33"/>
+      <c r="AS21" s="33"/>
+      <c r="AT21" s="33"/>
+      <c r="AU21" s="33"/>
+    </row>
+    <row r="22" spans="1:47" ht="22.5" customHeight="1">
+      <c r="B22" s="25"/>
+      <c r="C22" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="17"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="16"/>
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="30"/>
+    </row>
+    <row r="23" spans="1:47" ht="22.5" customHeight="1">
+      <c r="B23" s="25"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="L23" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y23" s="20">
+        <v>4</v>
+      </c>
+      <c r="Z23" s="32"/>
+    </row>
+    <row r="24" spans="1:47" ht="22.5" customHeight="1">
+      <c r="B24" s="25"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="Z24" s="30"/>
+    </row>
+    <row r="25" spans="1:47" ht="22.5" customHeight="1">
+      <c r="B25" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="41"/>
-      <c r="AH3" s="40"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="40"/>
-      <c r="AK3" s="40"/>
-      <c r="AL3" s="40"/>
-      <c r="AM3" s="40"/>
-      <c r="AN3" s="40"/>
-      <c r="AO3" s="40"/>
-      <c r="AP3" s="40"/>
-      <c r="AQ3" s="40"/>
-      <c r="AR3" s="40"/>
-      <c r="AS3" s="40"/>
-      <c r="AT3" s="42"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="19">
+        <v>2</v>
+      </c>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="16"/>
+      <c r="X25" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y25" s="17"/>
+      <c r="Z25" s="32"/>
     </row>
-    <row r="4" ht="22.5" customHeight="1">
-      <c r="A4" s="23"/>
-      <c r="B4" t="s" s="35">
-        <v>37</v>
-      </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="43">
-        <v>1</v>
-      </c>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="44"/>
-      <c r="Z4" s="44"/>
-      <c r="AA4" s="44"/>
-      <c r="AB4" s="44"/>
-      <c r="AC4" s="44"/>
-      <c r="AD4" s="44"/>
-      <c r="AE4" s="44"/>
-      <c r="AF4" t="s" s="45">
+    <row r="26" spans="1:47" ht="22.5" customHeight="1">
+      <c r="B26" s="25"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="L26" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="AG4" s="46">
-        <v>5</v>
-      </c>
-      <c r="AH4" s="44"/>
-      <c r="AI4" s="44"/>
-      <c r="AJ4" s="44"/>
-      <c r="AK4" s="44"/>
-      <c r="AL4" s="44"/>
-      <c r="AM4" s="44"/>
-      <c r="AN4" s="44"/>
-      <c r="AO4" s="44"/>
-      <c r="AP4" s="44"/>
-      <c r="AQ4" s="44"/>
-      <c r="AR4" s="44"/>
-      <c r="AS4" s="44"/>
-      <c r="AT4" s="47"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="P26" s="17"/>
+      <c r="S26" s="16"/>
+      <c r="Z26" s="30"/>
     </row>
-    <row r="5" ht="22.5" customHeight="1">
-      <c r="A5" s="23"/>
-      <c r="B5" t="s" s="35">
+    <row r="27" spans="1:47" ht="22.5" customHeight="1">
+      <c r="B27" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="36"/>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="36"/>
-      <c r="Z5" s="36"/>
-      <c r="AA5" s="36"/>
-      <c r="AB5" s="36"/>
-      <c r="AC5" s="36"/>
-      <c r="AD5" s="36"/>
-      <c r="AE5" s="36"/>
-      <c r="AF5" s="36"/>
-      <c r="AG5" s="36"/>
-      <c r="AH5" s="36"/>
-      <c r="AI5" s="36"/>
-      <c r="AJ5" s="36"/>
-      <c r="AK5" s="36"/>
-      <c r="AL5" t="s" s="49">
-        <v>40</v>
-      </c>
-      <c r="AM5" s="39"/>
-      <c r="AN5" s="39"/>
-      <c r="AO5" s="39"/>
-      <c r="AP5" t="s" s="49">
-        <v>40</v>
-      </c>
-      <c r="AQ5" s="39"/>
-      <c r="AR5" s="39"/>
-      <c r="AS5" s="39"/>
-      <c r="AT5" s="50"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="17"/>
+      <c r="W27" s="16"/>
+      <c r="X27" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y27" s="17"/>
+      <c r="Z27" s="32"/>
     </row>
-    <row r="6" ht="22.5" customHeight="1">
-      <c r="A6" s="23"/>
-      <c r="B6" t="s" s="35">
-        <v>41</v>
-      </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="28"/>
-      <c r="V6" t="s" s="38">
-        <v>36</v>
-      </c>
-      <c r="W6" s="39"/>
-      <c r="X6" s="39"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="36"/>
-      <c r="AB6" s="36"/>
-      <c r="AC6" s="36"/>
-      <c r="AD6" s="36"/>
-      <c r="AE6" s="36"/>
-      <c r="AF6" s="36"/>
-      <c r="AG6" s="36"/>
-      <c r="AH6" s="36"/>
-      <c r="AI6" s="36"/>
-      <c r="AJ6" s="36"/>
-      <c r="AK6" s="36"/>
-      <c r="AL6" s="36"/>
-      <c r="AM6" s="36"/>
-      <c r="AN6" s="36"/>
-      <c r="AO6" s="36"/>
-      <c r="AP6" s="36"/>
-      <c r="AQ6" s="36"/>
-      <c r="AR6" s="36"/>
-      <c r="AS6" s="36"/>
-      <c r="AT6" s="28"/>
-    </row>
-    <row r="7" ht="22.5" customHeight="1">
-      <c r="A7" s="23"/>
-      <c r="B7" t="s" s="51">
-        <v>42</v>
-      </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="52"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="54"/>
-      <c r="W7" s="39"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="36"/>
-      <c r="Z7" s="36"/>
-      <c r="AA7" t="s" s="49">
-        <v>43</v>
-      </c>
-      <c r="AB7" s="39"/>
-      <c r="AC7" s="36"/>
-      <c r="AD7" t="s" s="49">
-        <v>43</v>
-      </c>
-      <c r="AE7" s="39"/>
-      <c r="AF7" s="36"/>
-      <c r="AG7" s="36"/>
-      <c r="AH7" s="36"/>
-      <c r="AI7" s="36"/>
-      <c r="AJ7" s="36"/>
-      <c r="AK7" s="36"/>
-      <c r="AL7" s="36"/>
-      <c r="AM7" s="36"/>
-      <c r="AN7" s="36"/>
-      <c r="AO7" s="36"/>
-      <c r="AP7" s="36"/>
-      <c r="AQ7" s="36"/>
-      <c r="AR7" s="36"/>
-      <c r="AS7" s="36"/>
-      <c r="AT7" s="28"/>
-    </row>
-    <row r="8" ht="22.5" customHeight="1">
-      <c r="A8" s="55"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="56"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="36"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="36"/>
-      <c r="X8" s="36"/>
-      <c r="Y8" s="36"/>
-      <c r="Z8" s="36"/>
-      <c r="AA8" s="39"/>
-      <c r="AB8" s="39"/>
-      <c r="AC8" s="36"/>
-      <c r="AD8" s="39"/>
-      <c r="AE8" s="39"/>
-      <c r="AF8" s="36"/>
-      <c r="AG8" s="36"/>
-      <c r="AH8" s="36"/>
-      <c r="AI8" s="36"/>
-      <c r="AJ8" s="36"/>
-      <c r="AK8" s="36"/>
-      <c r="AL8" s="36"/>
-      <c r="AM8" s="36"/>
-      <c r="AN8" t="s" s="49">
-        <v>44</v>
-      </c>
-      <c r="AO8" s="39"/>
-      <c r="AP8" s="39"/>
-      <c r="AQ8" s="36"/>
-      <c r="AR8" t="s" s="49">
-        <v>44</v>
-      </c>
-      <c r="AS8" s="39"/>
-      <c r="AT8" s="50"/>
-    </row>
-    <row r="9" ht="22.5" customHeight="1">
-      <c r="A9" s="55"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="28"/>
-      <c r="V9" t="s" s="38">
-        <v>36</v>
-      </c>
-      <c r="W9" s="39"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="36"/>
-      <c r="Z9" s="36"/>
-      <c r="AA9" s="36"/>
-      <c r="AB9" s="36"/>
-      <c r="AC9" s="36"/>
-      <c r="AD9" s="36"/>
-      <c r="AE9" s="36"/>
-      <c r="AF9" s="36"/>
-      <c r="AG9" s="36"/>
-      <c r="AH9" s="36"/>
-      <c r="AI9" s="36"/>
-      <c r="AJ9" s="36"/>
-      <c r="AK9" s="36"/>
-      <c r="AL9" s="36"/>
-      <c r="AM9" s="36"/>
-      <c r="AN9" s="36"/>
-      <c r="AO9" s="36"/>
-      <c r="AP9" s="36"/>
-      <c r="AQ9" s="36"/>
-      <c r="AR9" s="36"/>
-      <c r="AS9" s="36"/>
-      <c r="AT9" s="28"/>
-    </row>
-    <row r="10" ht="22.5" customHeight="1">
-      <c r="A10" s="55"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="54"/>
-      <c r="W10" s="39"/>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="36"/>
-      <c r="Z10" s="36"/>
-      <c r="AA10" t="s" s="49">
-        <v>43</v>
-      </c>
-      <c r="AB10" s="39"/>
-      <c r="AC10" s="36"/>
-      <c r="AD10" t="s" s="49">
-        <v>43</v>
-      </c>
-      <c r="AE10" s="39"/>
-      <c r="AF10" s="36"/>
-      <c r="AG10" s="36"/>
-      <c r="AH10" s="36"/>
-      <c r="AI10" s="36"/>
-      <c r="AJ10" s="36"/>
-      <c r="AK10" s="36"/>
-      <c r="AL10" s="36"/>
-      <c r="AM10" s="36"/>
-      <c r="AN10" s="36"/>
-      <c r="AO10" t="s" s="49">
-        <v>43</v>
-      </c>
-      <c r="AP10" s="39"/>
-      <c r="AQ10" s="36"/>
-      <c r="AR10" t="s" s="49">
-        <v>43</v>
-      </c>
-      <c r="AS10" s="39"/>
-      <c r="AT10" s="28"/>
-    </row>
-    <row r="11" ht="22.5" customHeight="1">
-      <c r="A11" s="55"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="36"/>
-      <c r="X11" s="36"/>
-      <c r="Y11" s="36"/>
-      <c r="Z11" s="36"/>
-      <c r="AA11" s="39"/>
-      <c r="AB11" s="39"/>
-      <c r="AC11" s="36"/>
-      <c r="AD11" s="39"/>
-      <c r="AE11" s="39"/>
-      <c r="AF11" s="36"/>
-      <c r="AG11" s="36"/>
-      <c r="AH11" s="36"/>
-      <c r="AI11" s="36"/>
-      <c r="AJ11" s="36"/>
-      <c r="AK11" s="36"/>
-      <c r="AL11" s="36"/>
-      <c r="AM11" s="36"/>
-      <c r="AN11" s="36"/>
-      <c r="AO11" s="39"/>
-      <c r="AP11" s="39"/>
-      <c r="AQ11" s="36"/>
-      <c r="AR11" s="57">
-        <v>2</v>
-      </c>
-      <c r="AS11" s="39"/>
-      <c r="AT11" s="28"/>
-    </row>
-    <row r="12" ht="22.5" customHeight="1">
-      <c r="A12" s="55"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="28"/>
-      <c r="V12" t="s" s="38">
-        <v>36</v>
-      </c>
-      <c r="W12" s="39"/>
-      <c r="X12" s="39"/>
-      <c r="Y12" s="36"/>
-      <c r="Z12" s="36"/>
-      <c r="AA12" s="36"/>
-      <c r="AB12" s="36"/>
-      <c r="AC12" s="36"/>
-      <c r="AD12" s="36"/>
-      <c r="AE12" s="36"/>
-      <c r="AF12" s="36"/>
-      <c r="AG12" s="36"/>
-      <c r="AH12" s="36"/>
-      <c r="AI12" s="36"/>
-      <c r="AJ12" s="36"/>
-      <c r="AK12" s="36"/>
-      <c r="AL12" s="36"/>
-      <c r="AM12" s="36"/>
-      <c r="AN12" s="36"/>
-      <c r="AO12" s="36"/>
-      <c r="AP12" s="36"/>
-      <c r="AQ12" s="36"/>
-      <c r="AR12" s="36"/>
-      <c r="AS12" s="36"/>
-      <c r="AT12" s="28"/>
-    </row>
-    <row r="13" ht="22.5" customHeight="1">
-      <c r="A13" s="55"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="54"/>
-      <c r="W13" s="58">
-        <v>3</v>
-      </c>
-      <c r="X13" s="39"/>
-      <c r="Y13" s="36"/>
-      <c r="Z13" s="36"/>
-      <c r="AA13" s="36"/>
-      <c r="AB13" s="36"/>
-      <c r="AC13" s="36"/>
-      <c r="AD13" s="36"/>
-      <c r="AE13" s="36"/>
-      <c r="AF13" s="36"/>
-      <c r="AG13" s="36"/>
-      <c r="AH13" s="36"/>
-      <c r="AI13" s="36"/>
-      <c r="AJ13" s="36"/>
-      <c r="AK13" s="36"/>
-      <c r="AL13" s="36"/>
-      <c r="AM13" s="36"/>
-      <c r="AN13" t="s" s="49">
-        <v>44</v>
-      </c>
-      <c r="AO13" s="39"/>
-      <c r="AP13" s="39"/>
-      <c r="AQ13" s="36"/>
-      <c r="AR13" t="s" s="49">
-        <v>44</v>
-      </c>
-      <c r="AS13" s="39"/>
-      <c r="AT13" s="50"/>
-    </row>
-    <row r="14" ht="22.5" customHeight="1">
-      <c r="A14" s="55"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="36"/>
-      <c r="X14" s="36"/>
-      <c r="Y14" s="36"/>
-      <c r="Z14" s="36"/>
-      <c r="AA14" t="s" s="49">
-        <v>43</v>
-      </c>
-      <c r="AB14" s="39"/>
-      <c r="AC14" s="36"/>
-      <c r="AD14" s="36"/>
-      <c r="AE14" t="s" s="49">
-        <v>43</v>
-      </c>
-      <c r="AF14" s="39"/>
-      <c r="AG14" s="36"/>
-      <c r="AH14" s="36"/>
-      <c r="AI14" s="36"/>
-      <c r="AJ14" s="36"/>
-      <c r="AK14" s="36"/>
-      <c r="AL14" s="36"/>
-      <c r="AM14" s="36"/>
-      <c r="AN14" s="36"/>
-      <c r="AO14" s="36"/>
-      <c r="AP14" s="36"/>
-      <c r="AQ14" s="36"/>
-      <c r="AR14" s="36"/>
-      <c r="AS14" s="36"/>
-      <c r="AT14" s="28"/>
-    </row>
-    <row r="15" ht="22.5" customHeight="1">
-      <c r="A15" s="55"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="28"/>
-      <c r="V15" t="s" s="38">
-        <v>36</v>
-      </c>
-      <c r="W15" s="39"/>
-      <c r="X15" s="39"/>
-      <c r="Y15" s="36"/>
-      <c r="Z15" s="36"/>
-      <c r="AA15" s="39"/>
-      <c r="AB15" s="39"/>
-      <c r="AC15" s="36"/>
-      <c r="AD15" s="36"/>
-      <c r="AE15" s="39"/>
-      <c r="AF15" s="39"/>
-      <c r="AG15" s="36"/>
-      <c r="AH15" s="36"/>
-      <c r="AI15" s="36"/>
-      <c r="AJ15" s="36"/>
-      <c r="AK15" s="36"/>
-      <c r="AL15" s="36"/>
-      <c r="AM15" s="36"/>
-      <c r="AN15" s="36"/>
-      <c r="AO15" t="s" s="49">
-        <v>43</v>
-      </c>
-      <c r="AP15" s="39"/>
-      <c r="AQ15" s="36"/>
-      <c r="AR15" t="s" s="49">
-        <v>43</v>
-      </c>
-      <c r="AS15" s="39"/>
-      <c r="AT15" s="28"/>
-    </row>
-    <row r="16" ht="22.5" customHeight="1">
-      <c r="A16" s="55"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="54"/>
-      <c r="W16" s="39"/>
-      <c r="X16" s="39"/>
-      <c r="Y16" s="36"/>
-      <c r="Z16" s="36"/>
-      <c r="AA16" s="36"/>
-      <c r="AB16" s="36"/>
-      <c r="AC16" s="36"/>
-      <c r="AD16" s="36"/>
-      <c r="AE16" s="36"/>
-      <c r="AF16" s="36"/>
-      <c r="AG16" s="36"/>
-      <c r="AH16" s="36"/>
-      <c r="AI16" s="36"/>
-      <c r="AJ16" s="36"/>
-      <c r="AK16" s="36"/>
-      <c r="AL16" s="36"/>
-      <c r="AM16" s="36"/>
-      <c r="AN16" s="36"/>
-      <c r="AO16" s="39"/>
-      <c r="AP16" s="39"/>
-      <c r="AQ16" s="36"/>
-      <c r="AR16" s="39"/>
-      <c r="AS16" s="39"/>
-      <c r="AT16" s="28"/>
-    </row>
-    <row r="17" ht="22.5" customHeight="1">
-      <c r="A17" s="55"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="48"/>
-      <c r="W17" s="36"/>
-      <c r="X17" s="36"/>
-      <c r="Y17" s="36"/>
-      <c r="Z17" s="36"/>
-      <c r="AA17" t="s" s="49">
-        <v>44</v>
-      </c>
-      <c r="AB17" s="39"/>
-      <c r="AC17" s="39"/>
-      <c r="AD17" s="36"/>
-      <c r="AE17" t="s" s="49">
-        <v>44</v>
-      </c>
-      <c r="AF17" s="39"/>
-      <c r="AG17" s="39"/>
-      <c r="AH17" s="36"/>
-      <c r="AI17" s="36"/>
-      <c r="AJ17" s="36"/>
-      <c r="AK17" s="36"/>
-      <c r="AL17" s="36"/>
-      <c r="AM17" s="36"/>
-      <c r="AN17" s="36"/>
-      <c r="AO17" s="36"/>
-      <c r="AP17" s="36"/>
-      <c r="AQ17" s="36"/>
-      <c r="AR17" s="36"/>
-      <c r="AS17" s="36"/>
-      <c r="AT17" s="28"/>
-    </row>
-    <row r="18" ht="22.5" customHeight="1">
-      <c r="A18" s="55"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="36"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="48"/>
-      <c r="W18" s="36"/>
-      <c r="X18" s="36"/>
-      <c r="Y18" s="36"/>
-      <c r="Z18" s="36"/>
-      <c r="AA18" s="36"/>
-      <c r="AB18" s="36"/>
-      <c r="AC18" s="36"/>
-      <c r="AD18" s="36"/>
-      <c r="AE18" s="36"/>
-      <c r="AF18" s="36"/>
-      <c r="AG18" s="36"/>
-      <c r="AH18" s="36"/>
-      <c r="AI18" s="36"/>
-      <c r="AJ18" s="36"/>
-      <c r="AK18" s="36"/>
-      <c r="AL18" s="36"/>
-      <c r="AM18" s="36"/>
-      <c r="AN18" t="s" s="49">
-        <v>44</v>
-      </c>
-      <c r="AO18" s="58">
-        <v>4</v>
-      </c>
-      <c r="AP18" s="39"/>
-      <c r="AQ18" s="36"/>
-      <c r="AR18" t="s" s="49">
-        <v>44</v>
-      </c>
-      <c r="AS18" s="39"/>
-      <c r="AT18" s="50"/>
-    </row>
-    <row r="19" ht="22.5" customHeight="1">
-      <c r="A19" s="59"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="60"/>
-      <c r="P19" s="60"/>
-      <c r="Q19" s="60"/>
-      <c r="R19" s="60"/>
-      <c r="S19" s="60"/>
-      <c r="T19" s="60"/>
-      <c r="U19" s="61"/>
-      <c r="V19" t="s" s="62">
-        <v>45</v>
-      </c>
-      <c r="W19" s="63"/>
-      <c r="X19" s="63"/>
-      <c r="Y19" s="63"/>
-      <c r="Z19" s="63"/>
-      <c r="AA19" t="s" s="64">
-        <v>44</v>
-      </c>
-      <c r="AB19" s="41"/>
-      <c r="AC19" s="41"/>
-      <c r="AD19" s="63"/>
-      <c r="AE19" t="s" s="64">
-        <v>44</v>
-      </c>
-      <c r="AF19" s="41"/>
-      <c r="AG19" s="41"/>
-      <c r="AH19" s="63"/>
-      <c r="AI19" s="63"/>
-      <c r="AJ19" s="63"/>
-      <c r="AK19" s="63"/>
-      <c r="AL19" s="63"/>
-      <c r="AM19" s="63"/>
-      <c r="AN19" s="63"/>
-      <c r="AO19" s="63"/>
-      <c r="AP19" s="63"/>
-      <c r="AQ19" s="63"/>
-      <c r="AR19" s="63"/>
-      <c r="AS19" s="63"/>
-      <c r="AT19" s="65"/>
+    <row r="28" spans="1:47" ht="22.5" customHeight="1">
+      <c r="B28" s="35"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="28"/>
+      <c r="Z28" s="38"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>